--- a/project/cascade-belarus.xlsx
+++ b/project/cascade-belarus.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="576">
   <si>
     <t>Code Label</t>
   </si>
@@ -5477,7 +5477,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6101,6 +6101,9 @@
       <c r="G22" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="H22" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="I22" t="s">
         <v>52</v>
       </c>
@@ -6299,9 +6302,6 @@
       <c r="F32" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="J32" t="s">
         <v>41</v>
       </c>
@@ -6604,9 +6604,7 @@
       <c r="F45" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="H45" t="s">
-        <v>128</v>
-      </c>
+      <c r="H45"/>
       <c r="J45" t="s">
         <v>128</v>
       </c>
@@ -6627,9 +6625,7 @@
       <c r="F46" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="H46" t="s">
-        <v>131</v>
-      </c>
+      <c r="H46"/>
       <c r="J46" t="s">
         <v>131</v>
       </c>
@@ -6650,9 +6646,7 @@
       <c r="F47" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="H47" t="s">
-        <v>134</v>
-      </c>
+      <c r="H47"/>
       <c r="J47" t="s">
         <v>134</v>
       </c>
@@ -6673,9 +6667,7 @@
       <c r="F48" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="H48" t="s">
-        <v>137</v>
-      </c>
+      <c r="H48"/>
       <c r="J48" t="s">
         <v>137</v>
       </c>
@@ -6696,9 +6688,7 @@
       <c r="F49" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="H49" t="s">
-        <v>140</v>
-      </c>
+      <c r="H49"/>
       <c r="J49" t="s">
         <v>140</v>
       </c>
@@ -6719,9 +6709,7 @@
       <c r="F50" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="H50" t="s">
-        <v>143</v>
-      </c>
+      <c r="H50"/>
       <c r="J50" t="s">
         <v>143</v>
       </c>

--- a/project/cascade-belarus.xlsx
+++ b/project/cascade-belarus.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27417"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sjarvis/git/tb-ucl/project/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="984" yWindow="180" windowWidth="23256" windowHeight="13116" activeTab="3"/>
+    <workbookView xWindow="-5400" yWindow="-23220" windowWidth="35020" windowHeight="20860" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Databook Sheet Names" sheetId="5" r:id="rId1"/>
@@ -16,6 +21,9 @@
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -82,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="577">
   <si>
     <t>Code Label</t>
   </si>
@@ -1976,6 +1984,9 @@
   </si>
   <si>
     <t>Disaggregation Ratios</t>
+  </si>
+  <si>
+    <t>Calibrate?</t>
   </si>
 </sst>
 </file>
@@ -2851,13 +2862,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>325120</xdr:colOff>
       <xdr:row>104</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>155316</xdr:colOff>
       <xdr:row>111</xdr:row>
       <xdr:rowOff>156633</xdr:rowOff>
@@ -3183,13 +3194,13 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>79</v>
       </c>
@@ -3197,7 +3208,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>81</v>
       </c>
@@ -3205,7 +3216,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>403</v>
       </c>
@@ -3213,7 +3224,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>82</v>
       </c>
@@ -3221,7 +3232,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>276</v>
       </c>
@@ -3229,7 +3240,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>84</v>
       </c>
@@ -3237,7 +3248,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>559</v>
       </c>
@@ -3245,7 +3256,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>539</v>
       </c>
@@ -3253,7 +3264,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>573</v>
       </c>
@@ -3261,7 +3272,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>538</v>
       </c>
@@ -3269,7 +3280,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>574</v>
       </c>
@@ -3277,7 +3288,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>556</v>
       </c>
@@ -3285,7 +3296,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>277</v>
       </c>
@@ -3293,7 +3304,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>343</v>
       </c>
@@ -3303,11 +3314,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3319,17 +3325,17 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="8.77734375" style="2"/>
+    <col min="4" max="4" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3352,7 +3358,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3363,7 +3369,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3374,7 +3380,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>206</v>
       </c>
@@ -3385,7 +3391,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
@@ -3396,7 +3402,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -3407,7 +3413,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>209</v>
       </c>
@@ -3418,7 +3424,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>210</v>
       </c>
@@ -3429,7 +3435,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>211</v>
       </c>
@@ -3440,7 +3446,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -3451,7 +3457,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>203</v>
       </c>
@@ -3465,7 +3471,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>204</v>
       </c>
@@ -3479,7 +3485,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>127</v>
       </c>
@@ -3490,7 +3496,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -3501,7 +3507,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -3512,7 +3518,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -3523,7 +3529,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -3534,7 +3540,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -3545,7 +3551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>133</v>
       </c>
@@ -3556,7 +3562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -3567,7 +3573,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -3578,7 +3584,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>205</v>
       </c>
@@ -3592,7 +3598,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -3603,7 +3609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -3614,7 +3620,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -3625,7 +3631,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -3636,7 +3642,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -3647,7 +3653,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>141</v>
       </c>
@@ -3658,7 +3664,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>142</v>
       </c>
@@ -3669,7 +3675,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -3680,7 +3686,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>144</v>
       </c>
@@ -3691,7 +3697,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -3702,7 +3708,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -3716,7 +3722,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -3730,7 +3736,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>270</v>
       </c>
@@ -3746,11 +3752,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3762,44 +3763,44 @@
       <selection activeCell="AJ20" sqref="AJ20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="2" max="2" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.33203125" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.33203125" customWidth="1"/>
     <col min="15" max="15" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="5.33203125" customWidth="1"/>
     <col min="25" max="25" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="7" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>270</v>
@@ -3904,7 +3905,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>270</v>
       </c>
@@ -3947,7 +3948,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3992,7 +3993,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -4035,7 +4036,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>206</v>
       </c>
@@ -4082,7 +4083,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>207</v>
       </c>
@@ -4129,7 +4130,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
         <v>208</v>
       </c>
@@ -4174,7 +4175,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>209</v>
       </c>
@@ -4219,7 +4220,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
         <v>210</v>
       </c>
@@ -4264,7 +4265,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="30" t="s">
         <v>211</v>
       </c>
@@ -4309,7 +4310,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>75</v>
       </c>
@@ -4352,7 +4353,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>203</v>
       </c>
@@ -4395,7 +4396,7 @@
       <c r="AH12" s="20"/>
       <c r="AI12" s="22"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>204</v>
       </c>
@@ -4440,7 +4441,7 @@
       <c r="AH13" s="10"/>
       <c r="AI13" s="11"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>127</v>
       </c>
@@ -4487,7 +4488,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>128</v>
       </c>
@@ -4534,7 +4535,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>129</v>
       </c>
@@ -4583,7 +4584,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>130</v>
       </c>
@@ -4630,7 +4631,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>131</v>
       </c>
@@ -4677,7 +4678,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>132</v>
       </c>
@@ -4726,7 +4727,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>133</v>
       </c>
@@ -4773,7 +4774,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>134</v>
       </c>
@@ -4820,7 +4821,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>135</v>
       </c>
@@ -4867,7 +4868,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>205</v>
       </c>
@@ -4912,7 +4913,7 @@
       <c r="AH23" s="7"/>
       <c r="AI23" s="8"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>136</v>
       </c>
@@ -4959,7 +4960,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>137</v>
       </c>
@@ -5006,7 +5007,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>138</v>
       </c>
@@ -5055,7 +5056,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>139</v>
       </c>
@@ -5102,7 +5103,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>140</v>
       </c>
@@ -5149,7 +5150,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>141</v>
       </c>
@@ -5198,7 +5199,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>142</v>
       </c>
@@ -5245,7 +5246,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>143</v>
       </c>
@@ -5292,7 +5293,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>144</v>
       </c>
@@ -5339,7 +5340,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>76</v>
       </c>
@@ -5382,7 +5383,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>41</v>
       </c>
@@ -5421,7 +5422,7 @@
       <c r="AH34" s="10"/>
       <c r="AI34" s="11"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
@@ -5464,11 +5465,6 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5477,35 +5473,35 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="56.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
     <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="16" width="8.77734375" customWidth="1"/>
+    <col min="12" max="16" width="8.83203125" customWidth="1"/>
     <col min="17" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5537,7 +5533,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -5550,6 +5546,9 @@
       <c r="D2" s="2">
         <v>-1</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>433</v>
+      </c>
       <c r="J2" t="s">
         <v>206</v>
       </c>
@@ -5569,7 +5568,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>145</v>
       </c>
@@ -5582,9 +5581,6 @@
       <c r="D3" s="2">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>433</v>
-      </c>
       <c r="J3" t="s">
         <v>127</v>
       </c>
@@ -5592,7 +5588,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>146</v>
       </c>
@@ -5615,7 +5611,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>147</v>
       </c>
@@ -5638,7 +5634,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>174</v>
       </c>
@@ -5661,7 +5657,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>175</v>
       </c>
@@ -5684,7 +5680,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>176</v>
       </c>
@@ -5707,7 +5703,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>148</v>
       </c>
@@ -5745,7 +5741,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>177</v>
       </c>
@@ -5783,7 +5779,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -5796,6 +5792,9 @@
       <c r="D11" s="2">
         <v>1</v>
       </c>
+      <c r="F11" s="2" t="s">
+        <v>433</v>
+      </c>
       <c r="J11" t="s">
         <v>203</v>
       </c>
@@ -5806,7 +5805,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -5844,7 +5843,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -5870,7 +5869,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>149</v>
       </c>
@@ -5896,7 +5895,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>150</v>
       </c>
@@ -5922,7 +5921,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>151</v>
       </c>
@@ -5948,7 +5947,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>178</v>
       </c>
@@ -5974,7 +5973,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>179</v>
       </c>
@@ -6001,7 +6000,7 @@
       </c>
       <c r="O18" s="15"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>180</v>
       </c>
@@ -6027,7 +6026,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>152</v>
       </c>
@@ -6056,7 +6055,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>181</v>
       </c>
@@ -6085,7 +6084,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -6111,7 +6110,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>327</v>
       </c>
@@ -6128,7 +6127,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>332</v>
       </c>
@@ -6151,7 +6150,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>331</v>
       </c>
@@ -6174,7 +6173,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>328</v>
       </c>
@@ -6191,7 +6190,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>330</v>
       </c>
@@ -6211,7 +6210,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>335</v>
       </c>
@@ -6237,7 +6236,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>333</v>
       </c>
@@ -6260,7 +6259,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>334</v>
       </c>
@@ -6286,7 +6285,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>365</v>
       </c>
@@ -6306,7 +6305,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>375</v>
       </c>
@@ -6332,7 +6331,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>376</v>
       </c>
@@ -6358,7 +6357,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>377</v>
       </c>
@@ -6384,7 +6383,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>372</v>
       </c>
@@ -6410,7 +6409,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>373</v>
       </c>
@@ -6436,7 +6435,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>374</v>
       </c>
@@ -6462,7 +6461,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>367</v>
       </c>
@@ -6488,7 +6487,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>366</v>
       </c>
@@ -6514,7 +6513,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>368</v>
       </c>
@@ -6540,7 +6539,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>382</v>
       </c>
@@ -6557,7 +6556,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>383</v>
       </c>
@@ -6574,7 +6573,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>384</v>
       </c>
@@ -6588,7 +6587,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>385</v>
       </c>
@@ -6609,7 +6608,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>386</v>
       </c>
@@ -6630,7 +6629,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>387</v>
       </c>
@@ -6651,7 +6650,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>388</v>
       </c>
@@ -6672,7 +6671,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>389</v>
       </c>
@@ -6693,7 +6692,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>390</v>
       </c>
@@ -6714,7 +6713,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>391</v>
       </c>
@@ -6740,7 +6739,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>392</v>
       </c>
@@ -6766,7 +6765,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>393</v>
       </c>
@@ -6791,37 +6790,33 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="118.109375" style="23" customWidth="1"/>
-    <col min="8" max="8" width="40" customWidth="1"/>
-    <col min="9" max="9" width="98" customWidth="1"/>
-    <col min="14" max="14" width="75.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10" style="2" customWidth="1"/>
+    <col min="8" max="8" width="118.1640625" style="23" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="98" customWidth="1"/>
+    <col min="15" max="15" width="75.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -6841,16 +6836,19 @@
         <v>63</v>
       </c>
       <c r="G1" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -6867,11 +6865,14 @@
       <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>316</v>
       </c>
@@ -6886,14 +6887,14 @@
       <c r="F3" s="2">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>297</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="J3" s="23" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>301</v>
       </c>
@@ -6910,14 +6911,14 @@
       <c r="F4" s="2">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>313</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="J4" s="50" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>317</v>
       </c>
@@ -6934,14 +6935,14 @@
       <c r="F5" s="2">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>299</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="J5" s="50" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>318</v>
       </c>
@@ -6958,14 +6959,14 @@
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>300</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="J6" s="50" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>222</v>
       </c>
@@ -6978,12 +6979,15 @@
       <c r="F7" s="2">
         <v>-1</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H7" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="H7" s="23"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>232</v>
       </c>
@@ -6996,11 +7000,14 @@
       <c r="F8" s="2">
         <v>-1</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H8" s="23" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>233</v>
       </c>
@@ -7013,11 +7020,14 @@
       <c r="F9" s="2">
         <v>-1</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H9" s="23" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>234</v>
       </c>
@@ -7030,11 +7040,14 @@
       <c r="F10" s="2">
         <v>-1</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H10" s="23" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>225</v>
       </c>
@@ -7047,11 +7060,14 @@
       <c r="F11" s="2">
         <v>-1</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H11" s="23" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>235</v>
       </c>
@@ -7064,11 +7080,14 @@
       <c r="F12" s="2">
         <v>-1</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H12" s="23" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>236</v>
       </c>
@@ -7081,11 +7100,14 @@
       <c r="F13" s="2">
         <v>-1</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H13" s="23" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>237</v>
       </c>
@@ -7098,16 +7120,19 @@
       <c r="F14" s="2">
         <v>-1</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H14" s="23" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="D15"/>
-      <c r="I15" s="50"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="50"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>312</v>
       </c>
@@ -7121,14 +7146,14 @@
       <c r="E16" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>314</v>
       </c>
-      <c r="I16" s="49" t="s">
+      <c r="J16" s="49" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>292</v>
       </c>
@@ -7142,14 +7167,14 @@
       <c r="E17" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>315</v>
       </c>
-      <c r="I17" s="52" t="s">
+      <c r="J17" s="52" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>295</v>
       </c>
@@ -7163,14 +7188,14 @@
       <c r="E18" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>362</v>
       </c>
-      <c r="I18" s="49" t="s">
+      <c r="J18" s="49" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>245</v>
       </c>
@@ -7183,12 +7208,15 @@
       <c r="F19" s="2">
         <v>-1</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H19" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="H19" s="23"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>246</v>
       </c>
@@ -7201,11 +7229,14 @@
       <c r="F20" s="2">
         <v>-1</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H20" s="23" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>221</v>
       </c>
@@ -7218,11 +7249,14 @@
       <c r="F21" s="2">
         <v>-1</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H21" s="23" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>223</v>
       </c>
@@ -7235,11 +7269,14 @@
       <c r="F22" s="2">
         <v>-1</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H22" s="23" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>224</v>
       </c>
@@ -7252,11 +7289,14 @@
       <c r="F23" s="2">
         <v>-1</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H23" s="23" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>226</v>
       </c>
@@ -7269,15 +7309,18 @@
       <c r="F24" s="2">
         <v>-1</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H24" s="23" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="D25" s="37"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>289</v>
       </c>
@@ -7294,14 +7337,14 @@
       <c r="F26" s="2">
         <v>1</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>321</v>
       </c>
-      <c r="I26" s="40" t="s">
+      <c r="J26" s="40" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>290</v>
       </c>
@@ -7318,14 +7361,14 @@
       <c r="F27" s="2">
         <v>2</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>322</v>
       </c>
-      <c r="I27" s="50" t="s">
+      <c r="J27" s="50" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>291</v>
       </c>
@@ -7342,14 +7385,14 @@
       <c r="F28" s="2">
         <v>3</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>323</v>
       </c>
-      <c r="I28" s="51" t="s">
+      <c r="J28" s="51" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>153</v>
       </c>
@@ -7364,11 +7407,11 @@
       <c r="F29" s="2">
         <v>4</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>282</v>
       </c>
@@ -7385,14 +7428,14 @@
       <c r="F30" s="2">
         <v>5</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>288</v>
       </c>
-      <c r="I30" s="40" t="s">
+      <c r="J30" s="40" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="53" t="s">
         <v>325</v>
       </c>
@@ -7409,14 +7452,14 @@
       <c r="F31" s="54">
         <v>6</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>360</v>
       </c>
-      <c r="I31" s="55" t="s">
+      <c r="J31" s="55" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="53" t="s">
         <v>326</v>
       </c>
@@ -7433,14 +7476,14 @@
       <c r="F32" s="54">
         <v>7</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>361</v>
       </c>
-      <c r="I32" s="23" t="s">
+      <c r="J32" s="23" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>154</v>
       </c>
@@ -7452,14 +7495,17 @@
       <c r="F33" s="2">
         <v>-1</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H33" t="s">
         <v>567</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>155</v>
       </c>
@@ -7471,14 +7517,17 @@
       <c r="F34" s="2">
         <v>-1</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H34" t="s">
         <v>568</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>182</v>
       </c>
@@ -7490,14 +7539,17 @@
       <c r="F35" s="2">
         <v>-1</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H35" t="s">
         <v>569</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>183</v>
       </c>
@@ -7509,14 +7561,17 @@
       <c r="F36" s="2">
         <v>-1</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H36" t="s">
         <v>571</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>184</v>
       </c>
@@ -7528,14 +7583,17 @@
       <c r="F37" s="2">
         <v>-1</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H37" t="s">
         <v>570</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>283</v>
       </c>
@@ -7546,11 +7604,14 @@
       <c r="F38" s="2">
         <v>-1</v>
       </c>
-      <c r="G38" s="35" t="s">
+      <c r="G38" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H38" s="35" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -7563,12 +7624,15 @@
       <c r="F39" s="2">
         <v>-1</v>
       </c>
-      <c r="G39" s="23" t="s">
+      <c r="G39" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H39" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="H39" s="23"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I39" s="23"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -7581,11 +7645,14 @@
       <c r="F40" s="2">
         <v>-1</v>
       </c>
-      <c r="G40" s="23" t="s">
+      <c r="G40" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H40" s="23" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -7598,11 +7665,14 @@
       <c r="F41" s="2">
         <v>-1</v>
       </c>
-      <c r="G41" s="23" t="s">
+      <c r="G41" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H41" s="23" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>71</v>
       </c>
@@ -7615,15 +7685,18 @@
       <c r="F42" s="2">
         <v>-1</v>
       </c>
-      <c r="G42" s="23" t="s">
+      <c r="G42" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H42" s="23" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
-      <c r="G43"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H43"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>274</v>
       </c>
@@ -7640,11 +7713,14 @@
       <c r="F44" s="2">
         <v>2</v>
       </c>
-      <c r="H44" t="s">
+      <c r="G44" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I44" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -7661,16 +7737,19 @@
       <c r="F45" s="2">
         <v>3</v>
       </c>
-      <c r="H45" t="s">
+      <c r="G45" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I45" t="s">
         <v>363</v>
       </c>
-      <c r="I45" s="23"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="23"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
       <c r="D46"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>156</v>
       </c>
@@ -7690,7 +7769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>185</v>
       </c>
@@ -7710,7 +7789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>157</v>
       </c>
@@ -7730,7 +7809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>158</v>
       </c>
@@ -7750,7 +7829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>159</v>
       </c>
@@ -7770,7 +7849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>186</v>
       </c>
@@ -7789,9 +7868,9 @@
       <c r="F52" s="2">
         <v>6</v>
       </c>
-      <c r="I52" s="23"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="23"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>187</v>
       </c>
@@ -7810,9 +7889,9 @@
       <c r="F53" s="2">
         <v>7</v>
       </c>
-      <c r="I53" s="23"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="23"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>188</v>
       </c>
@@ -7831,15 +7910,15 @@
       <c r="F54" s="2">
         <v>8</v>
       </c>
-      <c r="I54" s="23"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="23"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
       <c r="C55" s="53"/>
       <c r="D55"/>
-      <c r="I55" s="23"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="23"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>160</v>
       </c>
@@ -7858,14 +7937,14 @@
       <c r="F56" s="2">
         <v>1</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>305</v>
       </c>
-      <c r="I56" s="39" t="s">
+      <c r="J56" s="39" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>161</v>
       </c>
@@ -7884,14 +7963,17 @@
       <c r="F57" s="2">
         <v>2</v>
       </c>
-      <c r="H57" t="s">
+      <c r="G57" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I57" t="s">
         <v>306</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="J57" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>162</v>
       </c>
@@ -7910,14 +7992,17 @@
       <c r="F58" s="2">
         <v>3</v>
       </c>
-      <c r="H58" t="s">
+      <c r="G58" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I58" t="s">
         <v>307</v>
       </c>
-      <c r="I58" s="39" t="s">
+      <c r="J58" s="39" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>163</v>
       </c>
@@ -7936,14 +8021,17 @@
       <c r="F59" s="2">
         <v>4</v>
       </c>
-      <c r="H59" t="s">
+      <c r="G59" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I59" t="s">
         <v>308</v>
       </c>
-      <c r="I59" s="39" t="s">
+      <c r="J59" s="39" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>165</v>
       </c>
@@ -7962,14 +8050,14 @@
       <c r="F60" s="2">
         <v>5</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>305</v>
       </c>
-      <c r="I60" s="39" t="s">
+      <c r="J60" s="39" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>166</v>
       </c>
@@ -7988,14 +8076,17 @@
       <c r="F61" s="2">
         <v>6</v>
       </c>
-      <c r="H61" t="s">
+      <c r="G61" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I61" t="s">
         <v>306</v>
       </c>
-      <c r="I61" s="39" t="s">
+      <c r="J61" s="39" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>167</v>
       </c>
@@ -8014,14 +8105,17 @@
       <c r="F62" s="2">
         <v>7</v>
       </c>
-      <c r="H62" t="s">
+      <c r="G62" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I62" t="s">
         <v>307</v>
       </c>
-      <c r="I62" s="39" t="s">
+      <c r="J62" s="39" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>168</v>
       </c>
@@ -8040,14 +8134,17 @@
       <c r="F63" s="2">
         <v>8</v>
       </c>
-      <c r="H63" t="s">
+      <c r="G63" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I63" t="s">
         <v>308</v>
       </c>
-      <c r="I63" s="39" t="s">
+      <c r="J63" s="39" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>170</v>
       </c>
@@ -8066,14 +8163,14 @@
       <c r="F64" s="39">
         <v>9</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>305</v>
       </c>
-      <c r="I64" s="39" t="s">
+      <c r="J64" s="39" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>171</v>
       </c>
@@ -8092,14 +8189,14 @@
       <c r="F65" s="2">
         <v>10</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>306</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="J65" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>172</v>
       </c>
@@ -8118,14 +8215,14 @@
       <c r="F66" s="39">
         <v>11</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>307</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="J66" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>173</v>
       </c>
@@ -8144,14 +8241,14 @@
       <c r="F67" s="2">
         <v>12</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>308</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="J67" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>189</v>
       </c>
@@ -8170,14 +8267,14 @@
       <c r="F68" s="39">
         <v>13</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>305</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="J68" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>190</v>
       </c>
@@ -8196,14 +8293,17 @@
       <c r="F69" s="2">
         <v>14</v>
       </c>
-      <c r="H69" t="s">
+      <c r="G69" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I69" t="s">
         <v>306</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="J69" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>191</v>
       </c>
@@ -8222,14 +8322,17 @@
       <c r="F70" s="39">
         <v>15</v>
       </c>
-      <c r="H70" t="s">
+      <c r="G70" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I70" t="s">
         <v>307</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="J70" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>192</v>
       </c>
@@ -8248,12 +8351,15 @@
       <c r="F71" s="2">
         <v>16</v>
       </c>
-      <c r="H71" t="s">
+      <c r="G71" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I71" t="s">
         <v>308</v>
       </c>
-      <c r="I71" s="23"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="23"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>194</v>
       </c>
@@ -8272,14 +8378,14 @@
       <c r="F72" s="39">
         <v>17</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>305</v>
       </c>
-      <c r="I72" s="2" t="s">
+      <c r="J72" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>195</v>
       </c>
@@ -8298,14 +8404,17 @@
       <c r="F73" s="2">
         <v>18</v>
       </c>
-      <c r="H73" t="s">
+      <c r="G73" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I73" t="s">
         <v>306</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="J73" s="2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>196</v>
       </c>
@@ -8324,14 +8433,17 @@
       <c r="F74" s="39">
         <v>19</v>
       </c>
-      <c r="H74" t="s">
+      <c r="G74" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I74" t="s">
         <v>307</v>
       </c>
-      <c r="I74" s="2" t="s">
+      <c r="J74" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>197</v>
       </c>
@@ -8350,12 +8462,15 @@
       <c r="F75" s="2">
         <v>20</v>
       </c>
-      <c r="H75" t="s">
+      <c r="G75" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I75" t="s">
         <v>308</v>
       </c>
-      <c r="I75" s="23"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="23"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>199</v>
       </c>
@@ -8374,14 +8489,14 @@
       <c r="F76" s="39">
         <v>21</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>305</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="J76" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>200</v>
       </c>
@@ -8400,14 +8515,14 @@
       <c r="F77" s="2">
         <v>22</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>306</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="J77" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>201</v>
       </c>
@@ -8426,14 +8541,14 @@
       <c r="F78" s="39">
         <v>23</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>307</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="J78" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>202</v>
       </c>
@@ -8452,19 +8567,19 @@
       <c r="F79" s="2">
         <v>24</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>308</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="J79" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B80" s="2"/>
       <c r="D80"/>
-      <c r="I80" s="2"/>
-    </row>
-    <row r="81" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="J80" s="2"/>
+    </row>
+    <row r="81" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>351</v>
       </c>
@@ -8483,14 +8598,14 @@
       <c r="F81" s="2">
         <v>1</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>347</v>
       </c>
-      <c r="I81" s="56" t="s">
+      <c r="J81" s="56" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>348</v>
       </c>
@@ -8509,17 +8624,17 @@
       <c r="F82" s="2">
         <v>2</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>347</v>
       </c>
-      <c r="I82" s="56" t="s">
+      <c r="J82" s="56" t="s">
         <v>502</v>
       </c>
-      <c r="N82" s="55" t="s">
+      <c r="O82" s="55" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>349</v>
       </c>
@@ -8538,14 +8653,14 @@
       <c r="F83" s="41">
         <v>3</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>347</v>
       </c>
-      <c r="I83" s="57" t="s">
+      <c r="J83" s="57" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>350</v>
       </c>
@@ -8564,14 +8679,14 @@
       <c r="F84" s="2">
         <v>4</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>347</v>
       </c>
-      <c r="I84" s="55" t="s">
+      <c r="J84" s="55" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>353</v>
       </c>
@@ -8590,14 +8705,14 @@
       <c r="F85" s="2">
         <v>5</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>347</v>
       </c>
-      <c r="I85" s="55" t="s">
+      <c r="J85" s="55" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>352</v>
       </c>
@@ -8616,14 +8731,14 @@
       <c r="F86" s="2">
         <v>6</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>347</v>
       </c>
-      <c r="I86" s="58" t="s">
+      <c r="J86" s="58" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>193</v>
       </c>
@@ -8640,12 +8755,12 @@
       <c r="F87" s="2">
         <v>7</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>309</v>
       </c>
-      <c r="I87" s="23"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J87" s="23"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>198</v>
       </c>
@@ -8662,12 +8777,12 @@
       <c r="F88" s="2">
         <v>8</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>309</v>
       </c>
-      <c r="I88" s="23"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J88" s="23"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>164</v>
       </c>
@@ -8684,12 +8799,12 @@
       <c r="F89" s="2">
         <v>9</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>309</v>
       </c>
-      <c r="I89" s="23"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J89" s="23"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>169</v>
       </c>
@@ -8706,17 +8821,17 @@
       <c r="F90" s="2">
         <v>10</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>309</v>
       </c>
-      <c r="I90" s="23"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J90" s="23"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B91" s="2"/>
       <c r="D91"/>
-      <c r="I91" s="23"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J91" s="23"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>519</v>
       </c>
@@ -8735,11 +8850,11 @@
       <c r="F92" s="2">
         <v>1</v>
       </c>
-      <c r="I92" s="45" t="s">
+      <c r="J92" s="45" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>520</v>
       </c>
@@ -8758,11 +8873,11 @@
       <c r="F93" s="2">
         <v>2</v>
       </c>
-      <c r="I93" s="45" t="s">
+      <c r="J93" s="45" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>521</v>
       </c>
@@ -8781,11 +8896,11 @@
       <c r="F94" s="2">
         <v>3</v>
       </c>
-      <c r="I94" s="45" t="s">
+      <c r="J94" s="45" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>516</v>
       </c>
@@ -8804,14 +8919,17 @@
       <c r="F95" s="2">
         <v>4</v>
       </c>
-      <c r="H95" t="s">
+      <c r="G95" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I95" t="s">
         <v>285</v>
       </c>
-      <c r="I95" s="2" t="s">
+      <c r="J95" s="2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>517</v>
       </c>
@@ -8830,14 +8948,17 @@
       <c r="F96" s="39">
         <v>5</v>
       </c>
-      <c r="H96" t="s">
+      <c r="G96" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I96" t="s">
         <v>285</v>
       </c>
-      <c r="I96" s="2" t="s">
+      <c r="J96" s="2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>518</v>
       </c>
@@ -8856,14 +8977,14 @@
       <c r="F97" s="2">
         <v>6</v>
       </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
         <v>285</v>
       </c>
-      <c r="I97" s="2" t="s">
+      <c r="J97" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>522</v>
       </c>
@@ -8882,11 +9003,11 @@
       <c r="F98" s="2">
         <v>7</v>
       </c>
-      <c r="I98" s="45" t="s">
+      <c r="J98" s="45" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>523</v>
       </c>
@@ -8905,11 +9026,11 @@
       <c r="F99" s="2">
         <v>8</v>
       </c>
-      <c r="I99" s="45" t="s">
+      <c r="J99" s="45" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>524</v>
       </c>
@@ -8928,11 +9049,11 @@
       <c r="F100" s="2">
         <v>9</v>
       </c>
-      <c r="I100" s="45" t="s">
+      <c r="J100" s="45" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>525</v>
       </c>
@@ -8951,14 +9072,17 @@
       <c r="F101" s="2">
         <v>10</v>
       </c>
-      <c r="H101" t="s">
+      <c r="G101" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I101" t="s">
         <v>285</v>
       </c>
-      <c r="I101" s="2" t="s">
+      <c r="J101" s="2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>526</v>
       </c>
@@ -8977,14 +9101,17 @@
       <c r="F102" s="39">
         <v>11</v>
       </c>
-      <c r="H102" t="s">
+      <c r="G102" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I102" t="s">
         <v>285</v>
       </c>
-      <c r="I102" s="2" t="s">
+      <c r="J102" s="2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>527</v>
       </c>
@@ -9003,37 +9130,32 @@
       <c r="F103" s="2">
         <v>12</v>
       </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
         <v>285</v>
       </c>
-      <c r="I103" s="2" t="s">
+      <c r="J103" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B104" s="2"/>
       <c r="D104"/>
-      <c r="I104" s="2"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I105" s="60"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I106" s="60"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I107" s="61"/>
+      <c r="J104" s="2"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J105" s="60"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J106" s="60"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J107" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -9045,22 +9167,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>269</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/project/cascade-belarus.xlsx
+++ b/project/cascade-belarus.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-5400" yWindow="-23220" windowWidth="35020" windowHeight="20860" activeTab="3"/>
+    <workbookView xWindow="260" yWindow="-23540" windowWidth="25600" windowHeight="21120" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Databook Sheet Names" sheetId="5" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="579">
   <si>
     <t>Code Label</t>
   </si>
@@ -1987,6 +1987,12 @@
   </si>
   <si>
     <t>Calibrate?</t>
+  </si>
+  <si>
+    <t>num_vac</t>
+  </si>
+  <si>
+    <t>Number of vaccinated people</t>
   </si>
 </sst>
 </file>
@@ -3759,8 +3765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI35"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AJ20" sqref="AJ20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5472,8 +5478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5546,9 +5552,6 @@
       <c r="D2" s="2">
         <v>-1</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>433</v>
-      </c>
       <c r="J2" t="s">
         <v>206</v>
       </c>
@@ -5581,6 +5584,9 @@
       <c r="D3" s="2">
         <v>3</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>433</v>
+      </c>
       <c r="J3" t="s">
         <v>127</v>
       </c>
@@ -5792,9 +5798,6 @@
       <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>433</v>
-      </c>
       <c r="J11" t="s">
         <v>203</v>
       </c>
@@ -5853,9 +5856,6 @@
       <c r="C13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>433</v>
-      </c>
       <c r="G13" s="2" t="s">
         <v>47</v>
       </c>
@@ -6110,6 +6110,26 @@
         <v>51</v>
       </c>
     </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>577</v>
+      </c>
+      <c r="B23" t="s">
+        <v>578</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>327</v>
@@ -6298,9 +6318,6 @@
       <c r="D32" s="2">
         <v>3</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>433</v>
-      </c>
       <c r="J32" t="s">
         <v>41</v>
       </c>
@@ -6777,9 +6794,6 @@
       </c>
       <c r="D53" s="2">
         <v>1</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>433</v>
       </c>
       <c r="J53" t="s">
         <v>392</v>
@@ -6797,8 +6811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/project/cascade-belarus.xlsx
+++ b/project/cascade-belarus.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sjarvis/git/tb-ucl/project/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="260" yWindow="-23540" windowWidth="25600" windowHeight="21120" activeTab="3"/>
+    <workbookView xWindow="264" yWindow="-23544" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Databook Sheet Names" sheetId="5" r:id="rId1"/>
@@ -21,9 +16,6 @@
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -90,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="635">
   <si>
     <t>Code Label</t>
   </si>
@@ -236,9 +228,6 @@
     <t>y</t>
   </si>
   <si>
-    <t>Latent Infections</t>
-  </si>
-  <si>
     <t>Includes</t>
   </si>
   <si>
@@ -455,15 +444,9 @@
     <t>SN XDR Treatment Success Rate</t>
   </si>
   <si>
-    <t>Smear-Positive Infections</t>
-  </si>
-  <si>
     <t>Smear-Positive Prevalence</t>
   </si>
   <si>
-    <t>Smear-Negative Infections</t>
-  </si>
-  <si>
     <t>Smear-Negative Prevalence</t>
   </si>
   <si>
@@ -1224,9 +1207,6 @@
   </si>
   <si>
     <t>num_spxddis</t>
-  </si>
-  <si>
-    <t>Total Number of Active Infections</t>
   </si>
   <si>
     <t>Number of people initiating treatment for latent TB per year</t>
@@ -1992,7 +1972,187 @@
     <t>num_vac</t>
   </si>
   <si>
-    <t>Number of vaccinated people</t>
+    <t>lte_inf</t>
+  </si>
+  <si>
+    <t>ltl_inf</t>
+  </si>
+  <si>
+    <t>ltet_inf</t>
+  </si>
+  <si>
+    <t>ltlt_inf</t>
+  </si>
+  <si>
+    <t>Current Suspected Early-Stage Latent Infections</t>
+  </si>
+  <si>
+    <t>Current Suspected Late-Stage Latent Infections</t>
+  </si>
+  <si>
+    <t>Current Suspected Latent Infections</t>
+  </si>
+  <si>
+    <t>ltlk_inf</t>
+  </si>
+  <si>
+    <t>ltek_inf</t>
+  </si>
+  <si>
+    <t>Current Known Early-Stage Latent Infections</t>
+  </si>
+  <si>
+    <t>Current Known Late-Stage Latent Infections</t>
+  </si>
+  <si>
+    <t>ltk_inf</t>
+  </si>
+  <si>
+    <t>Current Known Latent Infections</t>
+  </si>
+  <si>
+    <t>ltt_inf</t>
+  </si>
+  <si>
+    <t>Current Number of People Vaccinated</t>
+  </si>
+  <si>
+    <t>Current Early-Stage Latent Infections on Treatment</t>
+  </si>
+  <si>
+    <t>Current Late-Stage Latent Infections on Treatment</t>
+  </si>
+  <si>
+    <t>Current Latent Infections on Treatment</t>
+  </si>
+  <si>
+    <t>num_ltr</t>
+  </si>
+  <si>
+    <t>Current Number of People Recovered from Latent Infections</t>
+  </si>
+  <si>
+    <t>num_acr</t>
+  </si>
+  <si>
+    <t>Current Number of People Recovered from Active Infections</t>
+  </si>
+  <si>
+    <t>Current Suspected Active Infections</t>
+  </si>
+  <si>
+    <t>Current Suspected Smear-Negative Infections</t>
+  </si>
+  <si>
+    <t>Current Suspected Smear-Positive Infections</t>
+  </si>
+  <si>
+    <t>spd_inf</t>
+  </si>
+  <si>
+    <t>Current Suspected SP Drug-Susceptible Infections</t>
+  </si>
+  <si>
+    <t>spm_inf</t>
+  </si>
+  <si>
+    <t>Current Suspected SP Multidrug-Resistant Infections</t>
+  </si>
+  <si>
+    <t>spx_inf</t>
+  </si>
+  <si>
+    <t>Current Suspected SP Extensively Drug-Resistant Infections</t>
+  </si>
+  <si>
+    <t>snd_inf</t>
+  </si>
+  <si>
+    <t>snm_inf</t>
+  </si>
+  <si>
+    <t>snx_inf</t>
+  </si>
+  <si>
+    <t>Current Suspected SN Drug-Susceptible Infections</t>
+  </si>
+  <si>
+    <t>Current Suspected SN Multidrug-Resistant Infections</t>
+  </si>
+  <si>
+    <t>Current Suspected SN Extensively Drug-Resistant Infections</t>
+  </si>
+  <si>
+    <t>spdk_inf</t>
+  </si>
+  <si>
+    <t>spmk_inf</t>
+  </si>
+  <si>
+    <t>spxk_inf</t>
+  </si>
+  <si>
+    <t>sndk_inf</t>
+  </si>
+  <si>
+    <t>snmk_inf</t>
+  </si>
+  <si>
+    <t>snxk_inf</t>
+  </si>
+  <si>
+    <t>Current Known SP Drug-Susceptible Infections</t>
+  </si>
+  <si>
+    <t>Current Known SP Multidrug-Resistant Infections</t>
+  </si>
+  <si>
+    <t>Current Known SP Extensively Drug-Resistant Infections</t>
+  </si>
+  <si>
+    <t>Current Known SN Drug-Susceptible Infections</t>
+  </si>
+  <si>
+    <t>Current Known SN Multidrug-Resistant Infections</t>
+  </si>
+  <si>
+    <t>Current Known SN Extensively Drug-Resistant Infections</t>
+  </si>
+  <si>
+    <t>spdt_inf</t>
+  </si>
+  <si>
+    <t>spmt_inf</t>
+  </si>
+  <si>
+    <t>spxt_inf</t>
+  </si>
+  <si>
+    <t>sndt_inf</t>
+  </si>
+  <si>
+    <t>snxt_inf</t>
+  </si>
+  <si>
+    <t>snmt_inf</t>
+  </si>
+  <si>
+    <t>Current SP Drug-Susceptible Infections on Treatment</t>
+  </si>
+  <si>
+    <t>Current SP Multidrug-Resistant Infections on Treatment</t>
+  </si>
+  <si>
+    <t>Current SP Extensively Drug-Resistant Infections on Treatment</t>
+  </si>
+  <si>
+    <t>Current SN Drug-Susceptible Infections on Treatment</t>
+  </si>
+  <si>
+    <t>Current SN Multidrug-Resistant Infections on Treatment</t>
+  </si>
+  <si>
+    <t>Current SN Extensively Drug-Resistant Infections on Treatment</t>
   </si>
 </sst>
 </file>
@@ -3200,122 +3360,122 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -3328,20 +3488,20 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="8.83203125" style="2"/>
+    <col min="4" max="4" width="8.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3352,19 +3512,19 @@
         <v>10</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3372,10 +3532,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3383,106 +3543,106 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>206</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>207</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
         <v>213</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>208</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B9" t="s">
         <v>214</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" t="s">
         <v>215</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>211</v>
-      </c>
-      <c r="B9" t="s">
-        <v>217</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C11" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>203</v>
-      </c>
-      <c r="B11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>33</v>
@@ -3491,53 +3651,53 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -3546,20 +3706,20 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -3568,9 +3728,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -3579,23 +3739,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B22" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>34</v>
@@ -3604,9 +3764,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -3615,9 +3775,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -3626,20 +3786,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -3648,9 +3808,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
@@ -3659,20 +3819,20 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
@@ -3681,9 +3841,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B30" t="s">
         <v>24</v>
@@ -3692,29 +3852,29 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -3728,7 +3888,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -3742,12 +3902,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B35" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>47</v>
@@ -3769,47 +3929,47 @@
       <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="2" max="2" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.33203125" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.33203125" customWidth="1"/>
     <col min="15" max="15" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.44140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="5.33203125" customWidth="1"/>
     <col min="25" max="25" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="7" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -3818,91 +3978,91 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="K1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG1" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="AH1" s="4" t="s">
         <v>41</v>
@@ -3911,13 +4071,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -3954,17 +4114,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -3999,7 +4159,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -4014,7 +4174,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="17" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="10"/>
@@ -4042,26 +4202,26 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
       <c r="F5" s="27" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="27" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
       <c r="K5" s="27"/>
       <c r="L5" s="28" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="M5" s="26"/>
       <c r="N5" s="27"/>
@@ -4089,9 +4249,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
@@ -4099,16 +4259,16 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="17" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="10"/>
@@ -4136,23 +4296,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B7" s="31"/>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
       <c r="F7" s="32" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
       <c r="K7" s="32" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L7" s="33"/>
       <c r="M7" s="31"/>
@@ -4181,9 +4341,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="27"/>
@@ -4193,12 +4353,12 @@
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="J8" s="27"/>
       <c r="K8" s="27"/>
       <c r="L8" s="28" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="M8" s="26"/>
       <c r="N8" s="27"/>
@@ -4226,9 +4386,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
@@ -4239,11 +4399,11 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K9" s="10"/>
       <c r="L9" s="17" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="10"/>
@@ -4271,9 +4431,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="30" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="32"/>
@@ -4283,11 +4443,11 @@
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
       <c r="I10" s="32" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="J10" s="32"/>
       <c r="K10" s="32" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L10" s="33"/>
       <c r="M10" s="31"/>
@@ -4316,9 +4476,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
@@ -4331,7 +4491,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="17" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="10"/>
@@ -4359,9 +4519,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="20"/>
@@ -4375,7 +4535,7 @@
       <c r="K12" s="20"/>
       <c r="L12" s="21"/>
       <c r="M12" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
@@ -4387,7 +4547,7 @@
       <c r="U12" s="20"/>
       <c r="V12" s="22"/>
       <c r="W12" s="19" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="X12" s="20"/>
       <c r="Y12" s="20"/>
@@ -4402,9 +4562,9 @@
       <c r="AH12" s="20"/>
       <c r="AI12" s="22"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
@@ -4419,17 +4579,17 @@
       <c r="L13" s="16"/>
       <c r="M13" s="6"/>
       <c r="N13" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="U13" s="7"/>
       <c r="V13" s="8"/>
@@ -4447,9 +4607,9 @@
       <c r="AH13" s="10"/>
       <c r="AI13" s="11"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
@@ -4465,7 +4625,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
@@ -4485,18 +4645,18 @@
       <c r="AE14" s="10"/>
       <c r="AF14" s="11"/>
       <c r="AG14" s="9" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="AH14" s="2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="AI14" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
@@ -4513,7 +4673,7 @@
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
@@ -4532,18 +4692,18 @@
       <c r="AE15" s="10"/>
       <c r="AF15" s="11"/>
       <c r="AG15" s="9" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="AH15" s="2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="AI15" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
@@ -4559,12 +4719,12 @@
       <c r="M16" s="9"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="10" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
@@ -4581,18 +4741,18 @@
       <c r="AE16" s="10"/>
       <c r="AF16" s="11"/>
       <c r="AG16" s="9" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AH16" s="10" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="AI16" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
@@ -4611,7 +4771,7 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="10" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
@@ -4628,18 +4788,18 @@
       <c r="AE17" s="10"/>
       <c r="AF17" s="11"/>
       <c r="AG17" s="9" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="AH17" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="AI17" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
@@ -4659,7 +4819,7 @@
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
@@ -4675,18 +4835,18 @@
       <c r="AE18" s="10"/>
       <c r="AF18" s="11"/>
       <c r="AG18" s="9" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="AH18" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="AI18" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
@@ -4705,12 +4865,12 @@
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
       <c r="U19" s="10" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="V19" s="11"/>
       <c r="W19" s="9"/>
@@ -4724,18 +4884,18 @@
       <c r="AE19" s="10"/>
       <c r="AF19" s="11"/>
       <c r="AG19" s="9" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AH19" s="10" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="AI19" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
@@ -4757,7 +4917,7 @@
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="V20" s="10"/>
       <c r="W20" s="9"/>
@@ -4771,18 +4931,18 @@
       <c r="AE20" s="10"/>
       <c r="AF20" s="11"/>
       <c r="AG20" s="9" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AH20" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="AI20" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
@@ -4805,7 +4965,7 @@
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="W21" s="9"/>
       <c r="X21" s="10"/>
@@ -4818,18 +4978,18 @@
       <c r="AE21" s="10"/>
       <c r="AF21" s="11"/>
       <c r="AG21" s="9" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AH21" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="AI21" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
@@ -4851,7 +5011,7 @@
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
       <c r="U22" s="10" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="V22" s="10"/>
       <c r="W22" s="12"/>
@@ -4865,18 +5025,18 @@
       <c r="AE22" s="13"/>
       <c r="AF22" s="14"/>
       <c r="AG22" s="12" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="AH22" s="13" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="AI22" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
@@ -4901,17 +5061,17 @@
       <c r="V23" s="8"/>
       <c r="W23" s="6"/>
       <c r="X23" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
       <c r="AD23" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AE23" s="7"/>
       <c r="AF23" s="8"/>
@@ -4919,9 +5079,9 @@
       <c r="AH23" s="7"/>
       <c r="AI23" s="8"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
@@ -4947,7 +5107,7 @@
       <c r="W24" s="9"/>
       <c r="X24" s="10"/>
       <c r="Y24" s="10" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
@@ -4957,18 +5117,18 @@
       <c r="AE24" s="10"/>
       <c r="AF24" s="11"/>
       <c r="AG24" s="9" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="AH24" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="AI24" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
@@ -4995,7 +5155,7 @@
       <c r="X25" s="10"/>
       <c r="Y25" s="10"/>
       <c r="Z25" s="10" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="AA25" s="10"/>
       <c r="AB25" s="10"/>
@@ -5004,18 +5164,18 @@
       <c r="AE25" s="10"/>
       <c r="AF25" s="11"/>
       <c r="AG25" s="9" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="AH25" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="AI25" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
@@ -5041,30 +5201,30 @@
       <c r="W26" s="9"/>
       <c r="X26" s="10"/>
       <c r="Y26" s="10" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="Z26" s="10"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="10" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="AC26" s="10"/>
       <c r="AD26" s="10"/>
       <c r="AE26" s="10"/>
       <c r="AF26" s="11"/>
       <c r="AG26" s="9" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="AH26" s="10" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="AI26" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
@@ -5093,25 +5253,25 @@
       <c r="Z27" s="10"/>
       <c r="AA27" s="10"/>
       <c r="AB27" s="10" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="AC27" s="10"/>
       <c r="AD27" s="10"/>
       <c r="AE27" s="10"/>
       <c r="AF27" s="11"/>
       <c r="AG27" s="9" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="AH27" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="AI27" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
@@ -5141,24 +5301,24 @@
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
       <c r="AC28" s="10" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="AD28" s="10"/>
       <c r="AE28" s="10"/>
       <c r="AF28" s="11"/>
       <c r="AG28" s="9" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="AH28" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="AI28" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
@@ -5187,27 +5347,27 @@
       <c r="Z29" s="10"/>
       <c r="AA29" s="10"/>
       <c r="AB29" s="10" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="AC29" s="10"/>
       <c r="AD29" s="10"/>
       <c r="AE29" s="10" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="AF29" s="11"/>
       <c r="AG29" s="9" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="AH29" s="10" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="AI29" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="10"/>
@@ -5239,22 +5399,22 @@
       <c r="AC30" s="10"/>
       <c r="AD30" s="10"/>
       <c r="AE30" s="10" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="AF30" s="10"/>
       <c r="AG30" s="9" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="AH30" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="AI30" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="10"/>
@@ -5287,21 +5447,21 @@
       <c r="AD31" s="10"/>
       <c r="AE31" s="10"/>
       <c r="AF31" s="10" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AG31" s="9" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="AH31" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="AI31" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="10"/>
@@ -5333,22 +5493,22 @@
       <c r="AC32" s="13"/>
       <c r="AD32" s="13"/>
       <c r="AE32" s="13" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="AF32" s="14"/>
       <c r="AG32" s="12" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AH32" s="13" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="AI32" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
@@ -5361,7 +5521,7 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="16" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10"/>
@@ -5389,7 +5549,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>41</v>
       </c>
@@ -5428,7 +5588,7 @@
       <c r="AH34" s="10"/>
       <c r="AI34" s="11"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
@@ -5476,38 +5636,41 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="56.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="16" width="8.83203125" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.77734375" customWidth="1"/>
     <col min="17" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.109375" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5515,1291 +5678,1578 @@
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E2" s="2">
         <v>50</v>
       </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="D2" s="2">
-        <v>-1</v>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>592</v>
+      </c>
+      <c r="B4" t="s">
+        <v>593</v>
+      </c>
+      <c r="E4" s="2">
+        <v>100</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B5" t="s">
+        <v>589</v>
+      </c>
+      <c r="J5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>577</v>
+      </c>
+      <c r="B6" t="s">
+        <v>590</v>
+      </c>
+      <c r="E6" s="2">
+        <v>100</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>587</v>
+      </c>
+      <c r="B7" t="s">
+        <v>591</v>
+      </c>
+      <c r="E7" s="2">
+        <v>200</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" t="s">
+        <v>576</v>
+      </c>
+      <c r="K7" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>582</v>
+      </c>
+      <c r="B8" t="s">
+        <v>583</v>
+      </c>
+      <c r="J8" t="s">
+        <v>204</v>
+      </c>
+      <c r="K8" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>581</v>
+      </c>
+      <c r="B9" t="s">
+        <v>584</v>
+      </c>
+      <c r="E9" s="2">
+        <v>200</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="L2" t="s">
-        <v>208</v>
-      </c>
-      <c r="M2" t="s">
-        <v>209</v>
-      </c>
-      <c r="N2" t="s">
-        <v>210</v>
-      </c>
-      <c r="O2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="D3" s="2">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="J3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="J4" t="s">
-        <v>130</v>
-      </c>
-      <c r="K4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="D5" s="2">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="J5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="D6" s="2">
-        <v>7</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="J6" t="s">
-        <v>136</v>
-      </c>
-      <c r="K6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="D7" s="2">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="J7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="D8" s="2">
-        <v>9</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="J8" t="s">
-        <v>142</v>
-      </c>
-      <c r="K8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>433</v>
-      </c>
       <c r="J9" t="s">
+        <v>207</v>
+      </c>
+      <c r="K9" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>585</v>
+      </c>
+      <c r="B10" t="s">
+        <v>586</v>
+      </c>
+      <c r="E10" s="2">
+        <v>500</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K9" t="s">
-        <v>145</v>
-      </c>
-      <c r="L9" t="s">
-        <v>129</v>
-      </c>
-      <c r="M9" t="s">
-        <v>146</v>
-      </c>
-      <c r="N9" t="s">
-        <v>132</v>
-      </c>
-      <c r="O9" t="s">
-        <v>147</v>
-      </c>
-      <c r="P9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="D10" s="2">
-        <v>6</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>433</v>
-      </c>
       <c r="J10" t="s">
-        <v>205</v>
+        <v>582</v>
       </c>
       <c r="K10" t="s">
-        <v>174</v>
-      </c>
-      <c r="L10" t="s">
-        <v>138</v>
-      </c>
-      <c r="M10" t="s">
-        <v>175</v>
-      </c>
-      <c r="N10" t="s">
-        <v>141</v>
-      </c>
-      <c r="O10" t="s">
-        <v>176</v>
-      </c>
-      <c r="P10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>574</v>
       </c>
       <c r="B11" t="s">
-        <v>378</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
+        <v>578</v>
       </c>
       <c r="J11" t="s">
         <v>203</v>
       </c>
       <c r="K11" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>575</v>
+      </c>
+      <c r="B12" t="s">
+        <v>579</v>
+      </c>
+      <c r="E12" s="2">
+        <v>400</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J12" t="s">
+        <v>206</v>
+      </c>
+      <c r="K12" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J13" t="s">
+        <v>574</v>
+      </c>
+      <c r="K13" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>594</v>
+      </c>
+      <c r="B15" t="s">
+        <v>595</v>
+      </c>
+      <c r="E15" s="2">
+        <v>30</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>623</v>
+      </c>
+      <c r="B16" t="s">
+        <v>629</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>624</v>
+      </c>
+      <c r="B17" t="s">
+        <v>630</v>
+      </c>
+      <c r="E17" s="2">
+        <v>20</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>625</v>
+      </c>
+      <c r="B18" t="s">
+        <v>631</v>
+      </c>
+      <c r="E18" s="2">
+        <v>30</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>626</v>
+      </c>
+      <c r="B19" t="s">
+        <v>632</v>
+      </c>
+      <c r="E19" s="2">
+        <v>40</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>628</v>
+      </c>
+      <c r="B20" t="s">
+        <v>633</v>
+      </c>
+      <c r="E20" s="2">
+        <v>50</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>627</v>
+      </c>
+      <c r="B21" t="s">
+        <v>634</v>
+      </c>
+      <c r="E21" s="2">
+        <v>60</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>611</v>
+      </c>
+      <c r="B22" t="s">
+        <v>617</v>
+      </c>
+      <c r="E22" s="2">
+        <v>120</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J22" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>612</v>
+      </c>
+      <c r="B23" t="s">
+        <v>618</v>
+      </c>
+      <c r="E23" s="2">
+        <v>110</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J23" t="s">
+        <v>128</v>
+      </c>
+      <c r="K23" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>613</v>
+      </c>
+      <c r="B24" t="s">
+        <v>619</v>
+      </c>
+      <c r="E24" s="2">
+        <v>100</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J24" t="s">
+        <v>131</v>
+      </c>
+      <c r="K24" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>614</v>
+      </c>
+      <c r="B25" t="s">
+        <v>620</v>
+      </c>
+      <c r="E25" s="2">
+        <v>90</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J25" t="s">
+        <v>134</v>
+      </c>
+      <c r="K25" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>615</v>
+      </c>
+      <c r="B26" t="s">
+        <v>621</v>
+      </c>
+      <c r="E26" s="2">
+        <v>80</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J26" t="s">
+        <v>137</v>
+      </c>
+      <c r="K26" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>616</v>
+      </c>
+      <c r="B27" t="s">
+        <v>622</v>
+      </c>
+      <c r="E27" s="2">
+        <v>70</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J27" t="s">
+        <v>140</v>
+      </c>
+      <c r="K27" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>599</v>
+      </c>
+      <c r="B28" t="s">
+        <v>600</v>
+      </c>
+      <c r="E28" s="2">
+        <v>130</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J28" t="s">
+        <v>124</v>
+      </c>
+      <c r="K28" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>601</v>
+      </c>
+      <c r="B29" t="s">
+        <v>602</v>
+      </c>
+      <c r="E29" s="2">
+        <v>140</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J29" t="s">
+        <v>127</v>
+      </c>
+      <c r="K29" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>603</v>
+      </c>
+      <c r="B30" t="s">
+        <v>604</v>
+      </c>
+      <c r="E30" s="2">
+        <v>150</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J30" t="s">
+        <v>130</v>
+      </c>
+      <c r="K30" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>605</v>
+      </c>
+      <c r="B31" t="s">
+        <v>608</v>
+      </c>
+      <c r="E31" s="2">
+        <v>160</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J31" t="s">
+        <v>133</v>
+      </c>
+      <c r="K31" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>606</v>
+      </c>
+      <c r="B32" t="s">
+        <v>609</v>
+      </c>
+      <c r="E32" s="2">
+        <v>170</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J32" t="s">
+        <v>136</v>
+      </c>
+      <c r="K32" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>607</v>
+      </c>
+      <c r="B33" t="s">
+        <v>610</v>
+      </c>
+      <c r="E33" s="2">
+        <v>180</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J33" t="s">
+        <v>139</v>
+      </c>
+      <c r="K33" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" t="s">
+        <v>598</v>
+      </c>
+      <c r="E34" s="2">
+        <v>500</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J34" t="s">
+        <v>201</v>
+      </c>
+      <c r="K34" t="s">
+        <v>599</v>
+      </c>
+      <c r="L34" t="s">
+        <v>601</v>
+      </c>
+      <c r="M34" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>174</v>
+      </c>
+      <c r="B35" t="s">
+        <v>597</v>
+      </c>
+      <c r="E35" s="2">
+        <v>600</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J35" t="s">
+        <v>202</v>
+      </c>
+      <c r="K35" t="s">
+        <v>605</v>
+      </c>
+      <c r="L35" t="s">
+        <v>606</v>
+      </c>
+      <c r="M35" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>596</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1200</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J36" t="s">
+        <v>200</v>
+      </c>
+      <c r="K36" t="s">
+        <v>145</v>
+      </c>
+      <c r="L36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="2">
+        <v>3000</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K38" t="s">
+        <v>573</v>
+      </c>
+      <c r="L38" t="s">
+        <v>592</v>
+      </c>
+      <c r="M38" t="s">
+        <v>594</v>
+      </c>
+      <c r="N38" t="s">
+        <v>49</v>
+      </c>
+      <c r="O38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J40" t="s">
+        <v>124</v>
+      </c>
+      <c r="K40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J41" t="s">
+        <v>127</v>
+      </c>
+      <c r="K41" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>144</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J42" t="s">
+        <v>130</v>
+      </c>
+      <c r="K42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43" t="s">
+        <v>102</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J43" t="s">
+        <v>133</v>
+      </c>
+      <c r="K43" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>172</v>
+      </c>
+      <c r="B44" t="s">
+        <v>103</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J44" t="s">
+        <v>136</v>
+      </c>
+      <c r="K44" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>173</v>
+      </c>
+      <c r="B45" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J45" t="s">
+        <v>139</v>
+      </c>
+      <c r="K45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>60</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>51</v>
+      </c>
+      <c r="J47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" t="s">
+        <v>87</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>51</v>
+      </c>
+      <c r="J48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>51</v>
+      </c>
+      <c r="J49" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>148</v>
       </c>
-      <c r="L11" t="s">
+      <c r="B50" t="s">
+        <v>89</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>51</v>
+      </c>
+      <c r="J50" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>175</v>
+      </c>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>51</v>
+      </c>
+      <c r="J51" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>51</v>
+      </c>
+      <c r="J52" t="s">
+        <v>172</v>
+      </c>
+      <c r="O52" s="15"/>
+    </row>
+    <row r="53" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" t="s">
-        <v>2</v>
-      </c>
-      <c r="K12" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" t="s">
-        <v>75</v>
-      </c>
-      <c r="M12" t="s">
-        <v>76</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>51</v>
+      </c>
+      <c r="J53" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54" t="s">
+        <v>120</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>51</v>
+      </c>
+      <c r="J54" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>178</v>
+      </c>
+      <c r="B55" t="s">
+        <v>121</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>51</v>
+      </c>
+      <c r="J55" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>51</v>
+      </c>
+      <c r="J56" t="s">
         <v>50</v>
       </c>
-      <c r="O12" t="s">
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>324</v>
+      </c>
+      <c r="B58" t="s">
+        <v>337</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J58" t="s">
+        <v>205</v>
+      </c>
+      <c r="K58" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>329</v>
+      </c>
+      <c r="B59" t="s">
+        <v>336</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J59" t="s">
+        <v>126</v>
+      </c>
+      <c r="K59" t="s">
+        <v>129</v>
+      </c>
+      <c r="L59" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>328</v>
+      </c>
+      <c r="B60" t="s">
+        <v>335</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J60" t="s">
+        <v>135</v>
+      </c>
+      <c r="K60" t="s">
+        <v>138</v>
+      </c>
+      <c r="L60" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>325</v>
+      </c>
+      <c r="B61" t="s">
+        <v>339</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J61" t="s">
+        <v>328</v>
+      </c>
+      <c r="K61" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>327</v>
+      </c>
+      <c r="B62" t="s">
+        <v>338</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J62" t="s">
+        <v>324</v>
+      </c>
+      <c r="K62" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>332</v>
+      </c>
+      <c r="B63" t="s">
+        <v>333</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="J63" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>330</v>
+      </c>
+      <c r="B64" t="s">
+        <v>334</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="I13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>149</v>
-      </c>
-      <c r="B14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="2">
-        <v>3</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="I64" t="s">
+        <v>51</v>
+      </c>
+      <c r="J64" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>331</v>
+      </c>
+      <c r="B65" t="s">
+        <v>326</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>51</v>
+      </c>
+      <c r="J65" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>362</v>
+      </c>
+      <c r="B66" t="s">
+        <v>361</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>372</v>
+      </c>
+      <c r="B67" t="s">
         <v>433</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="C67" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I14" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>150</v>
-      </c>
-      <c r="B15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="2">
-        <v>4</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="I67" t="s">
+        <v>41</v>
+      </c>
+      <c r="J67" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>373</v>
+      </c>
+      <c r="B68" t="s">
+        <v>434</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I15" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="2">
-        <v>5</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="I68" t="s">
+        <v>41</v>
+      </c>
+      <c r="J68" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>374</v>
+      </c>
+      <c r="B69" t="s">
+        <v>435</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I16" t="s">
-        <v>52</v>
-      </c>
-      <c r="J16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>178</v>
-      </c>
-      <c r="B17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="2">
-        <v>7</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="I69" t="s">
+        <v>41</v>
+      </c>
+      <c r="J69" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>369</v>
+      </c>
+      <c r="B70" t="s">
+        <v>430</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I17" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>179</v>
-      </c>
-      <c r="B18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="2">
-        <v>8</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="I70" t="s">
+        <v>41</v>
+      </c>
+      <c r="J70" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>370</v>
+      </c>
+      <c r="B71" t="s">
+        <v>431</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I18" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18" t="s">
-        <v>175</v>
-      </c>
-      <c r="O18" s="15"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>180</v>
-      </c>
-      <c r="B19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="2">
-        <v>9</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="I71" t="s">
+        <v>41</v>
+      </c>
+      <c r="J71" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>371</v>
+      </c>
+      <c r="B72" t="s">
+        <v>432</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I19" t="s">
-        <v>52</v>
-      </c>
-      <c r="J19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>152</v>
-      </c>
-      <c r="B20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="2" t="s">
+      <c r="I72" t="s">
+        <v>41</v>
+      </c>
+      <c r="J72" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>364</v>
+      </c>
+      <c r="B73" t="s">
+        <v>366</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="I73" t="s">
+        <v>41</v>
+      </c>
+      <c r="J73" t="s">
+        <v>142</v>
+      </c>
+      <c r="K73" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>363</v>
+      </c>
+      <c r="B74" t="s">
+        <v>367</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="I74" t="s">
+        <v>41</v>
+      </c>
+      <c r="J74" t="s">
+        <v>143</v>
+      </c>
+      <c r="K74" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>365</v>
+      </c>
+      <c r="B75" t="s">
+        <v>368</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="I75" t="s">
+        <v>41</v>
+      </c>
+      <c r="J75" t="s">
+        <v>144</v>
+      </c>
+      <c r="K75" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>378</v>
+      </c>
+      <c r="B76" t="s">
+        <v>375</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J76" t="s">
+        <v>205</v>
+      </c>
+      <c r="K76" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>379</v>
+      </c>
+      <c r="B77" t="s">
+        <v>376</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J77" t="s">
         <v>204</v>
       </c>
-      <c r="I20" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>181</v>
-      </c>
-      <c r="B21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="2">
-        <v>6</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="I21" t="s">
-        <v>52</v>
-      </c>
-      <c r="J21" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="I22" t="s">
-        <v>52</v>
-      </c>
-      <c r="J22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>577</v>
-      </c>
-      <c r="B23" t="s">
-        <v>578</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>327</v>
-      </c>
-      <c r="B24" t="s">
-        <v>340</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="J24" t="s">
-        <v>208</v>
-      </c>
-      <c r="K24" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>332</v>
-      </c>
-      <c r="B25" t="s">
-        <v>339</v>
-      </c>
-      <c r="D25" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="J25" t="s">
-        <v>129</v>
-      </c>
-      <c r="K25" t="s">
-        <v>132</v>
-      </c>
-      <c r="L25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>331</v>
-      </c>
-      <c r="B26" t="s">
-        <v>338</v>
-      </c>
-      <c r="D26" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="J26" t="s">
-        <v>138</v>
-      </c>
-      <c r="K26" t="s">
-        <v>141</v>
-      </c>
-      <c r="L26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>328</v>
-      </c>
-      <c r="B27" t="s">
-        <v>342</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="J27" t="s">
-        <v>331</v>
-      </c>
-      <c r="K27" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>330</v>
-      </c>
-      <c r="B28" t="s">
-        <v>341</v>
-      </c>
-      <c r="D28" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="J28" t="s">
-        <v>327</v>
-      </c>
-      <c r="K28" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>335</v>
-      </c>
-      <c r="B29" t="s">
-        <v>336</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="D29" s="2">
-        <v>2</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
-        <v>52</v>
-      </c>
-      <c r="J29" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>333</v>
-      </c>
-      <c r="B30" t="s">
-        <v>337</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
-        <v>52</v>
-      </c>
-      <c r="J30" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>334</v>
-      </c>
-      <c r="B31" t="s">
-        <v>329</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J31" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>365</v>
-      </c>
-      <c r="B32" t="s">
-        <v>364</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D32" s="2">
-        <v>3</v>
-      </c>
-      <c r="J32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>375</v>
-      </c>
-      <c r="B33" t="s">
-        <v>437</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D33" s="2">
-        <v>10</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
-        <v>41</v>
-      </c>
-      <c r="J33" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>376</v>
-      </c>
-      <c r="B34" t="s">
-        <v>438</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D34" s="2">
-        <v>11</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
-        <v>41</v>
-      </c>
-      <c r="J34" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="K77" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>380</v>
+      </c>
+      <c r="B78" t="s">
         <v>377</v>
       </c>
-      <c r="B35" t="s">
-        <v>439</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D35" s="2">
-        <v>12</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" t="s">
-        <v>41</v>
-      </c>
-      <c r="J35" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>372</v>
-      </c>
-      <c r="B36" t="s">
-        <v>434</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D36" s="2">
-        <v>7</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" t="s">
-        <v>41</v>
-      </c>
-      <c r="J36" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>373</v>
-      </c>
-      <c r="B37" t="s">
-        <v>435</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D37" s="2">
-        <v>8</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
-        <v>41</v>
-      </c>
-      <c r="J37" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>374</v>
-      </c>
-      <c r="B38" t="s">
-        <v>436</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D38" s="2">
-        <v>9</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
-        <v>41</v>
-      </c>
-      <c r="J38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>367</v>
-      </c>
-      <c r="B39" t="s">
-        <v>369</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D39" s="2">
-        <v>4</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="I39" t="s">
-        <v>41</v>
-      </c>
-      <c r="J39" t="s">
-        <v>145</v>
-      </c>
-      <c r="K39" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>366</v>
-      </c>
-      <c r="B40" t="s">
-        <v>370</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D40" s="2">
-        <v>5</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="I40" t="s">
-        <v>41</v>
-      </c>
-      <c r="J40" t="s">
-        <v>146</v>
-      </c>
-      <c r="K40" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>368</v>
-      </c>
-      <c r="B41" t="s">
-        <v>371</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D41" s="2">
-        <v>6</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="I41" t="s">
-        <v>41</v>
-      </c>
-      <c r="J41" t="s">
-        <v>147</v>
-      </c>
-      <c r="K41" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="F78" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J78" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>381</v>
+      </c>
+      <c r="B79" t="s">
+        <v>390</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J79" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>382</v>
       </c>
-      <c r="B42" t="s">
-        <v>379</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="J42" t="s">
-        <v>208</v>
-      </c>
-      <c r="K42" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="B80" t="s">
+        <v>391</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J80" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>383</v>
       </c>
-      <c r="B43" t="s">
-        <v>380</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="J43" t="s">
-        <v>207</v>
-      </c>
-      <c r="K43" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="B81" t="s">
+        <v>392</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J81" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>384</v>
       </c>
-      <c r="B44" t="s">
-        <v>381</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="J44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="B82" t="s">
+        <v>393</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J82" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>385</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B83" t="s">
         <v>394</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D45" s="2">
-        <v>3</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="H45"/>
-      <c r="J45" t="s">
+      <c r="C83" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J83" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>386</v>
+      </c>
+      <c r="B84" t="s">
+        <v>395</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J84" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>387</v>
+      </c>
+      <c r="B85" t="s">
+        <v>396</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J85" t="s">
+        <v>125</v>
+      </c>
+      <c r="K85" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>386</v>
-      </c>
-      <c r="B46" t="s">
-        <v>395</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D46" s="2">
-        <v>4</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="H46"/>
-      <c r="J46" t="s">
+      <c r="L85" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>388</v>
+      </c>
+      <c r="B86" t="s">
+        <v>397</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J86" t="s">
+        <v>134</v>
+      </c>
+      <c r="K86" t="s">
+        <v>137</v>
+      </c>
+      <c r="L86" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>389</v>
+      </c>
+      <c r="B87" t="s">
+        <v>398</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J87" t="s">
+        <v>388</v>
+      </c>
+      <c r="K87" t="s">
         <v>387</v>
-      </c>
-      <c r="B47" t="s">
-        <v>396</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D47" s="2">
-        <v>5</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="H47"/>
-      <c r="J47" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>388</v>
-      </c>
-      <c r="B48" t="s">
-        <v>397</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D48" s="2">
-        <v>7</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="H48"/>
-      <c r="J48" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>389</v>
-      </c>
-      <c r="B49" t="s">
-        <v>398</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D49" s="2">
-        <v>8</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="H49"/>
-      <c r="J49" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>390</v>
-      </c>
-      <c r="B50" t="s">
-        <v>399</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D50" s="2">
-        <v>9</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="H50"/>
-      <c r="J50" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>391</v>
-      </c>
-      <c r="B51" t="s">
-        <v>400</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D51" s="2">
-        <v>2</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="J51" t="s">
-        <v>128</v>
-      </c>
-      <c r="K51" t="s">
-        <v>131</v>
-      </c>
-      <c r="L51" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>392</v>
-      </c>
-      <c r="B52" t="s">
-        <v>401</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D52" s="2">
-        <v>6</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="J52" t="s">
-        <v>137</v>
-      </c>
-      <c r="K52" t="s">
-        <v>140</v>
-      </c>
-      <c r="L52" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>393</v>
-      </c>
-      <c r="B53" t="s">
-        <v>402</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D53" s="2">
-        <v>1</v>
-      </c>
-      <c r="J53" t="s">
-        <v>392</v>
-      </c>
-      <c r="K53" t="s">
-        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -6811,31 +7261,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.77734375" style="2" customWidth="1"/>
     <col min="7" max="7" width="10" style="2" customWidth="1"/>
-    <col min="8" max="8" width="118.1640625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="118.109375" style="23" customWidth="1"/>
     <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="98" customWidth="1"/>
     <col min="15" max="15" width="75.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>1</v>
@@ -6844,897 +7294,897 @@
         <v>19</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2"/>
       <c r="E2" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D3" s="48"/>
       <c r="E3" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F3" s="2">
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D4" s="43">
         <v>0.74</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F4" s="2">
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J4" s="50" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D5" s="38">
         <v>0.44</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F5" s="2">
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J5" s="50" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D6" s="38">
         <v>0.56000000000000005</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F6" s="2">
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J6" s="50" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F7" s="2">
         <v>-1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I7" s="23"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F8" s="2">
         <v>-1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F9" s="2">
         <v>-1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F10" s="2">
         <v>-1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F11" s="2">
         <v>-1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F12" s="2">
         <v>-1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C13" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F13" s="2">
         <v>-1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C14" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F14" s="2">
         <v>-1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="D15"/>
       <c r="J15" s="50"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D16" s="42">
         <v>1E-3</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="I16" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J16" s="49" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D17" s="59">
         <v>0.09</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="I17" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J17" s="52" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D18" s="42">
         <v>0.115</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="I18" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J18" s="49" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C19" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F19" s="2">
         <v>-1</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F20" s="2">
         <v>-1</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C21" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F21" s="2">
         <v>-1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C22" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F22" s="2">
         <v>-1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F23" s="2">
         <v>-1</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C24" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F24" s="2">
         <v>-1</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="D25" s="37"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D26" s="36">
         <v>0.5</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F26" s="2">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J26" s="40" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D27" s="36">
         <v>0.5</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F27" s="2">
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="J27" s="50" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D28" s="44">
         <v>4</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F28" s="2">
         <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="J28" s="51" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D29" s="37"/>
       <c r="E29" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F29" s="2">
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D30" s="36">
         <v>0.22</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F30" s="2">
         <v>5</v>
       </c>
       <c r="I30" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J30" s="40" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="53" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B31" s="54"/>
       <c r="C31" s="53" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D31" s="48">
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F31" s="54">
         <v>6</v>
       </c>
       <c r="I31" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J31" s="55" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="53" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B32" s="54"/>
       <c r="C32" s="53" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D32" s="48">
         <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F32" s="54">
         <v>7</v>
       </c>
       <c r="I32" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D33" s="37"/>
       <c r="F33" s="2">
         <v>-1</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H33" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="I33" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D34" s="37"/>
       <c r="F34" s="2">
         <v>-1</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H34" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="I34" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D35" s="37"/>
       <c r="F35" s="2">
         <v>-1</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H35" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="I35" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D36" s="37"/>
       <c r="F36" s="2">
         <v>-1</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H36" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="I36" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D37" s="37"/>
       <c r="F37" s="2">
         <v>-1</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H37" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="I37" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F38" s="2">
         <v>-1</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H38" s="35" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C39" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F39" s="2">
         <v>-1</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I39" s="23"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C40" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F40" s="2">
         <v>-1</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C41" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F41" s="2">
         <v>-1</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H41" s="23" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C42" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F42" s="2">
         <v>-1</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H42" s="23" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="H43"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C44" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D44"/>
       <c r="E44" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F44" s="2">
         <v>2</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I44" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -7742,1427 +8192,1427 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D45"/>
       <c r="E45" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F45" s="2">
         <v>3</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I45" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="J45" s="23"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
       <c r="D46"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C47" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F47" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C48" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F48" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C49" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F49" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C50" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F50" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C51" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F51" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C52" s="53" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F52" s="2">
         <v>6</v>
       </c>
       <c r="J52" s="23"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C53" s="53" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F53" s="2">
         <v>7</v>
       </c>
       <c r="J53" s="23"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C54" s="53" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F54" s="2">
         <v>8</v>
       </c>
       <c r="J54" s="23"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
       <c r="C55" s="53"/>
       <c r="D55"/>
       <c r="J55" s="23"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D56" s="46">
         <v>0.9</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F56" s="2">
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="J56" s="39" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="46">
         <v>0.91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F57" s="2">
         <v>2</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I57" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D58" s="46">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F58" s="2">
         <v>3</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I58" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J58" s="39" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D59" s="46">
         <v>0.85</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F59" s="2">
         <v>4</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I59" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J59" s="39" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D60" s="46">
         <v>0.9</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F60" s="2">
         <v>5</v>
       </c>
       <c r="I60" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="J60" s="39" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D61" s="46">
         <v>0.91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F61" s="2">
         <v>6</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I61" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="J61" s="39" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D62" s="46">
         <v>0.34</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F62" s="2">
         <v>7</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I62" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J62" s="39" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D63" s="46">
         <v>0.5</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F63" s="2">
         <v>8</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I63" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J63" s="39" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D64" s="46">
         <v>0.9</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F64" s="39">
         <v>9</v>
       </c>
       <c r="I64" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="J64" s="39" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D65" s="46">
         <v>0.91</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F65" s="2">
         <v>10</v>
       </c>
       <c r="I65" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D66" s="46">
         <v>0.34</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F66" s="39">
         <v>11</v>
       </c>
       <c r="I66" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D67" s="46">
         <v>0.5</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F67" s="2">
         <v>12</v>
       </c>
       <c r="I67" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C68" s="53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D68" s="46">
         <v>0.9</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F68" s="39">
         <v>13</v>
       </c>
       <c r="I68" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C69" s="53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D69" s="46">
         <v>0.91</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F69" s="2">
         <v>14</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I69" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C70" s="53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D70" s="46">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F70" s="39">
         <v>15</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I70" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C71" s="53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D71" s="46">
         <v>0.85</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F71" s="2">
         <v>16</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I71" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J71" s="23"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C72" s="53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D72" s="46">
         <v>0.9</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F72" s="39">
         <v>17</v>
       </c>
       <c r="I72" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C73" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D73" s="46">
         <v>0.91</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F73" s="2">
         <v>18</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I73" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C74" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D74" s="46">
         <v>0.34</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F74" s="39">
         <v>19</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I74" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C75" s="53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D75" s="46">
         <v>0.5</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F75" s="2">
         <v>20</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I75" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J75" s="23"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C76" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D76" s="46">
         <v>0.9</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F76" s="39">
         <v>21</v>
       </c>
       <c r="I76" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C77" s="53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D77" s="46">
         <v>0.91</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F77" s="2">
         <v>22</v>
       </c>
       <c r="I77" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C78" s="53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D78" s="46">
         <v>0.34</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F78" s="39">
         <v>23</v>
       </c>
       <c r="I78" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C79" s="53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D79" s="46">
         <v>0.5</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F79" s="2">
         <v>24</v>
       </c>
       <c r="I79" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B80" s="2"/>
       <c r="D80"/>
       <c r="J80" s="2"/>
     </row>
     <row r="81" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>348</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C81" t="s">
         <v>351</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C81" t="s">
-        <v>354</v>
       </c>
       <c r="D81" s="36">
         <v>0.2</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F81" s="2">
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J81" s="56" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C82" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D82" s="36">
         <v>0.15</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F82" s="2">
         <v>2</v>
       </c>
       <c r="I82" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J82" s="56" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="O82" s="55" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C83" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D83" s="36">
         <v>0.15</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F83" s="41">
         <v>3</v>
       </c>
       <c r="I83" t="s">
+        <v>344</v>
+      </c>
+      <c r="J83" s="57" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>347</v>
       </c>
-      <c r="J83" s="57" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>350</v>
-      </c>
       <c r="B84" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C84" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D84" s="36">
         <v>0.2</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F84" s="2">
         <v>4</v>
       </c>
       <c r="I84" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J84" s="55" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C85" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D85" s="36">
         <v>0.15</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F85" s="2">
         <v>5</v>
       </c>
       <c r="I85" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J85" s="55" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C86" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D86" s="36">
         <v>0.15</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F86" s="2">
         <v>6</v>
       </c>
       <c r="I86" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J86" s="58" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C87" s="53" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D87"/>
       <c r="E87" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F87" s="2">
         <v>7</v>
       </c>
       <c r="I87" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="J87" s="23"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C88" s="53" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D88"/>
       <c r="E88" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F88" s="2">
         <v>8</v>
       </c>
       <c r="I88" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="J88" s="23"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C89" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D89"/>
       <c r="E89" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F89" s="2">
         <v>9</v>
       </c>
       <c r="I89" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="J89" s="23"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C90" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D90"/>
       <c r="E90" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F90" s="2">
         <v>10</v>
       </c>
       <c r="I90" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="J90" s="23"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="B91" s="2"/>
       <c r="D91"/>
       <c r="J91" s="23"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C92" s="53" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D92" s="47">
         <v>0.7</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F92" s="2">
         <v>1</v>
       </c>
       <c r="J92" s="45" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C93" s="53" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D93" s="47">
         <v>0.7</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F93" s="2">
         <v>2</v>
       </c>
       <c r="J93" s="45" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C94" s="53" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D94" s="47">
         <v>0.7</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F94" s="2">
         <v>3</v>
       </c>
       <c r="J94" s="45" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C95" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D95" s="46">
         <v>0.06</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F95" s="2">
         <v>4</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I95" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C96" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D96" s="46">
         <v>0.11</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F96" s="39">
         <v>5</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I96" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C97" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D97" s="46">
         <v>0.11</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F97" s="2">
         <v>6</v>
       </c>
       <c r="I97" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C98" s="53" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D98" s="47">
         <v>0.2</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F98" s="2">
         <v>7</v>
       </c>
       <c r="J98" s="45" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C99" s="53" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D99" s="47">
         <v>0.2</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F99" s="2">
         <v>8</v>
       </c>
       <c r="J99" s="45" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C100" s="53" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D100" s="47">
         <v>0.2</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F100" s="2">
         <v>9</v>
       </c>
       <c r="J100" s="45" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C101" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D101" s="46">
         <v>0.06</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F101" s="2">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I101" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C102" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D102" s="46">
         <v>0.11</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F102" s="39">
         <v>11</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I102" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C103" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D103" s="46">
         <v>0.11</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F103" s="2">
         <v>12</v>
       </c>
       <c r="I103" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B104" s="2"/>
       <c r="D104"/>
       <c r="J104" s="2"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="J105" s="60"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="J106" s="60"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="J107" s="61"/>
     </row>
   </sheetData>
@@ -9181,14 +9631,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="77" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/project/cascade-belarus.xlsx
+++ b/project/cascade-belarus.xlsx
@@ -24,6 +24,40 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>David Jacob Kedziora</author>
+  </authors>
+  <commentList>
+    <comment ref="A40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>David Jacob Kedziora:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Below here is NOT finalised. Beware your DOOM.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>David Jacob Kedziora</author>
@@ -3706,7 +3740,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>129</v>
       </c>
@@ -4797,7 +4831,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>128</v>
       </c>
@@ -5635,17 +5669,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="63.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -5944,7 +5978,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>625</v>
       </c>
@@ -5961,7 +5995,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>626</v>
       </c>
@@ -5978,7 +6012,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>628</v>
       </c>
@@ -5995,7 +6029,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>627</v>
       </c>
@@ -6012,7 +6046,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>611</v>
       </c>
@@ -6032,7 +6066,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>612</v>
       </c>
@@ -6052,7 +6086,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>613</v>
       </c>
@@ -6072,7 +6106,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>614</v>
       </c>
@@ -6092,7 +6126,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>615</v>
       </c>
@@ -6112,7 +6146,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>616</v>
       </c>
@@ -6132,7 +6166,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>599</v>
       </c>
@@ -6152,7 +6186,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>601</v>
       </c>
@@ -6172,7 +6206,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>603</v>
       </c>
@@ -6192,7 +6226,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>605</v>
       </c>
@@ -6212,7 +6246,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>606</v>
       </c>
@@ -6232,7 +6266,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>607</v>
       </c>
@@ -6252,7 +6286,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>145</v>
       </c>
@@ -6278,7 +6312,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>174</v>
       </c>
@@ -6304,7 +6338,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -6327,8 +6361,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -6360,8 +6393,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>142</v>
       </c>
@@ -6378,7 +6410,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>143</v>
       </c>
@@ -6395,7 +6427,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>144</v>
       </c>
@@ -6412,7 +6444,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>171</v>
       </c>
@@ -6429,7 +6461,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>172</v>
       </c>
@@ -6446,7 +6478,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>173</v>
       </c>
@@ -6463,7 +6495,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -6480,7 +6512,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>146</v>
       </c>
@@ -6500,7 +6532,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>147</v>
       </c>
@@ -6520,7 +6552,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>148</v>
       </c>
@@ -6540,7 +6572,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>175</v>
       </c>
@@ -6560,7 +6592,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>176</v>
       </c>
@@ -6581,7 +6613,7 @@
       </c>
       <c r="O52" s="15"/>
     </row>
-    <row r="53" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>177</v>
       </c>
@@ -6601,7 +6633,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>149</v>
       </c>
@@ -6621,7 +6653,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>178</v>
       </c>
@@ -7254,6 +7286,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7261,8 +7295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9617,9 +9651,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/project/cascade-belarus.xlsx
+++ b/project/cascade-belarus.xlsx
@@ -24,40 +24,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>David Jacob Kedziora</author>
-  </authors>
-  <commentList>
-    <comment ref="A40" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>David Jacob Kedziora:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Below here is NOT finalised. Beware your DOOM.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>David Jacob Kedziora</author>
@@ -116,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="635">
   <si>
     <t>Code Label</t>
   </si>
@@ -2000,9 +1966,6 @@
     <t>Disaggregation Ratios</t>
   </si>
   <si>
-    <t>Calibrate?</t>
-  </si>
-  <si>
     <t>num_vac</t>
   </si>
   <si>
@@ -2187,6 +2150,9 @@
   </si>
   <si>
     <t>Current SN Extensively Drug-Resistant Infections on Treatment</t>
+  </si>
+  <si>
+    <t>Calibrate</t>
   </si>
 </sst>
 </file>
@@ -2754,7 +2720,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2932,6 +2898,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="112">
@@ -5669,11 +5641,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53:G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5682,16 +5654,16 @@
     <col min="2" max="2" width="63.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="63" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.77734375" customWidth="1"/>
     <col min="17" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4.33203125" bestFit="1" customWidth="1"/>
@@ -5704,7 +5676,7 @@
     <col min="29" max="29" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5717,573 +5689,662 @@
       <c r="D1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="62" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B2" t="s">
+        <v>587</v>
+      </c>
+      <c r="E2" s="63">
+        <v>50</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>591</v>
+      </c>
+      <c r="B4" t="s">
+        <v>592</v>
+      </c>
+      <c r="E4" s="63">
+        <v>100</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>575</v>
+      </c>
+      <c r="B5" t="s">
         <v>588</v>
       </c>
-      <c r="E2" s="2">
-        <v>50</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>592</v>
-      </c>
-      <c r="B4" t="s">
-        <v>593</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="I5" t="s">
+        <v>205</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>576</v>
+      </c>
+      <c r="B6" t="s">
+        <v>589</v>
+      </c>
+      <c r="E6" s="63">
         <v>100</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>576</v>
-      </c>
-      <c r="B5" t="s">
-        <v>589</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="G6" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I6" t="s">
+        <v>208</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>586</v>
+      </c>
+      <c r="B7" t="s">
+        <v>590</v>
+      </c>
+      <c r="E7" s="63">
+        <v>200</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>577</v>
-      </c>
-      <c r="B6" t="s">
-        <v>590</v>
-      </c>
-      <c r="E6" s="2">
-        <v>100</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="J6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>587</v>
-      </c>
-      <c r="B7" t="s">
-        <v>591</v>
-      </c>
-      <c r="E7" s="2">
-        <v>200</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>205</v>
+      <c r="I7" t="s">
+        <v>575</v>
       </c>
       <c r="J7" t="s">
         <v>576</v>
       </c>
-      <c r="K7" t="s">
+      <c r="O7" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>581</v>
+      </c>
+      <c r="B8" t="s">
+        <v>582</v>
+      </c>
+      <c r="I8" t="s">
+        <v>204</v>
+      </c>
+      <c r="J8" t="s">
+        <v>575</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>580</v>
+      </c>
+      <c r="B9" t="s">
+        <v>583</v>
+      </c>
+      <c r="E9" s="63">
+        <v>200</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I9" t="s">
+        <v>207</v>
+      </c>
+      <c r="J9" t="s">
+        <v>576</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>584</v>
+      </c>
+      <c r="B10" t="s">
+        <v>585</v>
+      </c>
+      <c r="E10" s="63">
+        <v>500</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I10" t="s">
+        <v>581</v>
+      </c>
+      <c r="J10" t="s">
+        <v>580</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>573</v>
+      </c>
+      <c r="B11" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>582</v>
-      </c>
-      <c r="B8" t="s">
-        <v>583</v>
-      </c>
-      <c r="J8" t="s">
-        <v>204</v>
-      </c>
-      <c r="K8" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="I11" t="s">
+        <v>203</v>
+      </c>
+      <c r="J11" t="s">
         <v>581</v>
       </c>
-      <c r="B9" t="s">
-        <v>584</v>
-      </c>
-      <c r="E9" s="2">
-        <v>200</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="J9" t="s">
-        <v>207</v>
-      </c>
-      <c r="K9" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>585</v>
-      </c>
-      <c r="B10" t="s">
-        <v>586</v>
-      </c>
-      <c r="E10" s="2">
-        <v>500</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="J10" t="s">
-        <v>582</v>
-      </c>
-      <c r="K10" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="O11" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>574</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>578</v>
       </c>
-      <c r="J11" t="s">
-        <v>203</v>
-      </c>
-      <c r="K11" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>575</v>
-      </c>
-      <c r="B12" t="s">
-        <v>579</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="E12" s="63">
         <v>400</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>206</v>
       </c>
+      <c r="I12" t="s">
+        <v>206</v>
+      </c>
       <c r="J12" t="s">
-        <v>206</v>
-      </c>
-      <c r="K12" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>580</v>
-      </c>
-      <c r="E13" s="2">
+        <v>579</v>
+      </c>
+      <c r="E13" s="63">
         <v>1000</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>203</v>
+      </c>
+      <c r="I13" t="s">
+        <v>573</v>
       </c>
       <c r="J13" t="s">
         <v>574</v>
       </c>
-      <c r="K13" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O13" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>593</v>
+      </c>
+      <c r="B15" t="s">
         <v>594</v>
       </c>
-      <c r="B15" t="s">
-        <v>595</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="E15" s="63">
         <v>30</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J15" t="s">
+      <c r="I15" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="O15" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>622</v>
+      </c>
+      <c r="B16" t="s">
+        <v>628</v>
+      </c>
+      <c r="E16" s="63">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" t="s">
+        <v>126</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>623</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>629</v>
       </c>
-      <c r="E16" s="2">
-        <v>10</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="E17" s="63">
+        <v>20</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I17" t="s">
+        <v>129</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>624</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>630</v>
       </c>
-      <c r="E17" s="2">
-        <v>20</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="E18" s="63">
+        <v>30</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>625</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>631</v>
       </c>
-      <c r="E18" s="2">
-        <v>30</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="J18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="E19" s="63">
+        <v>40</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I19" t="s">
+        <v>135</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>627</v>
+      </c>
+      <c r="B20" t="s">
+        <v>632</v>
+      </c>
+      <c r="E20" s="63">
+        <v>50</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I20" t="s">
+        <v>138</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>626</v>
       </c>
-      <c r="B19" t="s">
-        <v>632</v>
-      </c>
-      <c r="E19" s="2">
-        <v>40</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>628</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>633</v>
       </c>
-      <c r="E20" s="2">
-        <v>50</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="E21" s="63">
+        <v>60</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I21" t="s">
+        <v>141</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>610</v>
+      </c>
+      <c r="B22" t="s">
+        <v>616</v>
+      </c>
+      <c r="E22" s="63">
+        <v>120</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I22" t="s">
+        <v>125</v>
+      </c>
+      <c r="J22" t="s">
+        <v>622</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>611</v>
+      </c>
+      <c r="B23" t="s">
+        <v>617</v>
+      </c>
+      <c r="E23" s="63">
+        <v>110</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I23" t="s">
+        <v>128</v>
+      </c>
+      <c r="J23" t="s">
+        <v>623</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>612</v>
+      </c>
+      <c r="B24" t="s">
+        <v>618</v>
+      </c>
+      <c r="E24" s="63">
+        <v>100</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I24" t="s">
+        <v>131</v>
+      </c>
+      <c r="J24" t="s">
+        <v>624</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>613</v>
+      </c>
+      <c r="B25" t="s">
+        <v>619</v>
+      </c>
+      <c r="E25" s="63">
+        <v>90</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I25" t="s">
+        <v>134</v>
+      </c>
+      <c r="J25" t="s">
+        <v>625</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>614</v>
+      </c>
+      <c r="B26" t="s">
+        <v>620</v>
+      </c>
+      <c r="E26" s="63">
+        <v>80</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J26" t="s">
         <v>627</v>
       </c>
-      <c r="B21" t="s">
-        <v>634</v>
-      </c>
-      <c r="E21" s="2">
-        <v>60</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="O26" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>615</v>
+      </c>
+      <c r="B27" t="s">
+        <v>621</v>
+      </c>
+      <c r="E27" s="63">
+        <v>70</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I27" t="s">
+        <v>140</v>
+      </c>
+      <c r="J27" t="s">
+        <v>626</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>598</v>
+      </c>
+      <c r="B28" t="s">
+        <v>599</v>
+      </c>
+      <c r="E28" s="63">
+        <v>130</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I28" t="s">
+        <v>124</v>
+      </c>
+      <c r="J28" t="s">
+        <v>610</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>600</v>
+      </c>
+      <c r="B29" t="s">
+        <v>601</v>
+      </c>
+      <c r="E29" s="63">
+        <v>140</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I29" t="s">
+        <v>127</v>
+      </c>
+      <c r="J29" t="s">
         <v>611</v>
       </c>
-      <c r="B22" t="s">
-        <v>617</v>
-      </c>
-      <c r="E22" s="2">
-        <v>120</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J22" t="s">
-        <v>125</v>
-      </c>
-      <c r="K22" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="O29" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>602</v>
+      </c>
+      <c r="B30" t="s">
+        <v>603</v>
+      </c>
+      <c r="E30" s="63">
+        <v>150</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I30" t="s">
+        <v>130</v>
+      </c>
+      <c r="J30" t="s">
         <v>612</v>
       </c>
-      <c r="B23" t="s">
-        <v>618</v>
-      </c>
-      <c r="E23" s="2">
-        <v>110</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="J23" t="s">
-        <v>128</v>
-      </c>
-      <c r="K23" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="O30" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>604</v>
+      </c>
+      <c r="B31" t="s">
+        <v>607</v>
+      </c>
+      <c r="E31" s="63">
+        <v>160</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I31" t="s">
+        <v>133</v>
+      </c>
+      <c r="J31" t="s">
         <v>613</v>
       </c>
-      <c r="B24" t="s">
-        <v>619</v>
-      </c>
-      <c r="E24" s="2">
-        <v>100</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J24" t="s">
-        <v>131</v>
-      </c>
-      <c r="K24" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="O31" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>605</v>
+      </c>
+      <c r="B32" t="s">
+        <v>608</v>
+      </c>
+      <c r="E32" s="63">
+        <v>170</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I32" t="s">
+        <v>136</v>
+      </c>
+      <c r="J32" t="s">
         <v>614</v>
       </c>
-      <c r="B25" t="s">
-        <v>620</v>
-      </c>
-      <c r="E25" s="2">
-        <v>90</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J25" t="s">
-        <v>134</v>
-      </c>
-      <c r="K25" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>615</v>
-      </c>
-      <c r="B26" t="s">
-        <v>621</v>
-      </c>
-      <c r="E26" s="2">
-        <v>80</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J26" t="s">
-        <v>137</v>
-      </c>
-      <c r="K26" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>616</v>
-      </c>
-      <c r="B27" t="s">
-        <v>622</v>
-      </c>
-      <c r="E27" s="2">
-        <v>70</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="J27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K27" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>599</v>
-      </c>
-      <c r="B28" t="s">
-        <v>600</v>
-      </c>
-      <c r="E28" s="2">
-        <v>130</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J28" t="s">
-        <v>124</v>
-      </c>
-      <c r="K28" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>601</v>
-      </c>
-      <c r="B29" t="s">
-        <v>602</v>
-      </c>
-      <c r="E29" s="2">
-        <v>140</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J29" t="s">
-        <v>127</v>
-      </c>
-      <c r="K29" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>603</v>
-      </c>
-      <c r="B30" t="s">
-        <v>604</v>
-      </c>
-      <c r="E30" s="2">
-        <v>150</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J30" t="s">
-        <v>130</v>
-      </c>
-      <c r="K30" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>605</v>
-      </c>
-      <c r="B31" t="s">
-        <v>608</v>
-      </c>
-      <c r="E31" s="2">
-        <v>160</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="J31" t="s">
-        <v>133</v>
-      </c>
-      <c r="K31" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>606</v>
-      </c>
-      <c r="B32" t="s">
-        <v>609</v>
-      </c>
-      <c r="E32" s="2">
-        <v>170</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="J32" t="s">
-        <v>136</v>
-      </c>
-      <c r="K32" t="s">
-        <v>615</v>
+      <c r="O32" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B33" t="s">
-        <v>610</v>
-      </c>
-      <c r="E33" s="2">
+        <v>609</v>
+      </c>
+      <c r="E33" s="63">
         <v>180</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="I33" t="s">
+        <v>139</v>
+      </c>
       <c r="J33" t="s">
-        <v>139</v>
-      </c>
-      <c r="K33" t="s">
-        <v>616</v>
+        <v>615</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -6291,25 +6352,28 @@
         <v>145</v>
       </c>
       <c r="B34" t="s">
+        <v>597</v>
+      </c>
+      <c r="E34" s="63">
+        <v>500</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I34" t="s">
+        <v>201</v>
+      </c>
+      <c r="J34" t="s">
         <v>598</v>
       </c>
-      <c r="E34" s="2">
-        <v>500</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J34" t="s">
-        <v>201</v>
-      </c>
       <c r="K34" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="L34" t="s">
-        <v>601</v>
-      </c>
-      <c r="M34" t="s">
-        <v>603</v>
+        <v>602</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -6317,16 +6381,19 @@
         <v>174</v>
       </c>
       <c r="B35" t="s">
-        <v>597</v>
-      </c>
-      <c r="E35" s="2">
+        <v>596</v>
+      </c>
+      <c r="E35" s="63">
         <v>600</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>202</v>
       </c>
+      <c r="I35" t="s">
+        <v>202</v>
+      </c>
       <c r="J35" t="s">
-        <v>202</v>
+        <v>604</v>
       </c>
       <c r="K35" t="s">
         <v>605</v>
@@ -6334,8 +6401,8 @@
       <c r="L35" t="s">
         <v>606</v>
       </c>
-      <c r="M35" t="s">
-        <v>607</v>
+      <c r="O35" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -6343,22 +6410,25 @@
         <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>596</v>
-      </c>
-      <c r="E36" s="2">
+        <v>595</v>
+      </c>
+      <c r="E36" s="63">
         <v>1200</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>200</v>
       </c>
+      <c r="I36" t="s">
+        <v>200</v>
+      </c>
       <c r="J36" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="K36" t="s">
-        <v>145</v>
-      </c>
-      <c r="L36" t="s">
         <v>174</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -6368,29 +6438,32 @@
       <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="63">
         <v>3000</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="I38" t="s">
+        <v>2</v>
+      </c>
       <c r="J38" t="s">
-        <v>2</v>
+        <v>572</v>
       </c>
       <c r="K38" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="L38" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M38" t="s">
-        <v>594</v>
+        <v>49</v>
       </c>
       <c r="N38" t="s">
-        <v>49</v>
-      </c>
-      <c r="O38" t="s">
         <v>50</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -6400,14 +6473,14 @@
       <c r="B40" t="s">
         <v>84</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>429</v>
+      <c r="I40" t="s">
+        <v>124</v>
       </c>
       <c r="J40" t="s">
-        <v>124</v>
-      </c>
-      <c r="K40" t="s">
         <v>125</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -6417,14 +6490,14 @@
       <c r="B41" t="s">
         <v>85</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>429</v>
+      <c r="I41" t="s">
+        <v>127</v>
       </c>
       <c r="J41" t="s">
-        <v>127</v>
-      </c>
-      <c r="K41" t="s">
         <v>128</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -6434,14 +6507,14 @@
       <c r="B42" t="s">
         <v>86</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>429</v>
+      <c r="I42" t="s">
+        <v>130</v>
       </c>
       <c r="J42" t="s">
-        <v>130</v>
-      </c>
-      <c r="K42" t="s">
         <v>131</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -6451,14 +6524,14 @@
       <c r="B43" t="s">
         <v>102</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>429</v>
+      <c r="I43" t="s">
+        <v>133</v>
       </c>
       <c r="J43" t="s">
-        <v>133</v>
-      </c>
-      <c r="K43" t="s">
         <v>134</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -6468,14 +6541,14 @@
       <c r="B44" t="s">
         <v>103</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>429</v>
+      <c r="I44" t="s">
+        <v>136</v>
       </c>
       <c r="J44" t="s">
-        <v>136</v>
-      </c>
-      <c r="K44" t="s">
         <v>137</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -6485,152 +6558,152 @@
       <c r="B45" t="s">
         <v>104</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>429</v>
+      <c r="I45" t="s">
+        <v>139</v>
       </c>
       <c r="J45" t="s">
-        <v>139</v>
-      </c>
-      <c r="K45" t="s">
         <v>140</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H46" t="s">
+        <v>51</v>
+      </c>
+      <c r="I46" t="s">
+        <v>142</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
-      </c>
-      <c r="G47" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="H47" t="s">
+        <v>51</v>
+      </c>
       <c r="I47" t="s">
-        <v>51</v>
-      </c>
-      <c r="J47" t="s">
-        <v>49</v>
+        <v>143</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="G48" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="H48" t="s">
+        <v>51</v>
+      </c>
       <c r="I48" t="s">
-        <v>51</v>
-      </c>
-      <c r="J48" t="s">
-        <v>142</v>
+        <v>144</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="G49" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="H49" t="s">
+        <v>51</v>
+      </c>
       <c r="I49" t="s">
-        <v>51</v>
-      </c>
-      <c r="J49" t="s">
-        <v>143</v>
+        <v>171</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="G50" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="H50" t="s">
+        <v>51</v>
+      </c>
       <c r="I50" t="s">
-        <v>51</v>
-      </c>
-      <c r="J50" t="s">
-        <v>144</v>
+        <v>172</v>
+      </c>
+      <c r="N50" s="15"/>
+      <c r="O50" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="G51" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="H51" t="s">
+        <v>51</v>
+      </c>
       <c r="I51" t="s">
-        <v>51</v>
-      </c>
-      <c r="J51" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>176</v>
-      </c>
-      <c r="B52" t="s">
-        <v>106</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I52" t="s">
-        <v>51</v>
-      </c>
-      <c r="J52" t="s">
-        <v>172</v>
-      </c>
-      <c r="O52" s="15"/>
+        <v>173</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="G53" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="H53" t="s">
+        <v>51</v>
+      </c>
       <c r="I53" t="s">
-        <v>51</v>
-      </c>
-      <c r="J53" t="s">
-        <v>173</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
@@ -6641,16 +6714,16 @@
         <v>120</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="G54" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="H54" t="s">
+        <v>51</v>
+      </c>
       <c r="I54" t="s">
-        <v>51</v>
-      </c>
-      <c r="J54" t="s">
         <v>145</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -6661,16 +6734,16 @@
         <v>121</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="G55" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="H55" t="s">
+        <v>51</v>
+      </c>
       <c r="I55" t="s">
-        <v>51</v>
-      </c>
-      <c r="J55" t="s">
         <v>174</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -6680,14 +6753,17 @@
       <c r="B56" t="s">
         <v>61</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="H56" t="s">
+        <v>51</v>
+      </c>
       <c r="I56" t="s">
-        <v>51</v>
-      </c>
-      <c r="J56" t="s">
         <v>50</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -6697,14 +6773,14 @@
       <c r="B58" t="s">
         <v>337</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>429</v>
+      <c r="I58" t="s">
+        <v>205</v>
       </c>
       <c r="J58" t="s">
-        <v>205</v>
-      </c>
-      <c r="K58" t="s">
         <v>208</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -6714,17 +6790,17 @@
       <c r="B59" t="s">
         <v>336</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>429</v>
+      <c r="I59" t="s">
+        <v>126</v>
       </c>
       <c r="J59" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K59" t="s">
-        <v>129</v>
-      </c>
-      <c r="L59" t="s">
         <v>132</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -6734,17 +6810,17 @@
       <c r="B60" t="s">
         <v>335</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>429</v>
+      <c r="I60" t="s">
+        <v>135</v>
       </c>
       <c r="J60" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K60" t="s">
-        <v>138</v>
-      </c>
-      <c r="L60" t="s">
         <v>141</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -6754,14 +6830,14 @@
       <c r="B61" t="s">
         <v>339</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>429</v>
+      <c r="I61" t="s">
+        <v>328</v>
       </c>
       <c r="J61" t="s">
-        <v>328</v>
-      </c>
-      <c r="K61" t="s">
         <v>329</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
@@ -6771,14 +6847,14 @@
       <c r="B62" t="s">
         <v>338</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>429</v>
+      <c r="I62" t="s">
+        <v>324</v>
       </c>
       <c r="J62" t="s">
-        <v>324</v>
-      </c>
-      <c r="K62" t="s">
         <v>325</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
@@ -6792,16 +6868,16 @@
         <v>535</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="G63" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="H63" t="s">
+        <v>51</v>
+      </c>
       <c r="I63" t="s">
-        <v>51</v>
-      </c>
-      <c r="J63" t="s">
         <v>324</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
@@ -6815,19 +6891,19 @@
         <v>535</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="G64" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="H64" t="s">
+        <v>51</v>
+      </c>
       <c r="I64" t="s">
-        <v>51</v>
-      </c>
-      <c r="J64" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O64" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>331</v>
       </c>
@@ -6838,19 +6914,19 @@
         <v>535</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="G65" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="H65" t="s">
+        <v>51</v>
+      </c>
       <c r="I65" t="s">
-        <v>51</v>
-      </c>
-      <c r="J65" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O65" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>362</v>
       </c>
@@ -6860,11 +6936,14 @@
       <c r="C66" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="J66" t="s">
+      <c r="I66" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O66" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>372</v>
       </c>
@@ -6875,19 +6954,19 @@
         <v>274</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="G67" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="H67" t="s">
+        <v>41</v>
+      </c>
       <c r="I67" t="s">
-        <v>41</v>
-      </c>
-      <c r="J67" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O67" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>373</v>
       </c>
@@ -6898,19 +6977,19 @@
         <v>274</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="G68" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="H68" t="s">
+        <v>41</v>
+      </c>
       <c r="I68" t="s">
-        <v>41</v>
-      </c>
-      <c r="J68" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O68" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>374</v>
       </c>
@@ -6921,19 +7000,19 @@
         <v>274</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="G69" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="H69" t="s">
+        <v>41</v>
+      </c>
       <c r="I69" t="s">
-        <v>41</v>
-      </c>
-      <c r="J69" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O69" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>369</v>
       </c>
@@ -6944,19 +7023,19 @@
         <v>274</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="G70" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="H70" t="s">
+        <v>41</v>
+      </c>
       <c r="I70" t="s">
-        <v>41</v>
-      </c>
-      <c r="J70" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O70" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>370</v>
       </c>
@@ -6967,19 +7046,19 @@
         <v>274</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="G71" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="H71" t="s">
+        <v>41</v>
+      </c>
       <c r="I71" t="s">
-        <v>41</v>
-      </c>
-      <c r="J71" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O71" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>371</v>
       </c>
@@ -6990,19 +7069,19 @@
         <v>274</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="G72" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="H72" t="s">
+        <v>41</v>
+      </c>
       <c r="I72" t="s">
-        <v>41</v>
-      </c>
-      <c r="J72" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O72" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>364</v>
       </c>
@@ -7012,20 +7091,20 @@
       <c r="C73" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>429</v>
+      <c r="H73" t="s">
+        <v>41</v>
       </c>
       <c r="I73" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="J73" t="s">
-        <v>142</v>
-      </c>
-      <c r="K73" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O73" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>363</v>
       </c>
@@ -7035,20 +7114,20 @@
       <c r="C74" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>429</v>
+      <c r="H74" t="s">
+        <v>41</v>
       </c>
       <c r="I74" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="J74" t="s">
-        <v>143</v>
-      </c>
-      <c r="K74" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O74" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>365</v>
       </c>
@@ -7058,68 +7137,68 @@
       <c r="C75" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>429</v>
+      <c r="H75" t="s">
+        <v>41</v>
       </c>
       <c r="I75" t="s">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="J75" t="s">
-        <v>144</v>
-      </c>
-      <c r="K75" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O75" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>378</v>
       </c>
       <c r="B76" t="s">
         <v>375</v>
       </c>
-      <c r="F76" s="2" t="s">
-        <v>429</v>
+      <c r="I76" t="s">
+        <v>205</v>
       </c>
       <c r="J76" t="s">
-        <v>205</v>
-      </c>
-      <c r="K76" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O76" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>379</v>
       </c>
       <c r="B77" t="s">
         <v>376</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>429</v>
+      <c r="I77" t="s">
+        <v>204</v>
       </c>
       <c r="J77" t="s">
-        <v>204</v>
-      </c>
-      <c r="K77" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O77" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>380</v>
       </c>
       <c r="B78" t="s">
         <v>377</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="J78" t="s">
+      <c r="I78" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O78" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>381</v>
       </c>
@@ -7129,14 +7208,14 @@
       <c r="C79" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="J79" t="s">
+      <c r="I79" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O79" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>382</v>
       </c>
@@ -7146,14 +7225,14 @@
       <c r="C80" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="J80" t="s">
+      <c r="I80" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O80" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>383</v>
       </c>
@@ -7163,14 +7242,14 @@
       <c r="C81" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F81" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="J81" t="s">
+      <c r="I81" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O81" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>384</v>
       </c>
@@ -7180,14 +7259,14 @@
       <c r="C82" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="J82" t="s">
+      <c r="I82" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O82" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>385</v>
       </c>
@@ -7197,14 +7276,14 @@
       <c r="C83" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="J83" t="s">
+      <c r="I83" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O83" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>386</v>
       </c>
@@ -7214,14 +7293,14 @@
       <c r="C84" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="J84" t="s">
+      <c r="I84" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O84" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>387</v>
       </c>
@@ -7231,20 +7310,20 @@
       <c r="C85" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>429</v>
+      <c r="I85" t="s">
+        <v>125</v>
       </c>
       <c r="J85" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K85" t="s">
-        <v>128</v>
-      </c>
-      <c r="L85" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O85" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>388</v>
       </c>
@@ -7254,20 +7333,20 @@
       <c r="C86" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>429</v>
+      <c r="I86" t="s">
+        <v>134</v>
       </c>
       <c r="J86" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K86" t="s">
-        <v>137</v>
-      </c>
-      <c r="L86" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O86" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>389</v>
       </c>
@@ -7277,17 +7356,19 @@
       <c r="C87" s="2" t="s">
         <v>273</v>
       </c>
+      <c r="I87" t="s">
+        <v>388</v>
+      </c>
       <c r="J87" t="s">
-        <v>388</v>
-      </c>
-      <c r="K87" t="s">
         <v>387</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7295,8 +7376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:D28"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7334,7 +7415,7 @@
         <v>62</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>572</v>
+        <v>634</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>123</v>
@@ -7933,7 +8014,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="53" t="s">
         <v>322</v>
       </c>
@@ -7957,7 +8038,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="53" t="s">
         <v>323</v>
       </c>
@@ -7981,7 +8062,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>151</v>
       </c>
@@ -8003,7 +8084,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>152</v>
       </c>
@@ -8025,7 +8106,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>179</v>
       </c>
@@ -8047,7 +8128,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>180</v>
       </c>
@@ -8069,7 +8150,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>181</v>
       </c>
@@ -8091,7 +8172,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>280</v>
       </c>
@@ -8109,7 +8190,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -8130,7 +8211,7 @@
       </c>
       <c r="I39" s="23"/>
     </row>
-    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -8150,7 +8231,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>69</v>
       </c>
@@ -8170,7 +8251,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>70</v>
       </c>
@@ -8190,11 +8271,11 @@
         <v>316</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
       <c r="H43"/>
     </row>
-    <row r="44" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>271</v>
       </c>
@@ -8218,7 +8299,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -8243,11 +8324,11 @@
       </c>
       <c r="J45" s="23"/>
     </row>
-    <row r="46" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B46" s="2"/>
       <c r="D46"/>
     </row>
-    <row r="47" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>153</v>
       </c>
@@ -8267,7 +8348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>182</v>
       </c>
@@ -8287,7 +8368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>154</v>
       </c>
@@ -8307,7 +8388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>155</v>
       </c>
@@ -8327,7 +8408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>156</v>
       </c>
@@ -8347,7 +8428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>183</v>
       </c>
@@ -8368,7 +8449,7 @@
       </c>
       <c r="J52" s="23"/>
     </row>
-    <row r="53" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>184</v>
       </c>
@@ -8389,7 +8470,7 @@
       </c>
       <c r="J53" s="23"/>
     </row>
-    <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>185</v>
       </c>
@@ -8410,13 +8491,13 @@
       </c>
       <c r="J54" s="23"/>
     </row>
-    <row r="55" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B55" s="2"/>
       <c r="C55" s="53"/>
       <c r="D55"/>
       <c r="J55" s="23"/>
     </row>
-    <row r="56" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>157</v>
       </c>
@@ -8442,7 +8523,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>158</v>
       </c>
@@ -8471,7 +8552,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>159</v>
       </c>
@@ -8500,7 +8581,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>160</v>
       </c>
@@ -8529,7 +8610,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>162</v>
       </c>
@@ -8555,7 +8636,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>163</v>
       </c>
@@ -8584,7 +8665,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>164</v>
       </c>
@@ -8613,7 +8694,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>165</v>
       </c>
@@ -8642,7 +8723,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>167</v>
       </c>
@@ -8668,7 +8749,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>168</v>
       </c>
@@ -8694,7 +8775,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>169</v>
       </c>
@@ -8720,7 +8801,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>170</v>
       </c>
@@ -8746,7 +8827,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>186</v>
       </c>
@@ -8772,7 +8853,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>187</v>
       </c>
@@ -8801,7 +8882,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>188</v>
       </c>
@@ -8830,7 +8911,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>189</v>
       </c>
@@ -8857,7 +8938,7 @@
       </c>
       <c r="J71" s="23"/>
     </row>
-    <row r="72" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>191</v>
       </c>
@@ -8883,7 +8964,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>192</v>
       </c>
@@ -8912,7 +8993,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>193</v>
       </c>
@@ -8941,7 +9022,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>194</v>
       </c>
@@ -8968,7 +9049,7 @@
       </c>
       <c r="J75" s="23"/>
     </row>
-    <row r="76" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>196</v>
       </c>
@@ -8994,7 +9075,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>197</v>
       </c>
@@ -9020,7 +9101,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>198</v>
       </c>
@@ -9046,7 +9127,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>199</v>
       </c>
@@ -9072,12 +9153,12 @@
         <v>410</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B80" s="2"/>
       <c r="D80"/>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="1:15" ht="45" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>348</v>
       </c>
@@ -9103,7 +9184,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="45" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>345</v>
       </c>
@@ -9132,7 +9213,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>346</v>
       </c>
@@ -9158,7 +9239,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>347</v>
       </c>
@@ -9184,7 +9265,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>350</v>
       </c>
@@ -9210,7 +9291,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>349</v>
       </c>
@@ -9236,7 +9317,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>190</v>
       </c>
@@ -9258,7 +9339,7 @@
       </c>
       <c r="J87" s="23"/>
     </row>
-    <row r="88" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>195</v>
       </c>
@@ -9280,7 +9361,7 @@
       </c>
       <c r="J88" s="23"/>
     </row>
-    <row r="89" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>161</v>
       </c>
@@ -9302,7 +9383,7 @@
       </c>
       <c r="J89" s="23"/>
     </row>
-    <row r="90" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>166</v>
       </c>
@@ -9324,12 +9405,12 @@
       </c>
       <c r="J90" s="23"/>
     </row>
-    <row r="91" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B91" s="2"/>
       <c r="D91"/>
       <c r="J91" s="23"/>
     </row>
-    <row r="92" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>515</v>
       </c>
@@ -9352,7 +9433,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>516</v>
       </c>
@@ -9375,7 +9456,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>517</v>
       </c>
@@ -9398,7 +9479,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>512</v>
       </c>
@@ -9427,7 +9508,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>513</v>
       </c>
@@ -9456,7 +9537,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>514</v>
       </c>
@@ -9482,7 +9563,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>518</v>
       </c>
@@ -9505,7 +9586,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>519</v>
       </c>
@@ -9528,7 +9609,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>520</v>
       </c>
@@ -9551,7 +9632,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>521</v>
       </c>
@@ -9580,7 +9661,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>522</v>
       </c>
@@ -9609,7 +9690,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>523</v>
       </c>
@@ -9635,18 +9716,18 @@
         <v>409</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B104" s="2"/>
       <c r="D104"/>
       <c r="J104" s="2"/>
     </row>
-    <row r="105" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J105" s="60"/>
     </row>
-    <row r="106" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J106" s="60"/>
     </row>
-    <row r="107" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J107" s="61"/>
     </row>
   </sheetData>

--- a/project/cascade-belarus.xlsx
+++ b/project/cascade-belarus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="264" yWindow="-23544" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="264" yWindow="-23544" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Databook Sheet Names" sheetId="5" r:id="rId1"/>
@@ -23,66 +23,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>David Jacob Kedziora</author>
-  </authors>
-  <commentList>
-    <comment ref="D31" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>David Jacob Kedziora:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Default with no data</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D32" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>David Jacob Kedziora:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Default with no data</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="629">
   <si>
     <t>Code Label</t>
   </si>
@@ -261,15 +203,6 @@
     <t>(0,0)</t>
   </si>
   <si>
-    <t>Population Count</t>
-  </si>
-  <si>
-    <t>Latent Prevalence</t>
-  </si>
-  <si>
-    <t>Active Prevalence</t>
-  </si>
-  <si>
     <t>Databook Order</t>
   </si>
   <si>
@@ -327,33 +260,6 @@
     <t>sh_pop</t>
   </si>
   <si>
-    <t>sh_prev</t>
-  </si>
-  <si>
-    <t>Prevalence</t>
-  </si>
-  <si>
-    <t>sh_disagg</t>
-  </si>
-  <si>
-    <t>SP DS Infectious Count</t>
-  </si>
-  <si>
-    <t>SP MDR Infectious Count</t>
-  </si>
-  <si>
-    <t>SP XDR Infectious Count</t>
-  </si>
-  <si>
-    <t>SP DS Infectious Prevalence</t>
-  </si>
-  <si>
-    <t>SP MDR Infectious Prevalence</t>
-  </si>
-  <si>
-    <t>SP XDR Infectious Prevalence</t>
-  </si>
-  <si>
     <t>SP DS Diagnosis Rate</t>
   </si>
   <si>
@@ -390,24 +296,6 @@
     <t>SP XDR Treatment Success Rate</t>
   </si>
   <si>
-    <t>SN DS Infectious Count</t>
-  </si>
-  <si>
-    <t>SN MDR Infectious Count</t>
-  </si>
-  <si>
-    <t>SN XDR Infectious Count</t>
-  </si>
-  <si>
-    <t>SN DS Infectious Prevalence</t>
-  </si>
-  <si>
-    <t>SN MDR Infectious Prevalence</t>
-  </si>
-  <si>
-    <t>SN XDR Infectious Prevalence</t>
-  </si>
-  <si>
     <t>SN DS Diagnosis Rate</t>
   </si>
   <si>
@@ -444,12 +332,6 @@
     <t>SN XDR Treatment Success Rate</t>
   </si>
   <si>
-    <t>Smear-Positive Prevalence</t>
-  </si>
-  <si>
-    <t>Smear-Negative Prevalence</t>
-  </si>
-  <si>
     <t>Transition Tag</t>
   </si>
   <si>
@@ -906,9 +788,6 @@
     <t>sh_notified</t>
   </si>
   <si>
-    <t>sh_other</t>
-  </si>
-  <si>
     <t>DS Smear+ Undiagnosed</t>
   </si>
   <si>
@@ -969,9 +848,6 @@
     <t>alpha</t>
   </si>
   <si>
-    <t>Rate of Latency Testing</t>
-  </si>
-  <si>
     <t>alpha1</t>
   </si>
   <si>
@@ -981,15 +857,6 @@
     <t>treat_latent</t>
   </si>
   <si>
-    <t>Treatment Rate of Latent Infected</t>
-  </si>
-  <si>
-    <t>Rate of Successfully Treated Latent Cases</t>
-  </si>
-  <si>
-    <t>Failed Latency Treatment Cases</t>
-  </si>
-  <si>
     <t>psi: Testing rate</t>
   </si>
   <si>
@@ -1056,60 +923,6 @@
     <t>betaXDR</t>
   </si>
   <si>
-    <t>latent_tested</t>
-  </si>
-  <si>
-    <t>active_tested</t>
-  </si>
-  <si>
-    <t>Percentage of population tested for TB susceptibility</t>
-  </si>
-  <si>
-    <t>total_tested</t>
-  </si>
-  <si>
-    <t>sn_tested</t>
-  </si>
-  <si>
-    <t>sp_tested</t>
-  </si>
-  <si>
-    <t>prop_act_tested</t>
-  </si>
-  <si>
-    <t>prop_total_tested</t>
-  </si>
-  <si>
-    <t>prop_lat_tested</t>
-  </si>
-  <si>
-    <t>Percentage of population tested for latent TB per year</t>
-  </si>
-  <si>
-    <t>Percentage of population tested for active TB per year</t>
-  </si>
-  <si>
-    <t>Number of smear-negative people tested per year</t>
-  </si>
-  <si>
-    <t>Number of smear-positive people tested per year</t>
-  </si>
-  <si>
-    <t>Number of people tested for latent TB per year</t>
-  </si>
-  <si>
-    <t>Total number of people tested for TB per year</t>
-  </si>
-  <si>
-    <t>Number of people tested for active TB per year</t>
-  </si>
-  <si>
-    <t>sh_constants</t>
-  </si>
-  <si>
-    <t>Constants</t>
-  </si>
-  <si>
     <t>(1-p_act_early)*phi_early</t>
   </si>
   <si>
@@ -1167,124 +980,7 @@
     <t>mu: Natural death rate</t>
   </si>
   <si>
-    <t>Total number of TB-related deaths per year</t>
-  </si>
-  <si>
     <t>num_ddis</t>
-  </si>
-  <si>
-    <t>num_mddis</t>
-  </si>
-  <si>
-    <t>num_dddis</t>
-  </si>
-  <si>
-    <t>num_xddis</t>
-  </si>
-  <si>
-    <t>Number of Total DS-TB related deaths</t>
-  </si>
-  <si>
-    <t>Number of Total MDR TB-related deaths</t>
-  </si>
-  <si>
-    <t>Number of Total XDR TB-related deaths</t>
-  </si>
-  <si>
-    <t>num_sndddis</t>
-  </si>
-  <si>
-    <t>num_snmddis</t>
-  </si>
-  <si>
-    <t>num_snxddis</t>
-  </si>
-  <si>
-    <t>num_spdddis</t>
-  </si>
-  <si>
-    <t>num_spmddis</t>
-  </si>
-  <si>
-    <t>num_spxddis</t>
-  </si>
-  <si>
-    <t>Number of people initiating treatment for latent TB per year</t>
-  </si>
-  <si>
-    <t>Number of people lost to follow up for latent TB per year</t>
-  </si>
-  <si>
-    <t>Number of people successfully completing treatment for latent TB per year</t>
-  </si>
-  <si>
-    <t>nlt_init</t>
-  </si>
-  <si>
-    <t>nlt_ltfu</t>
-  </si>
-  <si>
-    <t>nlt_success</t>
-  </si>
-  <si>
-    <t>nu1</t>
-  </si>
-  <si>
-    <t>nu2</t>
-  </si>
-  <si>
-    <t>nu3</t>
-  </si>
-  <si>
-    <t>nu4</t>
-  </si>
-  <si>
-    <t>nu5</t>
-  </si>
-  <si>
-    <t>nu6</t>
-  </si>
-  <si>
-    <t>nu7</t>
-  </si>
-  <si>
-    <t>nu8</t>
-  </si>
-  <si>
-    <t>nu9</t>
-  </si>
-  <si>
-    <t>SP DS New cases</t>
-  </si>
-  <si>
-    <t>SP MDR New cases</t>
-  </si>
-  <si>
-    <t>SP XDR New cases</t>
-  </si>
-  <si>
-    <t>SN DS New cases</t>
-  </si>
-  <si>
-    <t>SN MDR New cases</t>
-  </si>
-  <si>
-    <t>SN XDR New cases</t>
-  </si>
-  <si>
-    <t>Smear-Positive New cases</t>
-  </si>
-  <si>
-    <t>Smear-Negative New cases</t>
-  </si>
-  <si>
-    <t>Total Number of Active  New cases</t>
-  </si>
-  <si>
-    <t>sh_incid</t>
-  </si>
-  <si>
-    <t>Incidence</t>
   </si>
   <si>
     <t>Active TB Testing and Treatment</t>
@@ -1540,24 +1236,6 @@
     <t>n</t>
   </si>
   <si>
-    <t>Percentage of SN DS-TB related deaths</t>
-  </si>
-  <si>
-    <t>Percentage of SN MDR TB-related deaths</t>
-  </si>
-  <si>
-    <t>Percentage of SN XDR TB-related deaths</t>
-  </si>
-  <si>
-    <t>Percentage of SP DS-TB related deaths</t>
-  </si>
-  <si>
-    <t>Percentage of SP MDR TB-related deaths</t>
-  </si>
-  <si>
-    <t>Percentage of SP XDR TB-related deaths</t>
-  </si>
-  <si>
     <t>vrate</t>
   </si>
   <si>
@@ -1846,9 +1524,6 @@
     <t>XDR Proportion of New SN Infections</t>
   </si>
   <si>
-    <t>Other Epidemiology</t>
-  </si>
-  <si>
     <t>General Demographics</t>
   </si>
   <si>
@@ -1963,9 +1638,6 @@
     <t>sh_aprog</t>
   </si>
   <si>
-    <t>Disaggregation Ratios</t>
-  </si>
-  <si>
     <t>num_vac</t>
   </si>
   <si>
@@ -2153,13 +1825,265 @@
   </si>
   <si>
     <t>Calibrate</t>
+  </si>
+  <si>
+    <t>Current Population Count</t>
+  </si>
+  <si>
+    <t>Current Suspected Untreated SP DS Infections</t>
+  </si>
+  <si>
+    <t>Current Suspected Untreated SP MDR Infections</t>
+  </si>
+  <si>
+    <t>Current Suspected Untreated SP XDR Infections</t>
+  </si>
+  <si>
+    <t>Current Suspected Untreated SN DS Infections</t>
+  </si>
+  <si>
+    <t>Current Suspected Untreated SN MDR Infections</t>
+  </si>
+  <si>
+    <t>Current Suspected Untreated SN XDR Infections</t>
+  </si>
+  <si>
+    <t>Suspected Untreated SP DS Prevalence</t>
+  </si>
+  <si>
+    <t>Suspected Untreated SP MDR Prevalence</t>
+  </si>
+  <si>
+    <t>Suspected Untreated SP XDR Prevalence</t>
+  </si>
+  <si>
+    <t>Suspected Untreated SN DS Prevalence</t>
+  </si>
+  <si>
+    <t>Suspected Untreated SN MDR Prevalence</t>
+  </si>
+  <si>
+    <t>Suspected Untreated SN XDR Prevalence</t>
+  </si>
+  <si>
+    <t>Latency Testing Rate</t>
+  </si>
+  <si>
+    <t>Latency Treatment Initiation Rate</t>
+  </si>
+  <si>
+    <t>Latency Treatment Abandonment Rate</t>
+  </si>
+  <si>
+    <t>Latency Treatment Success Rate</t>
+  </si>
+  <si>
+    <t>sh_lprev</t>
+  </si>
+  <si>
+    <t>sh_aprev</t>
+  </si>
+  <si>
+    <t>Active TB Prevalence</t>
+  </si>
+  <si>
+    <t>Latent TB Prevalence</t>
+  </si>
+  <si>
+    <t>Suspected Active Prevalence</t>
+  </si>
+  <si>
+    <t>Suspected Smear-Negative Prevalence</t>
+  </si>
+  <si>
+    <t>Suspected Smear-Positive Prevalence</t>
+  </si>
+  <si>
+    <t>Suspected Latent Prevalence</t>
+  </si>
+  <si>
+    <t>spd_prev</t>
+  </si>
+  <si>
+    <t>Suspected SP Drug-Susceptible Prevalence</t>
+  </si>
+  <si>
+    <t>spm_prev</t>
+  </si>
+  <si>
+    <t>spx_prev</t>
+  </si>
+  <si>
+    <t>Suspected SP Multidrug-Resistant Prevalence</t>
+  </si>
+  <si>
+    <t>Suspected SP Extensively Drug-Resistant Prevalence</t>
+  </si>
+  <si>
+    <t>snd_prev</t>
+  </si>
+  <si>
+    <t>snm_prev</t>
+  </si>
+  <si>
+    <t>snx_prev</t>
+  </si>
+  <si>
+    <t>Suspected SN Drug-Susceptible Prevalence</t>
+  </si>
+  <si>
+    <t>Suspected SN Multidrug-Resistant Prevalence</t>
+  </si>
+  <si>
+    <t>Suspected SN Extensively Drug-Resistant Prevalence</t>
+  </si>
+  <si>
+    <t>Cumulative TB Deaths (Across Simulated Years)</t>
+  </si>
+  <si>
+    <t>Latent Testing Sufficiency (Known vs. Suspected)</t>
+  </si>
+  <si>
+    <t>lt_diag</t>
+  </si>
+  <si>
+    <t>lt_treat</t>
+  </si>
+  <si>
+    <t>Latent Treatment Sufficiency (On-Treatment vs. Known)</t>
+  </si>
+  <si>
+    <t>spd_diag</t>
+  </si>
+  <si>
+    <t>SP DS Testing Sufficiency (Known vs. Suspected)</t>
+  </si>
+  <si>
+    <t>spd_treat</t>
+  </si>
+  <si>
+    <t>SP DS Treatment Sufficiency (On-Treatment vs. Known)</t>
+  </si>
+  <si>
+    <t>spm_diag</t>
+  </si>
+  <si>
+    <t>spm_treat</t>
+  </si>
+  <si>
+    <t>spx_diag</t>
+  </si>
+  <si>
+    <t>spx_treat</t>
+  </si>
+  <si>
+    <t>SP MDR Testing Sufficiency (Known vs. Suspected)</t>
+  </si>
+  <si>
+    <t>SP MDR Treatment Sufficiency (On-Treatment vs. Known)</t>
+  </si>
+  <si>
+    <t>SP XDR Testing Sufficiency (Known vs. Suspected)</t>
+  </si>
+  <si>
+    <t>SP XDR Treatment Sufficiency (On-Treatment vs. Known)</t>
+  </si>
+  <si>
+    <t>snd_diag</t>
+  </si>
+  <si>
+    <t>snd_treat</t>
+  </si>
+  <si>
+    <t>snm_diag</t>
+  </si>
+  <si>
+    <t>snm_treat</t>
+  </si>
+  <si>
+    <t>snx_diag</t>
+  </si>
+  <si>
+    <t>snx_treat</t>
+  </si>
+  <si>
+    <t>SN DS Testing Sufficiency (Known vs. Suspected)</t>
+  </si>
+  <si>
+    <t>SN DS Treatment Sufficiency (On-Treatment vs. Known)</t>
+  </si>
+  <si>
+    <t>SN MDR Testing Sufficiency (Known vs. Suspected)</t>
+  </si>
+  <si>
+    <t>SN MDR Treatment Sufficiency (On-Treatment vs. Known)</t>
+  </si>
+  <si>
+    <t>SN XDR Testing Sufficiency (Known vs. Suspected)</t>
+  </si>
+  <si>
+    <t>SN XDR Treatment Sufficiency (On-Treatment vs. Known)</t>
+  </si>
+  <si>
+    <t>nu_spd</t>
+  </si>
+  <si>
+    <t>nu_spm</t>
+  </si>
+  <si>
+    <t>nu_spx</t>
+  </si>
+  <si>
+    <t>nu_snd</t>
+  </si>
+  <si>
+    <t>nu_snm</t>
+  </si>
+  <si>
+    <t>nu_snx</t>
+  </si>
+  <si>
+    <t>nu_sp</t>
+  </si>
+  <si>
+    <t>nu_sn</t>
+  </si>
+  <si>
+    <t>nu_spd+nu_spm+nu_spx</t>
+  </si>
+  <si>
+    <t>nu_snd+nu_snm+nu_snx</t>
+  </si>
+  <si>
+    <t>New SP DS Cases</t>
+  </si>
+  <si>
+    <t>New SP MDR Cases</t>
+  </si>
+  <si>
+    <t>New SP XDR Cases</t>
+  </si>
+  <si>
+    <t>New SN DS Cases</t>
+  </si>
+  <si>
+    <t>New SN MDR Cases</t>
+  </si>
+  <si>
+    <t>New SN XDR Cases</t>
+  </si>
+  <si>
+    <t>New Smear-Positive Cases</t>
+  </si>
+  <si>
+    <t>New Smear-Negative Cases</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2239,21 +2163,8 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2277,24 +2188,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2312,7 +2205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -2577,34 +2470,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="dashed">
-        <color theme="0"/>
-      </left>
-      <right style="dashed">
-        <color theme="0"/>
-      </right>
-      <top style="dashed">
-        <color theme="0"/>
-      </top>
-      <bottom style="dashed">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color theme="0"/>
-      </left>
-      <right style="dashed">
-        <color theme="0"/>
-      </right>
-      <top style="dashed">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2720,7 +2585,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2822,18 +2687,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2843,37 +2696,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2891,9 +2726,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3036,13 +2868,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>325120</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>155316</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>156633</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3360,10 +3192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3374,114 +3206,90 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>399</v>
+        <v>563</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>400</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>562</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>83</v>
+        <v>466</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>571</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>555</v>
+        <v>446</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>556</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>535</v>
+        <v>480</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>402</v>
+        <v>479</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>569</v>
+        <v>445</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>568</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>534</v>
+        <v>481</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>401</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>570</v>
+        <v>463</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>341</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -3518,10 +3326,10 @@
         <v>10</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>55</v>
@@ -3538,7 +3346,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -3549,95 +3357,95 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="B6" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="B7" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="B8" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="B9" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="B11" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>47</v>
@@ -3645,10 +3453,10 @@
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="B12" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>33</v>
@@ -3659,10 +3467,10 @@
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>29</v>
@@ -3670,10 +3478,10 @@
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>35</v>
@@ -3681,10 +3489,10 @@
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>30</v>
@@ -3692,10 +3500,10 @@
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
@@ -3703,7 +3511,7 @@
     </row>
     <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -3714,10 +3522,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
@@ -3725,7 +3533,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -3736,7 +3544,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -3747,10 +3555,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>14</v>
@@ -3758,10 +3566,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="B22" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>34</v>
@@ -3772,7 +3580,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -3783,7 +3591,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -3794,10 +3602,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>16</v>
@@ -3805,7 +3613,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -3816,7 +3624,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
@@ -3827,10 +3635,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>18</v>
@@ -3838,7 +3646,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
@@ -3849,7 +3657,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s">
         <v>24</v>
@@ -3860,10 +3668,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>32</v>
@@ -3871,10 +3679,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>58</v>
@@ -3910,10 +3718,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="B35" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>47</v>
@@ -3975,7 +3783,7 @@
     <row r="1" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -3984,91 +3792,91 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="AG1" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AH1" s="4" t="s">
         <v>41</v>
@@ -4079,11 +3887,11 @@
     </row>
     <row r="2" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="7" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -4127,10 +3935,10 @@
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>436</v>
+        <v>348</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>437</v>
+        <v>349</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -4180,7 +3988,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="17" t="s">
-        <v>448</v>
+        <v>360</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="10"/>
@@ -4210,24 +4018,24 @@
     </row>
     <row r="5" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
       <c r="F5" s="27" t="s">
-        <v>439</v>
+        <v>351</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="27" t="s">
-        <v>438</v>
+        <v>350</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
       <c r="K5" s="27"/>
       <c r="L5" s="28" t="s">
-        <v>451</v>
+        <v>363</v>
       </c>
       <c r="M5" s="26"/>
       <c r="N5" s="27"/>
@@ -4257,7 +4065,7 @@
     </row>
     <row r="6" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
@@ -4265,16 +4073,16 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
-        <v>440</v>
+        <v>352</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10" t="s">
-        <v>441</v>
+        <v>353</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="17" t="s">
-        <v>452</v>
+        <v>364</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="10"/>
@@ -4304,21 +4112,21 @@
     </row>
     <row r="7" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="B7" s="31"/>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
       <c r="F7" s="32" t="s">
-        <v>442</v>
+        <v>354</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
       <c r="K7" s="32" t="s">
-        <v>443</v>
+        <v>355</v>
       </c>
       <c r="L7" s="33"/>
       <c r="M7" s="31"/>
@@ -4349,7 +4157,7 @@
     </row>
     <row r="8" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="27"/>
@@ -4359,12 +4167,12 @@
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="J8" s="27"/>
       <c r="K8" s="27"/>
       <c r="L8" s="28" t="s">
-        <v>453</v>
+        <v>365</v>
       </c>
       <c r="M8" s="26"/>
       <c r="N8" s="27"/>
@@ -4394,7 +4202,7 @@
     </row>
     <row r="9" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
@@ -4405,11 +4213,11 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10" t="s">
-        <v>445</v>
+        <v>357</v>
       </c>
       <c r="K9" s="10"/>
       <c r="L9" s="17" t="s">
-        <v>454</v>
+        <v>366</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="10"/>
@@ -4439,7 +4247,7 @@
     </row>
     <row r="10" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="30" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="32"/>
@@ -4449,11 +4257,11 @@
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
       <c r="I10" s="32" t="s">
-        <v>446</v>
+        <v>358</v>
       </c>
       <c r="J10" s="32"/>
       <c r="K10" s="32" t="s">
-        <v>447</v>
+        <v>359</v>
       </c>
       <c r="L10" s="33"/>
       <c r="M10" s="31"/>
@@ -4484,7 +4292,7 @@
     </row>
     <row r="11" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
@@ -4497,7 +4305,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="17" t="s">
-        <v>449</v>
+        <v>361</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="10"/>
@@ -4527,7 +4335,7 @@
     </row>
     <row r="12" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="20"/>
@@ -4541,7 +4349,7 @@
       <c r="K12" s="20"/>
       <c r="L12" s="21"/>
       <c r="M12" s="19" t="s">
-        <v>455</v>
+        <v>367</v>
       </c>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
@@ -4553,7 +4361,7 @@
       <c r="U12" s="20"/>
       <c r="V12" s="22"/>
       <c r="W12" s="19" t="s">
-        <v>456</v>
+        <v>368</v>
       </c>
       <c r="X12" s="20"/>
       <c r="Y12" s="20"/>
@@ -4570,7 +4378,7 @@
     </row>
     <row r="13" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
@@ -4585,17 +4393,17 @@
       <c r="L13" s="16"/>
       <c r="M13" s="6"/>
       <c r="N13" s="7" t="s">
-        <v>457</v>
+        <v>369</v>
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7" t="s">
-        <v>458</v>
+        <v>370</v>
       </c>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7" t="s">
-        <v>459</v>
+        <v>371</v>
       </c>
       <c r="U13" s="7"/>
       <c r="V13" s="8"/>
@@ -4615,7 +4423,7 @@
     </row>
     <row r="14" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
@@ -4631,7 +4439,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10" t="s">
-        <v>463</v>
+        <v>375</v>
       </c>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
@@ -4651,10 +4459,10 @@
       <c r="AE14" s="10"/>
       <c r="AF14" s="11"/>
       <c r="AG14" s="9" t="s">
-        <v>488</v>
+        <v>400</v>
       </c>
       <c r="AH14" s="2" t="s">
-        <v>501</v>
+        <v>413</v>
       </c>
       <c r="AI14" s="11" t="s">
         <v>45</v>
@@ -4662,7 +4470,7 @@
     </row>
     <row r="15" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
@@ -4679,7 +4487,7 @@
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10" t="s">
-        <v>465</v>
+        <v>377</v>
       </c>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
@@ -4698,10 +4506,10 @@
       <c r="AE15" s="10"/>
       <c r="AF15" s="11"/>
       <c r="AG15" s="9" t="s">
-        <v>488</v>
+        <v>400</v>
       </c>
       <c r="AH15" s="2" t="s">
-        <v>501</v>
+        <v>413</v>
       </c>
       <c r="AI15" s="11" t="s">
         <v>45</v>
@@ -4709,7 +4517,7 @@
     </row>
     <row r="16" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
@@ -4725,12 +4533,12 @@
       <c r="M16" s="9"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10" t="s">
-        <v>464</v>
+        <v>376</v>
       </c>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="10" t="s">
-        <v>472</v>
+        <v>384</v>
       </c>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
@@ -4747,10 +4555,10 @@
       <c r="AE16" s="10"/>
       <c r="AF16" s="11"/>
       <c r="AG16" s="9" t="s">
-        <v>474</v>
+        <v>386</v>
       </c>
       <c r="AH16" s="10" t="s">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="AI16" s="11" t="s">
         <v>45</v>
@@ -4758,7 +4566,7 @@
     </row>
     <row r="17" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
@@ -4777,7 +4585,7 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="10" t="s">
-        <v>466</v>
+        <v>378</v>
       </c>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
@@ -4794,10 +4602,10 @@
       <c r="AE17" s="10"/>
       <c r="AF17" s="11"/>
       <c r="AG17" s="9" t="s">
-        <v>489</v>
+        <v>401</v>
       </c>
       <c r="AH17" s="2" t="s">
-        <v>503</v>
+        <v>415</v>
       </c>
       <c r="AI17" s="11" t="s">
         <v>45</v>
@@ -4805,7 +4613,7 @@
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
@@ -4825,7 +4633,7 @@
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10" t="s">
-        <v>467</v>
+        <v>379</v>
       </c>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
@@ -4841,10 +4649,10 @@
       <c r="AE18" s="10"/>
       <c r="AF18" s="11"/>
       <c r="AG18" s="9" t="s">
-        <v>489</v>
+        <v>401</v>
       </c>
       <c r="AH18" s="2" t="s">
-        <v>503</v>
+        <v>415</v>
       </c>
       <c r="AI18" s="11" t="s">
         <v>45</v>
@@ -4852,7 +4660,7 @@
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
@@ -4871,12 +4679,12 @@
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10" t="s">
-        <v>468</v>
+        <v>380</v>
       </c>
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
       <c r="U19" s="10" t="s">
-        <v>473</v>
+        <v>385</v>
       </c>
       <c r="V19" s="11"/>
       <c r="W19" s="9"/>
@@ -4890,10 +4698,10 @@
       <c r="AE19" s="10"/>
       <c r="AF19" s="11"/>
       <c r="AG19" s="9" t="s">
-        <v>475</v>
+        <v>387</v>
       </c>
       <c r="AH19" s="10" t="s">
-        <v>502</v>
+        <v>414</v>
       </c>
       <c r="AI19" s="11" t="s">
         <v>45</v>
@@ -4901,7 +4709,7 @@
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
@@ -4923,7 +4731,7 @@
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10" t="s">
-        <v>469</v>
+        <v>381</v>
       </c>
       <c r="V20" s="10"/>
       <c r="W20" s="9"/>
@@ -4937,10 +4745,10 @@
       <c r="AE20" s="10"/>
       <c r="AF20" s="11"/>
       <c r="AG20" s="9" t="s">
-        <v>490</v>
+        <v>402</v>
       </c>
       <c r="AH20" s="2" t="s">
-        <v>504</v>
+        <v>416</v>
       </c>
       <c r="AI20" s="11" t="s">
         <v>45</v>
@@ -4948,7 +4756,7 @@
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
@@ -4971,7 +4779,7 @@
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10" t="s">
-        <v>471</v>
+        <v>383</v>
       </c>
       <c r="W21" s="9"/>
       <c r="X21" s="10"/>
@@ -4984,10 +4792,10 @@
       <c r="AE21" s="10"/>
       <c r="AF21" s="11"/>
       <c r="AG21" s="9" t="s">
-        <v>490</v>
+        <v>402</v>
       </c>
       <c r="AH21" s="2" t="s">
-        <v>504</v>
+        <v>416</v>
       </c>
       <c r="AI21" s="11" t="s">
         <v>45</v>
@@ -4995,7 +4803,7 @@
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
@@ -5017,7 +4825,7 @@
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
       <c r="U22" s="10" t="s">
-        <v>470</v>
+        <v>382</v>
       </c>
       <c r="V22" s="10"/>
       <c r="W22" s="12"/>
@@ -5031,10 +4839,10 @@
       <c r="AE22" s="13"/>
       <c r="AF22" s="14"/>
       <c r="AG22" s="12" t="s">
-        <v>476</v>
+        <v>388</v>
       </c>
       <c r="AH22" s="13" t="s">
-        <v>505</v>
+        <v>417</v>
       </c>
       <c r="AI22" s="14" t="s">
         <v>45</v>
@@ -5042,7 +4850,7 @@
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
@@ -5067,17 +4875,17 @@
       <c r="V23" s="8"/>
       <c r="W23" s="6"/>
       <c r="X23" s="7" t="s">
-        <v>460</v>
+        <v>372</v>
       </c>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7" t="s">
-        <v>461</v>
+        <v>373</v>
       </c>
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
       <c r="AD23" s="7" t="s">
-        <v>462</v>
+        <v>374</v>
       </c>
       <c r="AE23" s="7"/>
       <c r="AF23" s="8"/>
@@ -5087,7 +4895,7 @@
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
@@ -5113,7 +4921,7 @@
       <c r="W24" s="9"/>
       <c r="X24" s="10"/>
       <c r="Y24" s="10" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
@@ -5123,10 +4931,10 @@
       <c r="AE24" s="10"/>
       <c r="AF24" s="11"/>
       <c r="AG24" s="9" t="s">
-        <v>491</v>
+        <v>403</v>
       </c>
       <c r="AH24" s="2" t="s">
-        <v>506</v>
+        <v>418</v>
       </c>
       <c r="AI24" s="11" t="s">
         <v>45</v>
@@ -5134,7 +4942,7 @@
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
@@ -5161,7 +4969,7 @@
       <c r="X25" s="10"/>
       <c r="Y25" s="10"/>
       <c r="Z25" s="10" t="s">
-        <v>479</v>
+        <v>391</v>
       </c>
       <c r="AA25" s="10"/>
       <c r="AB25" s="10"/>
@@ -5170,10 +4978,10 @@
       <c r="AE25" s="10"/>
       <c r="AF25" s="11"/>
       <c r="AG25" s="9" t="s">
-        <v>491</v>
+        <v>403</v>
       </c>
       <c r="AH25" s="2" t="s">
-        <v>506</v>
+        <v>418</v>
       </c>
       <c r="AI25" s="11" t="s">
         <v>45</v>
@@ -5181,7 +4989,7 @@
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
@@ -5207,22 +5015,22 @@
       <c r="W26" s="9"/>
       <c r="X26" s="10"/>
       <c r="Y26" s="10" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="Z26" s="10"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="10" t="s">
-        <v>480</v>
+        <v>392</v>
       </c>
       <c r="AC26" s="10"/>
       <c r="AD26" s="10"/>
       <c r="AE26" s="10"/>
       <c r="AF26" s="11"/>
       <c r="AG26" s="9" t="s">
-        <v>492</v>
+        <v>404</v>
       </c>
       <c r="AH26" s="10" t="s">
-        <v>507</v>
+        <v>419</v>
       </c>
       <c r="AI26" s="11" t="s">
         <v>45</v>
@@ -5230,7 +5038,7 @@
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
@@ -5259,17 +5067,17 @@
       <c r="Z27" s="10"/>
       <c r="AA27" s="10"/>
       <c r="AB27" s="10" t="s">
-        <v>481</v>
+        <v>393</v>
       </c>
       <c r="AC27" s="10"/>
       <c r="AD27" s="10"/>
       <c r="AE27" s="10"/>
       <c r="AF27" s="11"/>
       <c r="AG27" s="9" t="s">
-        <v>493</v>
+        <v>405</v>
       </c>
       <c r="AH27" s="2" t="s">
-        <v>508</v>
+        <v>420</v>
       </c>
       <c r="AI27" s="11" t="s">
         <v>45</v>
@@ -5277,7 +5085,7 @@
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
@@ -5307,16 +5115,16 @@
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
       <c r="AC28" s="10" t="s">
-        <v>483</v>
+        <v>395</v>
       </c>
       <c r="AD28" s="10"/>
       <c r="AE28" s="10"/>
       <c r="AF28" s="11"/>
       <c r="AG28" s="9" t="s">
-        <v>493</v>
+        <v>405</v>
       </c>
       <c r="AH28" s="2" t="s">
-        <v>508</v>
+        <v>420</v>
       </c>
       <c r="AI28" s="11" t="s">
         <v>45</v>
@@ -5324,7 +5132,7 @@
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
@@ -5353,19 +5161,19 @@
       <c r="Z29" s="10"/>
       <c r="AA29" s="10"/>
       <c r="AB29" s="10" t="s">
-        <v>482</v>
+        <v>394</v>
       </c>
       <c r="AC29" s="10"/>
       <c r="AD29" s="10"/>
       <c r="AE29" s="10" t="s">
-        <v>484</v>
+        <v>396</v>
       </c>
       <c r="AF29" s="11"/>
       <c r="AG29" s="9" t="s">
-        <v>494</v>
+        <v>406</v>
       </c>
       <c r="AH29" s="10" t="s">
-        <v>509</v>
+        <v>421</v>
       </c>
       <c r="AI29" s="11" t="s">
         <v>45</v>
@@ -5373,7 +5181,7 @@
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="10"/>
@@ -5405,14 +5213,14 @@
       <c r="AC30" s="10"/>
       <c r="AD30" s="10"/>
       <c r="AE30" s="10" t="s">
-        <v>485</v>
+        <v>397</v>
       </c>
       <c r="AF30" s="10"/>
       <c r="AG30" s="9" t="s">
-        <v>495</v>
+        <v>407</v>
       </c>
       <c r="AH30" s="2" t="s">
-        <v>510</v>
+        <v>422</v>
       </c>
       <c r="AI30" s="11" t="s">
         <v>45</v>
@@ -5420,7 +5228,7 @@
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="10"/>
@@ -5453,13 +5261,13 @@
       <c r="AD31" s="10"/>
       <c r="AE31" s="10"/>
       <c r="AF31" s="10" t="s">
-        <v>487</v>
+        <v>399</v>
       </c>
       <c r="AG31" s="9" t="s">
-        <v>495</v>
+        <v>407</v>
       </c>
       <c r="AH31" s="2" t="s">
-        <v>510</v>
+        <v>422</v>
       </c>
       <c r="AI31" s="11" t="s">
         <v>45</v>
@@ -5467,7 +5275,7 @@
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="10"/>
@@ -5499,14 +5307,14 @@
       <c r="AC32" s="13"/>
       <c r="AD32" s="13"/>
       <c r="AE32" s="13" t="s">
-        <v>486</v>
+        <v>398</v>
       </c>
       <c r="AF32" s="14"/>
       <c r="AG32" s="12" t="s">
-        <v>496</v>
+        <v>408</v>
       </c>
       <c r="AH32" s="13" t="s">
-        <v>511</v>
+        <v>423</v>
       </c>
       <c r="AI32" s="14" t="s">
         <v>45</v>
@@ -5514,7 +5322,7 @@
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
@@ -5527,7 +5335,7 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="16" t="s">
-        <v>450</v>
+        <v>362</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10"/>
@@ -5642,10 +5450,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O87"/>
+  <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53:G54"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5654,7 +5462,7 @@
     <col min="2" max="2" width="63.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="63" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="52" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
@@ -5684,19 +5492,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="51" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>56</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>54</v>
@@ -5705,17 +5513,23 @@
         <v>48</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>428</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>572</v>
+        <v>482</v>
       </c>
       <c r="B2" t="s">
-        <v>587</v>
-      </c>
-      <c r="E2" s="63">
+        <v>497</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="52">
         <v>50</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -5725,187 +5539,241 @@
         <v>3</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="B4" t="s">
-        <v>592</v>
-      </c>
-      <c r="E4" s="63">
+        <v>502</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
+      <c r="E4" s="52">
         <v>100</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>575</v>
+        <v>485</v>
       </c>
       <c r="B5" t="s">
-        <v>588</v>
+        <v>498</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>576</v>
+        <v>486</v>
       </c>
       <c r="B6" t="s">
-        <v>589</v>
-      </c>
-      <c r="E6" s="63">
+        <v>499</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D6" s="2">
+        <v>9</v>
+      </c>
+      <c r="E6" s="52">
         <v>100</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="I6" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>586</v>
+        <v>496</v>
       </c>
       <c r="B7" t="s">
-        <v>590</v>
-      </c>
-      <c r="E7" s="63">
+        <v>500</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7</v>
+      </c>
+      <c r="E7" s="52">
         <v>200</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="I7" t="s">
-        <v>575</v>
+        <v>485</v>
       </c>
       <c r="J7" t="s">
-        <v>576</v>
+        <v>486</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>581</v>
+        <v>491</v>
       </c>
       <c r="B8" t="s">
-        <v>582</v>
+        <v>492</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="J8" t="s">
-        <v>575</v>
+        <v>485</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>580</v>
+        <v>490</v>
       </c>
       <c r="B9" t="s">
-        <v>583</v>
-      </c>
-      <c r="E9" s="63">
+        <v>493</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6</v>
+      </c>
+      <c r="E9" s="52">
         <v>200</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="I9" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="J9" t="s">
-        <v>576</v>
+        <v>486</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>584</v>
+        <v>494</v>
       </c>
       <c r="B10" t="s">
-        <v>585</v>
-      </c>
-      <c r="E10" s="63">
+        <v>495</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="52">
         <v>500</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="I10" t="s">
-        <v>581</v>
+        <v>491</v>
       </c>
       <c r="J10" t="s">
-        <v>580</v>
+        <v>490</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>573</v>
+        <v>483</v>
       </c>
       <c r="B11" t="s">
-        <v>577</v>
+        <v>487</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="J11" t="s">
-        <v>581</v>
+        <v>491</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>574</v>
+        <v>484</v>
       </c>
       <c r="B12" t="s">
-        <v>578</v>
-      </c>
-      <c r="E12" s="63">
+        <v>488</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
+      <c r="E12" s="52">
         <v>400</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="I12" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="J12" t="s">
-        <v>580</v>
+        <v>490</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -5913,496 +5781,628 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>579</v>
-      </c>
-      <c r="E13" s="63">
+        <v>489</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="52">
         <v>1000</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="I13" t="s">
-        <v>573</v>
+        <v>483</v>
       </c>
       <c r="J13" t="s">
-        <v>574</v>
+        <v>484</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>593</v>
+        <v>503</v>
       </c>
       <c r="B15" t="s">
-        <v>594</v>
-      </c>
-      <c r="E15" s="63">
+        <v>504</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D15" s="2">
+        <v>22</v>
+      </c>
+      <c r="E15" s="52">
         <v>30</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>622</v>
+        <v>532</v>
       </c>
       <c r="B16" t="s">
-        <v>628</v>
-      </c>
-      <c r="E16" s="63">
+        <v>538</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D16" s="2">
+        <v>9</v>
+      </c>
+      <c r="E16" s="52">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="I16" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>623</v>
+        <v>533</v>
       </c>
       <c r="B17" t="s">
-        <v>629</v>
-      </c>
-      <c r="E17" s="63">
+        <v>539</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D17" s="2">
+        <v>10</v>
+      </c>
+      <c r="E17" s="52">
         <v>20</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="I17" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>624</v>
+        <v>534</v>
       </c>
       <c r="B18" t="s">
-        <v>630</v>
-      </c>
-      <c r="E18" s="63">
+        <v>540</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D18" s="2">
+        <v>11</v>
+      </c>
+      <c r="E18" s="52">
         <v>30</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="I18" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>625</v>
+        <v>535</v>
       </c>
       <c r="B19" t="s">
-        <v>631</v>
-      </c>
-      <c r="E19" s="63">
+        <v>541</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D19" s="2">
+        <v>19</v>
+      </c>
+      <c r="E19" s="52">
         <v>40</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="I19" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>627</v>
+        <v>537</v>
       </c>
       <c r="B20" t="s">
-        <v>632</v>
-      </c>
-      <c r="E20" s="63">
+        <v>542</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D20" s="2">
+        <v>20</v>
+      </c>
+      <c r="E20" s="52">
         <v>50</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="I20" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>626</v>
+        <v>536</v>
       </c>
       <c r="B21" t="s">
-        <v>633</v>
-      </c>
-      <c r="E21" s="63">
+        <v>543</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D21" s="2">
+        <v>21</v>
+      </c>
+      <c r="E21" s="52">
         <v>60</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="I21" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>610</v>
+        <v>520</v>
       </c>
       <c r="B22" t="s">
-        <v>616</v>
-      </c>
-      <c r="E22" s="63">
+        <v>526</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D22" s="2">
+        <v>6</v>
+      </c>
+      <c r="E22" s="52">
         <v>120</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="I22" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="J22" t="s">
-        <v>622</v>
+        <v>532</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>611</v>
+        <v>521</v>
       </c>
       <c r="B23" t="s">
-        <v>617</v>
-      </c>
-      <c r="E23" s="63">
+        <v>527</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D23" s="2">
+        <v>7</v>
+      </c>
+      <c r="E23" s="52">
         <v>110</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="I23" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="J23" t="s">
-        <v>623</v>
+        <v>533</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>612</v>
+        <v>522</v>
       </c>
       <c r="B24" t="s">
-        <v>618</v>
-      </c>
-      <c r="E24" s="63">
+        <v>528</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D24" s="2">
+        <v>8</v>
+      </c>
+      <c r="E24" s="52">
         <v>100</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="I24" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="J24" t="s">
-        <v>624</v>
+        <v>534</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>613</v>
+        <v>523</v>
       </c>
       <c r="B25" t="s">
-        <v>619</v>
-      </c>
-      <c r="E25" s="63">
+        <v>529</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D25" s="2">
+        <v>16</v>
+      </c>
+      <c r="E25" s="52">
         <v>90</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="I25" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="J25" t="s">
-        <v>625</v>
+        <v>535</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>614</v>
+        <v>524</v>
       </c>
       <c r="B26" t="s">
-        <v>620</v>
-      </c>
-      <c r="E26" s="63">
+        <v>530</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D26" s="2">
+        <v>17</v>
+      </c>
+      <c r="E26" s="52">
         <v>80</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="I26" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="J26" t="s">
-        <v>627</v>
+        <v>537</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>615</v>
+        <v>525</v>
       </c>
       <c r="B27" t="s">
-        <v>621</v>
-      </c>
-      <c r="E27" s="63">
+        <v>531</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D27" s="2">
+        <v>18</v>
+      </c>
+      <c r="E27" s="52">
         <v>70</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="I27" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="J27" t="s">
-        <v>626</v>
+        <v>536</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>598</v>
+        <v>508</v>
       </c>
       <c r="B28" t="s">
-        <v>599</v>
-      </c>
-      <c r="E28" s="63">
+        <v>509</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3</v>
+      </c>
+      <c r="E28" s="52">
         <v>130</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="I28" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="J28" t="s">
-        <v>610</v>
+        <v>520</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>600</v>
+        <v>510</v>
       </c>
       <c r="B29" t="s">
-        <v>601</v>
-      </c>
-      <c r="E29" s="63">
+        <v>511</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D29" s="2">
+        <v>4</v>
+      </c>
+      <c r="E29" s="52">
         <v>140</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="I29" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="J29" t="s">
-        <v>611</v>
+        <v>521</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>602</v>
+        <v>512</v>
       </c>
       <c r="B30" t="s">
-        <v>603</v>
-      </c>
-      <c r="E30" s="63">
+        <v>513</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D30" s="2">
+        <v>5</v>
+      </c>
+      <c r="E30" s="52">
         <v>150</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="I30" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="J30" t="s">
-        <v>612</v>
+        <v>522</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>604</v>
+        <v>514</v>
       </c>
       <c r="B31" t="s">
-        <v>607</v>
-      </c>
-      <c r="E31" s="63">
+        <v>517</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D31" s="2">
+        <v>13</v>
+      </c>
+      <c r="E31" s="52">
         <v>160</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="I31" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="J31" t="s">
-        <v>613</v>
+        <v>523</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>605</v>
+        <v>515</v>
       </c>
       <c r="B32" t="s">
-        <v>608</v>
-      </c>
-      <c r="E32" s="63">
+        <v>518</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D32" s="2">
+        <v>14</v>
+      </c>
+      <c r="E32" s="52">
         <v>170</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="I32" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="J32" t="s">
-        <v>614</v>
+        <v>524</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>606</v>
+        <v>516</v>
       </c>
       <c r="B33" t="s">
-        <v>609</v>
-      </c>
-      <c r="E33" s="63">
+        <v>519</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D33" s="2">
+        <v>15</v>
+      </c>
+      <c r="E33" s="52">
         <v>180</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="I33" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="J33" t="s">
-        <v>615</v>
+        <v>525</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>597</v>
-      </c>
-      <c r="E34" s="63">
+        <v>507</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2</v>
+      </c>
+      <c r="E34" s="52">
         <v>500</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="I34" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="J34" t="s">
-        <v>598</v>
+        <v>508</v>
       </c>
       <c r="K34" t="s">
-        <v>600</v>
+        <v>510</v>
       </c>
       <c r="L34" t="s">
-        <v>602</v>
+        <v>512</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="B35" t="s">
-        <v>596</v>
-      </c>
-      <c r="E35" s="63">
+        <v>506</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D35" s="2">
+        <v>12</v>
+      </c>
+      <c r="E35" s="52">
         <v>600</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="I35" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="J35" t="s">
-        <v>604</v>
+        <v>514</v>
       </c>
       <c r="K35" t="s">
-        <v>605</v>
+        <v>515</v>
       </c>
       <c r="L35" t="s">
-        <v>606</v>
+        <v>516</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -6410,25 +6410,31 @@
         <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>595</v>
-      </c>
-      <c r="E36" s="63">
+        <v>505</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="52">
         <v>1200</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="I36" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="J36" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="K36" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -6436,9 +6442,15 @@
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" s="63">
+        <v>545</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="52">
         <v>3000</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -6448,13 +6460,13 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>572</v>
+        <v>482</v>
       </c>
       <c r="K38" t="s">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="L38" t="s">
-        <v>593</v>
+        <v>503</v>
       </c>
       <c r="M38" t="s">
         <v>49</v>
@@ -6463,117 +6475,138 @@
         <v>50</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>546</v>
+      </c>
+      <c r="D40" s="2">
+        <v>-1</v>
       </c>
       <c r="I40" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="J40" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>547</v>
+      </c>
+      <c r="D41" s="2">
+        <v>-1</v>
       </c>
       <c r="I41" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="J41" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>548</v>
+      </c>
+      <c r="D42" s="2">
+        <v>-1</v>
       </c>
       <c r="I42" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="J42" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>549</v>
+      </c>
+      <c r="D43" s="2">
+        <v>-1</v>
       </c>
       <c r="I43" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="J43" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>550</v>
+      </c>
+      <c r="D44" s="2">
+        <v>-1</v>
       </c>
       <c r="I44" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="J44" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>551</v>
+      </c>
+      <c r="D45" s="2">
+        <v>-1</v>
       </c>
       <c r="I45" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="J45" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>552</v>
+      </c>
+      <c r="D46" s="2">
+        <v>-1</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>47</v>
@@ -6582,18 +6615,21 @@
         <v>51</v>
       </c>
       <c r="I46" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>553</v>
+      </c>
+      <c r="D47" s="2">
+        <v>-1</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>47</v>
@@ -6602,18 +6638,21 @@
         <v>51</v>
       </c>
       <c r="I47" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>554</v>
+      </c>
+      <c r="D48" s="2">
+        <v>-1</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>47</v>
@@ -6622,18 +6661,21 @@
         <v>51</v>
       </c>
       <c r="I48" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>555</v>
+      </c>
+      <c r="D49" s="2">
+        <v>-1</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>47</v>
@@ -6642,18 +6684,21 @@
         <v>51</v>
       </c>
       <c r="I49" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>556</v>
+      </c>
+      <c r="D50" s="2">
+        <v>-1</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>47</v>
@@ -6662,19 +6707,22 @@
         <v>51</v>
       </c>
       <c r="I50" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="N50" s="15"/>
       <c r="O50" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>557</v>
+      </c>
+      <c r="D51" s="2">
+        <v>-1</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>47</v>
@@ -6683,10 +6731,10 @@
         <v>51</v>
       </c>
       <c r="I51" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
@@ -6694,7 +6742,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>569</v>
+      </c>
+      <c r="D53" s="2">
+        <v>-1</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>47</v>
@@ -6705,13 +6756,19 @@
       <c r="I53" t="s">
         <v>49</v>
       </c>
+      <c r="O53" s="2" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>149</v>
+        <v>570</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>571</v>
+      </c>
+      <c r="D54" s="2">
+        <v>-1</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>47</v>
@@ -6720,18 +6777,21 @@
         <v>51</v>
       </c>
       <c r="I54" t="s">
-        <v>145</v>
+        <v>508</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>178</v>
+        <v>572</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>574</v>
+      </c>
+      <c r="D55" s="2">
+        <v>-1</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>47</v>
@@ -6740,18 +6800,21 @@
         <v>51</v>
       </c>
       <c r="I55" t="s">
-        <v>174</v>
+        <v>510</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>573</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>575</v>
+      </c>
+      <c r="D56" s="2">
+        <v>-1</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>47</v>
@@ -6760,610 +6823,487 @@
         <v>51</v>
       </c>
       <c r="I56" t="s">
-        <v>50</v>
+        <v>512</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>576</v>
+      </c>
+      <c r="B57" t="s">
+        <v>579</v>
+      </c>
+      <c r="D57" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H57" t="s">
+        <v>51</v>
+      </c>
+      <c r="I57" t="s">
+        <v>514</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>324</v>
+        <v>577</v>
       </c>
       <c r="B58" t="s">
-        <v>337</v>
+        <v>580</v>
+      </c>
+      <c r="D58" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H58" t="s">
+        <v>51</v>
       </c>
       <c r="I58" t="s">
-        <v>205</v>
-      </c>
-      <c r="J58" t="s">
-        <v>208</v>
+        <v>515</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>329</v>
+        <v>578</v>
       </c>
       <c r="B59" t="s">
-        <v>336</v>
+        <v>581</v>
+      </c>
+      <c r="D59" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H59" t="s">
+        <v>51</v>
       </c>
       <c r="I59" t="s">
-        <v>126</v>
-      </c>
-      <c r="J59" t="s">
-        <v>129</v>
-      </c>
-      <c r="K59" t="s">
-        <v>132</v>
+        <v>516</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>328</v>
+        <v>129</v>
       </c>
       <c r="B60" t="s">
-        <v>335</v>
+        <v>568</v>
+      </c>
+      <c r="D60" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H60" t="s">
+        <v>51</v>
       </c>
       <c r="I60" t="s">
-        <v>135</v>
-      </c>
-      <c r="J60" t="s">
-        <v>138</v>
-      </c>
-      <c r="K60" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>325</v>
+        <v>158</v>
       </c>
       <c r="B61" t="s">
-        <v>339</v>
+        <v>567</v>
+      </c>
+      <c r="D61" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H61" t="s">
+        <v>51</v>
       </c>
       <c r="I61" t="s">
-        <v>328</v>
-      </c>
-      <c r="J61" t="s">
-        <v>329</v>
+        <v>154</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>327</v>
+        <v>53</v>
       </c>
       <c r="B62" t="s">
-        <v>338</v>
+        <v>566</v>
+      </c>
+      <c r="D62" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H62" t="s">
+        <v>51</v>
       </c>
       <c r="I62" t="s">
-        <v>324</v>
-      </c>
-      <c r="J62" t="s">
-        <v>325</v>
+        <v>50</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>332</v>
-      </c>
-      <c r="B63" t="s">
-        <v>333</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H63" t="s">
-        <v>51</v>
-      </c>
-      <c r="I63" t="s">
-        <v>324</v>
-      </c>
-      <c r="O63" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B64" t="s">
-        <v>334</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H64" t="s">
-        <v>51</v>
+        <v>582</v>
+      </c>
+      <c r="D64" s="2">
+        <v>-1</v>
       </c>
       <c r="I64" t="s">
-        <v>325</v>
+        <v>41</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>331</v>
-      </c>
-      <c r="B65" t="s">
-        <v>326</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H65" t="s">
-        <v>51</v>
-      </c>
-      <c r="I65" t="s">
-        <v>327</v>
-      </c>
-      <c r="O65" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>362</v>
+        <v>584</v>
       </c>
       <c r="B66" t="s">
-        <v>361</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>274</v>
+        <v>583</v>
+      </c>
+      <c r="D66" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H66" t="s">
+        <v>49</v>
       </c>
       <c r="I66" t="s">
-        <v>41</v>
+        <v>494</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>372</v>
+        <v>587</v>
       </c>
       <c r="B67" t="s">
-        <v>433</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>274</v>
+        <v>588</v>
+      </c>
+      <c r="D67" s="2">
+        <v>-1</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>41</v>
+        <v>508</v>
       </c>
       <c r="I67" t="s">
-        <v>171</v>
+        <v>520</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>373</v>
+        <v>591</v>
       </c>
       <c r="B68" t="s">
-        <v>434</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>274</v>
+        <v>595</v>
+      </c>
+      <c r="D68" s="2">
+        <v>-1</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>41</v>
+        <v>510</v>
       </c>
       <c r="I68" t="s">
-        <v>172</v>
+        <v>521</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>374</v>
+        <v>593</v>
       </c>
       <c r="B69" t="s">
-        <v>435</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>274</v>
+        <v>597</v>
+      </c>
+      <c r="D69" s="2">
+        <v>-1</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>41</v>
+        <v>512</v>
       </c>
       <c r="I69" t="s">
-        <v>173</v>
+        <v>522</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>369</v>
+        <v>599</v>
       </c>
       <c r="B70" t="s">
-        <v>430</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>274</v>
+        <v>605</v>
+      </c>
+      <c r="D70" s="2">
+        <v>-1</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>41</v>
+        <v>514</v>
       </c>
       <c r="I70" t="s">
-        <v>142</v>
+        <v>523</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>370</v>
+        <v>601</v>
       </c>
       <c r="B71" t="s">
-        <v>431</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>274</v>
+        <v>607</v>
+      </c>
+      <c r="D71" s="2">
+        <v>-1</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>41</v>
+        <v>515</v>
       </c>
       <c r="I71" t="s">
-        <v>143</v>
+        <v>524</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>371</v>
+        <v>603</v>
       </c>
       <c r="B72" t="s">
-        <v>432</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>274</v>
+        <v>609</v>
+      </c>
+      <c r="D72" s="2">
+        <v>-1</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>41</v>
+        <v>516</v>
       </c>
       <c r="I72" t="s">
-        <v>144</v>
+        <v>525</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>364</v>
+        <v>585</v>
       </c>
       <c r="B73" t="s">
-        <v>366</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>274</v>
+        <v>586</v>
+      </c>
+      <c r="D73" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>41</v>
+        <v>494</v>
       </c>
       <c r="I73" t="s">
-        <v>142</v>
-      </c>
-      <c r="J73" t="s">
-        <v>171</v>
+        <v>496</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>363</v>
+        <v>589</v>
       </c>
       <c r="B74" t="s">
-        <v>367</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>274</v>
+        <v>590</v>
+      </c>
+      <c r="D74" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>41</v>
+        <v>520</v>
       </c>
       <c r="I74" t="s">
-        <v>143</v>
-      </c>
-      <c r="J74" t="s">
-        <v>172</v>
+        <v>532</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>365</v>
+        <v>592</v>
       </c>
       <c r="B75" t="s">
-        <v>368</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>274</v>
+        <v>596</v>
+      </c>
+      <c r="D75" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>41</v>
+        <v>521</v>
       </c>
       <c r="I75" t="s">
-        <v>144</v>
-      </c>
-      <c r="J75" t="s">
-        <v>173</v>
+        <v>533</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>378</v>
+        <v>594</v>
       </c>
       <c r="B76" t="s">
-        <v>375</v>
+        <v>598</v>
+      </c>
+      <c r="D76" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H76" t="s">
+        <v>522</v>
       </c>
       <c r="I76" t="s">
-        <v>205</v>
-      </c>
-      <c r="J76" t="s">
-        <v>208</v>
+        <v>534</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>379</v>
+        <v>600</v>
       </c>
       <c r="B77" t="s">
-        <v>376</v>
+        <v>606</v>
+      </c>
+      <c r="D77" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H77" t="s">
+        <v>523</v>
       </c>
       <c r="I77" t="s">
-        <v>204</v>
-      </c>
-      <c r="J77" t="s">
-        <v>207</v>
+        <v>535</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>380</v>
+        <v>602</v>
       </c>
       <c r="B78" t="s">
-        <v>377</v>
+        <v>608</v>
+      </c>
+      <c r="D78" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H78" t="s">
+        <v>524</v>
       </c>
       <c r="I78" t="s">
-        <v>74</v>
+        <v>537</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>381</v>
+        <v>604</v>
       </c>
       <c r="B79" t="s">
-        <v>390</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>273</v>
+        <v>610</v>
+      </c>
+      <c r="D79" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H79" t="s">
+        <v>525</v>
       </c>
       <c r="I79" t="s">
-        <v>125</v>
+        <v>536</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>382</v>
-      </c>
-      <c r="B80" t="s">
-        <v>391</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="I80" t="s">
-        <v>128</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>383</v>
-      </c>
-      <c r="B81" t="s">
-        <v>392</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="I81" t="s">
-        <v>131</v>
-      </c>
-      <c r="O81" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>384</v>
-      </c>
-      <c r="B82" t="s">
-        <v>393</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="I82" t="s">
-        <v>134</v>
-      </c>
-      <c r="O82" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>385</v>
-      </c>
-      <c r="B83" t="s">
-        <v>394</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="I83" t="s">
-        <v>137</v>
-      </c>
-      <c r="O83" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>386</v>
-      </c>
-      <c r="B84" t="s">
-        <v>395</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="I84" t="s">
-        <v>140</v>
-      </c>
-      <c r="O84" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>387</v>
-      </c>
-      <c r="B85" t="s">
-        <v>396</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="I85" t="s">
-        <v>125</v>
-      </c>
-      <c r="J85" t="s">
-        <v>128</v>
-      </c>
-      <c r="K85" t="s">
-        <v>131</v>
-      </c>
-      <c r="O85" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>388</v>
-      </c>
-      <c r="B86" t="s">
-        <v>397</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="I86" t="s">
-        <v>134</v>
-      </c>
-      <c r="J86" t="s">
-        <v>137</v>
-      </c>
-      <c r="K86" t="s">
-        <v>140</v>
-      </c>
-      <c r="O86" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>389</v>
-      </c>
-      <c r="B87" t="s">
-        <v>398</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="I87" t="s">
-        <v>388</v>
-      </c>
-      <c r="J87" t="s">
-        <v>387</v>
-      </c>
-      <c r="O87" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -7373,11 +7313,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7389,18 +7329,18 @@
     <col min="5" max="5" width="11.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.77734375" style="2" customWidth="1"/>
     <col min="7" max="7" width="10" style="2" customWidth="1"/>
-    <col min="8" max="8" width="118.109375" style="23" customWidth="1"/>
+    <col min="8" max="8" width="128.33203125" style="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="98" customWidth="1"/>
     <col min="15" max="15" width="75.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>1</v>
@@ -7409,22 +7349,22 @@
         <v>19</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>634</v>
+        <v>544</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>424</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
@@ -7432,874 +7372,854 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>436</v>
+        <v>348</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2"/>
       <c r="E2" s="2" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="F2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="I2" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D3" s="48"/>
+        <v>558</v>
+      </c>
       <c r="E3" s="2" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="F3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>421</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D4" s="43">
-        <v>0.74</v>
+        <v>559</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="F4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>310</v>
-      </c>
-      <c r="J4" s="50" t="s">
-        <v>419</v>
+        <v>285</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D5" s="38">
-        <v>0.44</v>
+        <v>560</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="F5" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>296</v>
-      </c>
-      <c r="J5" s="50" t="s">
-        <v>419</v>
+        <v>274</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s">
-        <v>300</v>
-      </c>
-      <c r="D6" s="38">
-        <v>0.56000000000000005</v>
+        <v>561</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="F6" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>297</v>
-      </c>
-      <c r="J6" s="50" t="s">
-        <v>419</v>
+        <v>275</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>439</v>
+        <v>351</v>
       </c>
       <c r="C7" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="F7" s="2">
         <v>-1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="I7" s="23"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>440</v>
+        <v>352</v>
       </c>
       <c r="C8" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="F8" s="2">
         <v>-1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>442</v>
+        <v>354</v>
       </c>
       <c r="C9" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="F9" s="2">
         <v>-1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>443</v>
+        <v>355</v>
       </c>
       <c r="C10" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="F10" s="2">
         <v>-1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="C11" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="F11" s="2">
         <v>-1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>445</v>
+        <v>357</v>
       </c>
       <c r="C12" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="F12" s="2">
         <v>-1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>446</v>
+        <v>358</v>
       </c>
       <c r="C13" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="F13" s="2">
         <v>-1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>447</v>
+        <v>359</v>
       </c>
       <c r="C14" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="F14" s="2">
         <v>-1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
-      <c r="D15"/>
-      <c r="J15" s="50"/>
+      <c r="J15" s="40"/>
     </row>
     <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s">
-        <v>291</v>
-      </c>
-      <c r="D16" s="42">
+        <v>270</v>
+      </c>
+      <c r="D16" s="2">
         <v>1E-3</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>569</v>
+        <v>480</v>
       </c>
       <c r="I16" t="s">
-        <v>311</v>
-      </c>
-      <c r="J16" s="49" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+      <c r="J16" s="39" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s">
-        <v>290</v>
-      </c>
-      <c r="D17" s="59">
+        <v>269</v>
+      </c>
+      <c r="D17" s="2">
         <v>0.09</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>569</v>
+        <v>480</v>
       </c>
       <c r="I17" t="s">
-        <v>312</v>
-      </c>
-      <c r="J17" s="52" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+      <c r="J17" s="42" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s">
-        <v>293</v>
-      </c>
-      <c r="D18" s="42">
+        <v>272</v>
+      </c>
+      <c r="D18" s="2">
         <v>0.115</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>569</v>
+        <v>480</v>
       </c>
       <c r="I18" t="s">
-        <v>359</v>
-      </c>
-      <c r="J18" s="49" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+      <c r="J18" s="39" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>438</v>
+        <v>350</v>
       </c>
       <c r="C19" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="F19" s="2">
         <v>-1</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>441</v>
+        <v>353</v>
       </c>
       <c r="C20" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="F20" s="2">
         <v>-1</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>451</v>
+        <v>363</v>
       </c>
       <c r="C21" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="F21" s="2">
         <v>-1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>452</v>
+        <v>364</v>
       </c>
       <c r="C22" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="F22" s="2">
         <v>-1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>453</v>
+        <v>365</v>
       </c>
       <c r="C23" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="F23" s="2">
         <v>-1</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>454</v>
+        <v>366</v>
       </c>
       <c r="C24" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="F24" s="2">
         <v>-1</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
-      <c r="D25" s="37"/>
-    </row>
-    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s">
-        <v>557</v>
-      </c>
-      <c r="D26" s="36">
+        <v>468</v>
+      </c>
+      <c r="D26" s="2">
         <v>0.5</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>555</v>
+        <v>466</v>
       </c>
       <c r="F26" s="2">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>318</v>
-      </c>
-      <c r="J26" s="40" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+      <c r="J26" s="36" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s">
-        <v>558</v>
-      </c>
-      <c r="D27" s="36">
+        <v>469</v>
+      </c>
+      <c r="D27" s="2">
         <v>0.5</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>555</v>
+        <v>466</v>
       </c>
       <c r="F27" s="2">
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>319</v>
-      </c>
-      <c r="J27" s="50" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="J27" s="40" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s">
-        <v>559</v>
-      </c>
-      <c r="D28" s="44">
+        <v>470</v>
+      </c>
+      <c r="D28" s="2">
         <v>4</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>555</v>
+        <v>466</v>
       </c>
       <c r="F28" s="2">
         <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>320</v>
-      </c>
-      <c r="J28" s="51" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+      <c r="J28" s="41" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s">
-        <v>250</v>
-      </c>
-      <c r="D29" s="37"/>
+        <v>230</v>
+      </c>
       <c r="E29" s="2" t="s">
-        <v>555</v>
+        <v>466</v>
       </c>
       <c r="F29" s="2">
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s">
-        <v>560</v>
-      </c>
-      <c r="D30" s="36">
+        <v>471</v>
+      </c>
+      <c r="D30" s="2">
         <v>0.22</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>555</v>
+        <v>466</v>
       </c>
       <c r="F30" s="2">
         <v>5</v>
       </c>
       <c r="I30" t="s">
-        <v>285</v>
-      </c>
-      <c r="J30" s="40" t="s">
-        <v>415</v>
+        <v>264</v>
+      </c>
+      <c r="J30" s="36" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="53" t="s">
-        <v>322</v>
-      </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="53" t="s">
-        <v>561</v>
-      </c>
-      <c r="D31" s="48">
+      <c r="A31" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="B31" s="44"/>
+      <c r="C31" s="43" t="s">
+        <v>472</v>
+      </c>
+      <c r="D31" s="2">
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="F31" s="54">
+        <v>466</v>
+      </c>
+      <c r="F31" s="44">
         <v>6</v>
       </c>
       <c r="I31" t="s">
-        <v>357</v>
-      </c>
-      <c r="J31" s="55" t="s">
-        <v>425</v>
+        <v>314</v>
+      </c>
+      <c r="J31" s="45" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="B32" s="54"/>
-      <c r="C32" s="53" t="s">
-        <v>562</v>
-      </c>
-      <c r="D32" s="48">
+      <c r="A32" s="43" t="s">
+        <v>298</v>
+      </c>
+      <c r="B32" s="44"/>
+      <c r="C32" s="43" t="s">
+        <v>473</v>
+      </c>
+      <c r="D32" s="2">
         <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="F32" s="54">
+        <v>466</v>
+      </c>
+      <c r="F32" s="44">
         <v>7</v>
       </c>
       <c r="I32" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s">
-        <v>251</v>
-      </c>
-      <c r="D33" s="37"/>
+        <v>231</v>
+      </c>
       <c r="F33" s="2">
         <v>-1</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="H33" t="s">
-        <v>563</v>
+        <v>474</v>
       </c>
       <c r="I33" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s">
-        <v>252</v>
-      </c>
-      <c r="D34" s="37"/>
+        <v>232</v>
+      </c>
       <c r="F34" s="2">
         <v>-1</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="H34" t="s">
-        <v>564</v>
+        <v>475</v>
       </c>
       <c r="I34" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s">
-        <v>253</v>
-      </c>
-      <c r="D35" s="37"/>
+        <v>233</v>
+      </c>
       <c r="F35" s="2">
         <v>-1</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="H35" t="s">
-        <v>565</v>
+        <v>476</v>
       </c>
       <c r="I35" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s">
-        <v>254</v>
-      </c>
-      <c r="D36" s="37"/>
+        <v>234</v>
+      </c>
       <c r="F36" s="2">
         <v>-1</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="H36" t="s">
-        <v>567</v>
+        <v>478</v>
       </c>
       <c r="I36" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s">
-        <v>255</v>
-      </c>
-      <c r="D37" s="37"/>
+        <v>235</v>
+      </c>
       <c r="F37" s="2">
         <v>-1</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="H37" t="s">
-        <v>566</v>
+        <v>477</v>
       </c>
       <c r="I37" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="F38" s="2">
         <v>-1</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="H38" s="35" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+      <c r="H38" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>437</v>
+        <v>349</v>
       </c>
       <c r="C39" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="F39" s="2">
         <v>-1</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="I39" s="23"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>448</v>
+        <v>360</v>
       </c>
       <c r="C40" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="F40" s="2">
         <v>-1</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>449</v>
+        <v>361</v>
       </c>
       <c r="C41" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="F41" s="2">
         <v>-1</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="H41" s="23" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>450</v>
+        <v>362</v>
       </c>
       <c r="C42" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="F42" s="2">
         <v>-1</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="H42" s="23" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
       <c r="H43"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="C44" t="s">
-        <v>272</v>
-      </c>
-      <c r="D44"/>
+        <v>252</v>
+      </c>
       <c r="E44" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F44" s="2">
         <v>2</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="I44" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -8307,1434 +8227,1473 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45"/>
+        <v>60</v>
+      </c>
       <c r="E45" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F45" s="2">
         <v>3</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="I45" t="s">
-        <v>360</v>
+        <v>317</v>
       </c>
       <c r="J45" s="23"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B46" s="2"/>
-      <c r="D46"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>153</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>455</v>
+        <v>611</v>
       </c>
       <c r="C47" t="s">
-        <v>524</v>
-      </c>
-      <c r="D47">
+        <v>621</v>
+      </c>
+      <c r="D47" s="2">
         <v>1</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>83</v>
+        <v>253</v>
       </c>
       <c r="F47" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H47"/>
+      <c r="O47" s="2"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>182</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>456</v>
+        <v>612</v>
       </c>
       <c r="C48" t="s">
-        <v>525</v>
-      </c>
-      <c r="D48">
+        <v>622</v>
+      </c>
+      <c r="D48" s="2">
         <v>1</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>83</v>
+        <v>253</v>
       </c>
       <c r="F48" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H48"/>
+      <c r="O48" s="2"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>154</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>457</v>
+        <v>613</v>
       </c>
       <c r="C49" t="s">
-        <v>526</v>
-      </c>
-      <c r="D49">
+        <v>623</v>
+      </c>
+      <c r="D49" s="2">
         <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>83</v>
+        <v>253</v>
       </c>
       <c r="F49" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H49"/>
+      <c r="O49" s="2"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>155</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>458</v>
+        <v>614</v>
       </c>
       <c r="C50" t="s">
-        <v>527</v>
-      </c>
-      <c r="D50">
+        <v>624</v>
+      </c>
+      <c r="D50" s="2">
         <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>83</v>
+        <v>253</v>
       </c>
       <c r="F50" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H50"/>
+      <c r="O50" s="2"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>156</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>459</v>
+        <v>615</v>
       </c>
       <c r="C51" t="s">
-        <v>528</v>
-      </c>
-      <c r="D51">
+        <v>625</v>
+      </c>
+      <c r="D51" s="2">
         <v>1</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>83</v>
+        <v>253</v>
       </c>
       <c r="F51" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H51"/>
+      <c r="O51" s="2"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>183</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="C52" s="53" t="s">
-        <v>529</v>
-      </c>
-      <c r="D52">
+        <v>616</v>
+      </c>
+      <c r="C52" t="s">
+        <v>626</v>
+      </c>
+      <c r="D52" s="2">
         <v>1</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>83</v>
+        <v>253</v>
       </c>
       <c r="F52" s="2">
         <v>6</v>
       </c>
-      <c r="J52" s="23"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H52"/>
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>184</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C53" s="53" t="s">
-        <v>530</v>
-      </c>
-      <c r="D53">
+        <v>617</v>
+      </c>
+      <c r="C53" t="s">
+        <v>627</v>
+      </c>
+      <c r="E53" s="52"/>
+      <c r="F53" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>619</v>
+      </c>
+      <c r="O53" s="2"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>618</v>
+      </c>
+      <c r="C54" t="s">
+        <v>628</v>
+      </c>
+      <c r="E54" s="52"/>
+      <c r="F54" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>620</v>
+      </c>
+      <c r="O54" s="2"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C55" t="s">
+        <v>436</v>
+      </c>
+      <c r="F55" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>162</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C56" t="s">
+        <v>437</v>
+      </c>
+      <c r="F56" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C57" t="s">
+        <v>438</v>
+      </c>
+      <c r="F57" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C58" t="s">
+        <v>439</v>
+      </c>
+      <c r="F58" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C59" t="s">
+        <v>440</v>
+      </c>
+      <c r="F59" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C60" s="43" t="s">
+        <v>441</v>
+      </c>
+      <c r="F60" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>614</v>
+      </c>
+      <c r="J60" s="23"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>164</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C61" s="43" t="s">
+        <v>442</v>
+      </c>
+      <c r="F61" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>615</v>
+      </c>
+      <c r="J61" s="23"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>165</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>443</v>
+      </c>
+      <c r="F62" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>616</v>
+      </c>
+      <c r="J62" s="23"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B63" s="2"/>
+      <c r="C63" s="43"/>
+      <c r="J63" s="23"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C64" t="s">
+        <v>78</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="F64" s="2">
         <v>1</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F53" s="2">
-        <v>7</v>
-      </c>
-      <c r="J53" s="23"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>185</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C54" s="53" t="s">
-        <v>531</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F54" s="2">
-        <v>8</v>
-      </c>
-      <c r="J54" s="23"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="2"/>
-      <c r="C55" s="53"/>
-      <c r="D55"/>
-      <c r="J55" s="23"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>157</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="C56" t="s">
-        <v>90</v>
-      </c>
-      <c r="D56" s="46">
-        <v>0.9</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="F56" s="2">
-        <v>1</v>
-      </c>
-      <c r="I56" t="s">
-        <v>302</v>
-      </c>
-      <c r="J56" s="39" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>158</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="C57" t="s">
-        <v>91</v>
-      </c>
-      <c r="D57" s="46">
-        <v>0.91</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="F57" s="2">
-        <v>2</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="I57" t="s">
-        <v>303</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>159</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C58" t="s">
-        <v>92</v>
-      </c>
-      <c r="D58" s="46">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="F58" s="2">
-        <v>3</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="I58" t="s">
-        <v>304</v>
-      </c>
-      <c r="J58" s="39" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>160</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="C59" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59" s="46">
-        <v>0.85</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="F59" s="2">
-        <v>4</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="I59" t="s">
-        <v>305</v>
-      </c>
-      <c r="J59" s="39" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>162</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="C60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D60" s="46">
-        <v>0.9</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="F60" s="2">
-        <v>5</v>
-      </c>
-      <c r="I60" t="s">
-        <v>302</v>
-      </c>
-      <c r="J60" s="39" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>163</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C61" t="s">
-        <v>95</v>
-      </c>
-      <c r="D61" s="46">
-        <v>0.91</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="F61" s="2">
-        <v>6</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="I61" t="s">
-        <v>303</v>
-      </c>
-      <c r="J61" s="39" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>164</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C62" t="s">
-        <v>96</v>
-      </c>
-      <c r="D62" s="46">
-        <v>0.34</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="F62" s="2">
-        <v>7</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="I62" t="s">
-        <v>304</v>
-      </c>
-      <c r="J62" s="39" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>165</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C63" t="s">
-        <v>97</v>
-      </c>
-      <c r="D63" s="46">
-        <v>0.5</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="F63" s="2">
-        <v>8</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="I63" t="s">
-        <v>305</v>
-      </c>
-      <c r="J63" s="39" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>167</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C64" t="s">
-        <v>98</v>
-      </c>
-      <c r="D64" s="46">
-        <v>0.9</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="F64" s="39">
-        <v>9</v>
-      </c>
       <c r="I64" t="s">
-        <v>302</v>
-      </c>
-      <c r="J64" s="39" t="s">
-        <v>405</v>
+        <v>277</v>
+      </c>
+      <c r="J64" s="35" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>471</v>
+        <v>377</v>
       </c>
       <c r="C65" t="s">
-        <v>99</v>
-      </c>
-      <c r="D65" s="46">
-        <v>0.91</v>
+        <v>79</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="F65" s="2">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="I65" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>408</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>470</v>
+        <v>376</v>
       </c>
       <c r="C66" t="s">
-        <v>100</v>
-      </c>
-      <c r="D66" s="46">
-        <v>0.34</v>
+        <v>80</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="F66" s="39">
-        <v>11</v>
+        <v>445</v>
+      </c>
+      <c r="F66" s="2">
+        <v>3</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="I66" t="s">
-        <v>304</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>410</v>
+        <v>279</v>
+      </c>
+      <c r="J66" s="35" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>476</v>
+        <v>386</v>
       </c>
       <c r="C67" t="s">
-        <v>101</v>
-      </c>
-      <c r="D67" s="46">
-        <v>0.5</v>
+        <v>81</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="F67" s="2">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="I67" t="s">
-        <v>305</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>410</v>
+        <v>280</v>
+      </c>
+      <c r="J67" s="35" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C68" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="D68" s="46">
-        <v>0.9</v>
+        <v>378</v>
+      </c>
+      <c r="C68" t="s">
+        <v>82</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="F68" s="39">
-        <v>13</v>
+        <v>445</v>
+      </c>
+      <c r="F68" s="2">
+        <v>5</v>
       </c>
       <c r="I68" t="s">
-        <v>302</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>405</v>
+        <v>277</v>
+      </c>
+      <c r="J68" s="35" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C69" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="D69" s="46">
-        <v>0.91</v>
+        <v>379</v>
+      </c>
+      <c r="C69" t="s">
+        <v>83</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="F69" s="2">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="I69" t="s">
-        <v>303</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>408</v>
+        <v>278</v>
+      </c>
+      <c r="J69" s="35" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C70" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="D70" s="46">
-        <v>7.0000000000000007E-2</v>
+        <v>380</v>
+      </c>
+      <c r="C70" t="s">
+        <v>84</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="F70" s="39">
-        <v>15</v>
+        <v>445</v>
+      </c>
+      <c r="F70" s="2">
+        <v>7</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="I70" t="s">
-        <v>304</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>411</v>
+        <v>279</v>
+      </c>
+      <c r="J70" s="35" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C71" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="D71" s="46">
-        <v>0.85</v>
+        <v>387</v>
+      </c>
+      <c r="C71" t="s">
+        <v>85</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="F71" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="I71" t="s">
-        <v>305</v>
-      </c>
-      <c r="J71" s="23"/>
+        <v>280</v>
+      </c>
+      <c r="J71" s="35" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="C72" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="D72" s="46">
-        <v>0.9</v>
+        <v>381</v>
+      </c>
+      <c r="C72" t="s">
+        <v>86</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="F72" s="39">
-        <v>17</v>
+        <v>445</v>
+      </c>
+      <c r="F72" s="35">
+        <v>9</v>
       </c>
       <c r="I72" t="s">
-        <v>302</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>405</v>
+        <v>277</v>
+      </c>
+      <c r="J72" s="35" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="C73" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="D73" s="46">
-        <v>0.91</v>
+        <v>383</v>
+      </c>
+      <c r="C73" t="s">
+        <v>87</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="F73" s="2">
-        <v>18</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>429</v>
+        <v>10</v>
       </c>
       <c r="I73" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>404</v>
+        <v>326</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C74" s="53" t="s">
-        <v>114</v>
-      </c>
-      <c r="D74" s="46">
-        <v>0.34</v>
+        <v>382</v>
+      </c>
+      <c r="C74" t="s">
+        <v>88</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="F74" s="39">
-        <v>19</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>429</v>
+        <v>445</v>
+      </c>
+      <c r="F74" s="35">
+        <v>11</v>
       </c>
       <c r="I74" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>411</v>
+        <v>328</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="C75" s="53" t="s">
-        <v>115</v>
-      </c>
-      <c r="D75" s="46">
-        <v>0.5</v>
+        <v>388</v>
+      </c>
+      <c r="C75" t="s">
+        <v>89</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="F75" s="2">
-        <v>20</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>429</v>
+        <v>12</v>
       </c>
       <c r="I75" t="s">
-        <v>305</v>
-      </c>
-      <c r="J75" s="23"/>
+        <v>280</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C76" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="D76" s="46">
-        <v>0.9</v>
+        <v>389</v>
+      </c>
+      <c r="C76" s="43" t="s">
+        <v>90</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="F76" s="39">
-        <v>21</v>
+        <v>445</v>
+      </c>
+      <c r="F76" s="35">
+        <v>13</v>
       </c>
       <c r="I76" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>405</v>
+        <v>323</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="C77" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="D77" s="46">
-        <v>0.91</v>
+        <v>391</v>
+      </c>
+      <c r="C77" s="43" t="s">
+        <v>91</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="F77" s="2">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="I77" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>408</v>
+        <v>326</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="C78" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="D78" s="46">
-        <v>0.34</v>
+        <v>390</v>
+      </c>
+      <c r="C78" s="43" t="s">
+        <v>92</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="F78" s="39">
-        <v>23</v>
+        <v>445</v>
+      </c>
+      <c r="F78" s="35">
+        <v>15</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="I78" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>412</v>
+        <v>329</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="C79" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="D79" s="46">
-        <v>0.5</v>
+        <v>404</v>
+      </c>
+      <c r="C79" s="43" t="s">
+        <v>93</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="F79" s="2">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="I79" t="s">
-        <v>305</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>410</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="J79" s="23"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B80" s="2"/>
-      <c r="D80"/>
-      <c r="J80" s="2"/>
-    </row>
-    <row r="81" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>171</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C80" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="F80" s="35">
+        <v>17</v>
+      </c>
+      <c r="I80" t="s">
+        <v>277</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>348</v>
+        <v>172</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C81" t="s">
-        <v>351</v>
-      </c>
-      <c r="D81" s="36">
-        <v>0.2</v>
+        <v>395</v>
+      </c>
+      <c r="C81" s="43" t="s">
+        <v>95</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>570</v>
+        <v>445</v>
       </c>
       <c r="F81" s="2">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="I81" t="s">
-        <v>344</v>
-      </c>
-      <c r="J81" s="56" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>345</v>
+        <v>173</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="C82" t="s">
-        <v>352</v>
-      </c>
-      <c r="D82" s="36">
-        <v>0.15</v>
+        <v>394</v>
+      </c>
+      <c r="C82" s="43" t="s">
+        <v>96</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="F82" s="2">
-        <v>2</v>
+        <v>445</v>
+      </c>
+      <c r="F82" s="35">
+        <v>19</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="I82" t="s">
-        <v>344</v>
-      </c>
-      <c r="J82" s="56" t="s">
-        <v>498</v>
-      </c>
-      <c r="O82" s="55" t="s">
-        <v>427</v>
+        <v>279</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>346</v>
+        <v>174</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="C83" t="s">
-        <v>353</v>
-      </c>
-      <c r="D83" s="36">
-        <v>0.15</v>
+        <v>406</v>
+      </c>
+      <c r="C83" s="43" t="s">
+        <v>97</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="F83" s="41">
-        <v>3</v>
+        <v>445</v>
+      </c>
+      <c r="F83" s="2">
+        <v>20</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="I83" t="s">
-        <v>344</v>
-      </c>
-      <c r="J83" s="57" t="s">
-        <v>498</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="J83" s="23"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>347</v>
+        <v>176</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C84" t="s">
-        <v>354</v>
-      </c>
-      <c r="D84" s="36">
-        <v>0.2</v>
+        <v>397</v>
+      </c>
+      <c r="C84" s="43" t="s">
+        <v>98</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="F84" s="2">
-        <v>4</v>
+        <v>445</v>
+      </c>
+      <c r="F84" s="35">
+        <v>21</v>
       </c>
       <c r="I84" t="s">
-        <v>344</v>
-      </c>
-      <c r="J84" s="55" t="s">
-        <v>499</v>
+        <v>277</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C85" t="s">
-        <v>355</v>
-      </c>
-      <c r="D85" s="36">
-        <v>0.15</v>
+        <v>399</v>
+      </c>
+      <c r="C85" s="43" t="s">
+        <v>99</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>570</v>
+        <v>445</v>
       </c>
       <c r="F85" s="2">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="I85" t="s">
-        <v>344</v>
-      </c>
-      <c r="J85" s="55" t="s">
-        <v>498</v>
+        <v>278</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>349</v>
+        <v>178</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="C86" t="s">
-        <v>356</v>
-      </c>
-      <c r="D86" s="36">
-        <v>0.15</v>
+        <v>398</v>
+      </c>
+      <c r="C86" s="43" t="s">
+        <v>100</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="F86" s="2">
-        <v>6</v>
+        <v>445</v>
+      </c>
+      <c r="F86" s="35">
+        <v>23</v>
       </c>
       <c r="I86" t="s">
-        <v>344</v>
-      </c>
-      <c r="J86" s="58" t="s">
-        <v>498</v>
+        <v>279</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C87" s="53" t="s">
-        <v>536</v>
-      </c>
-      <c r="D87"/>
+        <v>408</v>
+      </c>
+      <c r="C87" s="43" t="s">
+        <v>101</v>
+      </c>
       <c r="E87" s="2" t="s">
-        <v>570</v>
+        <v>445</v>
       </c>
       <c r="F87" s="2">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="I87" t="s">
-        <v>306</v>
-      </c>
-      <c r="J87" s="23"/>
+        <v>280</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>195</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="C88" s="53" t="s">
-        <v>537</v>
-      </c>
-      <c r="D88"/>
-      <c r="E88" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="F88" s="2">
-        <v>8</v>
-      </c>
-      <c r="I88" t="s">
-        <v>306</v>
-      </c>
-      <c r="J88" s="23"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B88" s="2"/>
+      <c r="J88" s="2"/>
+    </row>
+    <row r="89" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>161</v>
+        <v>305</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>472</v>
+        <v>400</v>
       </c>
       <c r="C89" t="s">
-        <v>538</v>
-      </c>
-      <c r="D89"/>
+        <v>308</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0.2</v>
+      </c>
       <c r="E89" s="2" t="s">
-        <v>570</v>
+        <v>481</v>
       </c>
       <c r="F89" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>306</v>
-      </c>
-      <c r="J89" s="23"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+      <c r="J89" s="46" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>166</v>
+        <v>302</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>473</v>
+        <v>401</v>
       </c>
       <c r="C90" t="s">
-        <v>539</v>
-      </c>
-      <c r="D90"/>
+        <v>309</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0.15</v>
+      </c>
       <c r="E90" s="2" t="s">
-        <v>570</v>
+        <v>481</v>
       </c>
       <c r="F90" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>306</v>
-      </c>
-      <c r="J90" s="23"/>
+        <v>301</v>
+      </c>
+      <c r="J90" s="46" t="s">
+        <v>410</v>
+      </c>
+      <c r="O90" s="45" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B91" s="2"/>
-      <c r="D91"/>
-      <c r="J91" s="23"/>
+      <c r="A91" t="s">
+        <v>303</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C91" t="s">
+        <v>310</v>
+      </c>
+      <c r="D91" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F91" s="37">
+        <v>3</v>
+      </c>
+      <c r="I91" t="s">
+        <v>301</v>
+      </c>
+      <c r="J91" s="47" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>515</v>
+        <v>304</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="C92" s="53" t="s">
-        <v>540</v>
-      </c>
-      <c r="D92" s="47">
-        <v>0.7</v>
+        <v>403</v>
+      </c>
+      <c r="C92" t="s">
+        <v>311</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0.2</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>552</v>
+        <v>481</v>
       </c>
       <c r="F92" s="2">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="I92" t="s">
+        <v>301</v>
       </c>
       <c r="J92" s="45" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>516</v>
+        <v>307</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="C93" s="53" t="s">
-        <v>541</v>
-      </c>
-      <c r="D93" s="47">
-        <v>0.7</v>
+        <v>405</v>
+      </c>
+      <c r="C93" t="s">
+        <v>312</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0.15</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>552</v>
+        <v>481</v>
       </c>
       <c r="F93" s="2">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="I93" t="s">
+        <v>301</v>
       </c>
       <c r="J93" s="45" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>517</v>
+        <v>306</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="C94" s="53" t="s">
-        <v>542</v>
-      </c>
-      <c r="D94" s="47">
-        <v>0.7</v>
+        <v>407</v>
+      </c>
+      <c r="C94" t="s">
+        <v>313</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0.15</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>552</v>
+        <v>481</v>
       </c>
       <c r="F94" s="2">
-        <v>3</v>
-      </c>
-      <c r="J94" s="45" t="s">
-        <v>420</v>
+        <v>6</v>
+      </c>
+      <c r="I94" t="s">
+        <v>301</v>
+      </c>
+      <c r="J94" s="48" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>512</v>
+        <v>170</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="C95" t="s">
-        <v>543</v>
-      </c>
-      <c r="D95" s="46">
-        <v>0.06</v>
+        <v>392</v>
+      </c>
+      <c r="C95" s="43" t="s">
+        <v>447</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>552</v>
+        <v>481</v>
       </c>
       <c r="F95" s="2">
-        <v>4</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>429</v>
+        <v>7</v>
       </c>
       <c r="I95" t="s">
-        <v>282</v>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>406</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="J95" s="23"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>513</v>
+        <v>175</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="C96" t="s">
-        <v>544</v>
-      </c>
-      <c r="D96" s="46">
-        <v>0.11</v>
+        <v>396</v>
+      </c>
+      <c r="C96" s="43" t="s">
+        <v>448</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="F96" s="39">
-        <v>5</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>429</v>
+        <v>481</v>
+      </c>
+      <c r="F96" s="2">
+        <v>8</v>
       </c>
       <c r="I96" t="s">
-        <v>282</v>
-      </c>
-      <c r="J96" s="2" t="s">
-        <v>406</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="J96" s="23"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>514</v>
+        <v>141</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>505</v>
+        <v>384</v>
       </c>
       <c r="C97" t="s">
-        <v>545</v>
-      </c>
-      <c r="D97" s="46">
-        <v>0.11</v>
+        <v>449</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>552</v>
+        <v>481</v>
       </c>
       <c r="F97" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I97" t="s">
-        <v>282</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>409</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="J97" s="23"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>518</v>
+        <v>146</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="C98" s="53" t="s">
-        <v>549</v>
-      </c>
-      <c r="D98" s="47">
-        <v>0.2</v>
+        <v>385</v>
+      </c>
+      <c r="C98" t="s">
+        <v>450</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>552</v>
+        <v>481</v>
       </c>
       <c r="F98" s="2">
-        <v>7</v>
-      </c>
-      <c r="J98" s="45" t="s">
-        <v>420</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I98" t="s">
+        <v>281</v>
+      </c>
+      <c r="J98" s="23"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>519</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="C99" s="53" t="s">
-        <v>550</v>
-      </c>
-      <c r="D99" s="47">
-        <v>0.2</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="F99" s="2">
-        <v>8</v>
-      </c>
-      <c r="J99" s="45" t="s">
-        <v>420</v>
-      </c>
+      <c r="B99" s="2"/>
+      <c r="J99" s="23"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>520</v>
+        <v>427</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="C100" s="53" t="s">
-        <v>551</v>
-      </c>
-      <c r="D100" s="47">
-        <v>0.2</v>
+        <v>413</v>
+      </c>
+      <c r="C100" s="43" t="s">
+        <v>451</v>
+      </c>
+      <c r="D100" s="2">
+        <v>0.7</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>552</v>
+        <v>463</v>
       </c>
       <c r="F100" s="2">
-        <v>9</v>
-      </c>
-      <c r="J100" s="45" t="s">
-        <v>420</v>
+        <v>1</v>
+      </c>
+      <c r="J100" s="38" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>521</v>
+        <v>428</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="C101" t="s">
-        <v>546</v>
-      </c>
-      <c r="D101" s="46">
-        <v>0.06</v>
+        <v>415</v>
+      </c>
+      <c r="C101" s="43" t="s">
+        <v>452</v>
+      </c>
+      <c r="D101" s="2">
+        <v>0.7</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>552</v>
+        <v>463</v>
       </c>
       <c r="F101" s="2">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="I101" t="s">
-        <v>282</v>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>406</v>
+        <v>2</v>
+      </c>
+      <c r="J101" s="38" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>522</v>
+        <v>429</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="C102" t="s">
-        <v>547</v>
-      </c>
-      <c r="D102" s="46">
-        <v>0.11</v>
+        <v>416</v>
+      </c>
+      <c r="C102" s="43" t="s">
+        <v>453</v>
+      </c>
+      <c r="D102" s="2">
+        <v>0.7</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="F102" s="39">
-        <v>11</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="I102" t="s">
-        <v>282</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>406</v>
+        <v>463</v>
+      </c>
+      <c r="F102" s="2">
+        <v>3</v>
+      </c>
+      <c r="J102" s="38" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>523</v>
+        <v>424</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>511</v>
+        <v>412</v>
       </c>
       <c r="C103" t="s">
-        <v>548</v>
-      </c>
-      <c r="D103" s="46">
+        <v>454</v>
+      </c>
+      <c r="D103" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F103" s="2">
+        <v>4</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I103" t="s">
+        <v>261</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>425</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C104" t="s">
+        <v>455</v>
+      </c>
+      <c r="D104" s="2">
         <v>0.11</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="F103" s="2">
+      <c r="E104" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F104" s="35">
+        <v>5</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I104" t="s">
+        <v>261</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>426</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C105" t="s">
+        <v>456</v>
+      </c>
+      <c r="D105" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F105" s="2">
+        <v>6</v>
+      </c>
+      <c r="I105" t="s">
+        <v>261</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>430</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C106" s="43" t="s">
+        <v>460</v>
+      </c>
+      <c r="D106" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F106" s="2">
+        <v>7</v>
+      </c>
+      <c r="J106" s="38" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>431</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C107" s="43" t="s">
+        <v>461</v>
+      </c>
+      <c r="D107" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F107" s="2">
+        <v>8</v>
+      </c>
+      <c r="J107" s="38" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>432</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C108" s="43" t="s">
+        <v>462</v>
+      </c>
+      <c r="D108" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F108" s="2">
+        <v>9</v>
+      </c>
+      <c r="J108" s="38" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>433</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C109" t="s">
+        <v>457</v>
+      </c>
+      <c r="D109" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F109" s="2">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I109" t="s">
+        <v>261</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>434</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C110" t="s">
+        <v>458</v>
+      </c>
+      <c r="D110" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F110" s="35">
+        <v>11</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I110" t="s">
+        <v>261</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>435</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C111" t="s">
+        <v>459</v>
+      </c>
+      <c r="D111" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F111" s="2">
         <v>12</v>
       </c>
-      <c r="I103" t="s">
-        <v>282</v>
-      </c>
-      <c r="J103" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B104" s="2"/>
-      <c r="D104"/>
-      <c r="J104" s="2"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J105" s="60"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J106" s="60"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J107" s="61"/>
+      <c r="I111" t="s">
+        <v>261</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B112" s="2"/>
+      <c r="J112" s="2"/>
+    </row>
+    <row r="113" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J113" s="49"/>
+    </row>
+    <row r="114" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J114" s="49"/>
+    </row>
+    <row r="115" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J115" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -9753,7 +9712,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/project/cascade-belarus.xlsx
+++ b/project/cascade-belarus.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="264" yWindow="-23544" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="340" yWindow="0" windowWidth="23320" windowHeight="15280" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Databook Sheet Names" sheetId="5" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Parameters" sheetId="3" r:id="rId5"/>
     <sheet name="Notes" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="633">
   <si>
     <t>Code Label</t>
   </si>
@@ -992,34 +992,7 @@
     <t>Not sure about these values; implemented from Kedz</t>
   </si>
   <si>
-    <t>* Source: Pooled estimate of two Retrospective (cohort and case) - Rusovich et al. 2014 + Khaliaukin et al. 2014</t>
-  </si>
-  <si>
-    <t>*Hovhannesyan Notifications assumption</t>
-  </si>
-  <si>
-    <t>*2012 Cohort, Global Fund Concept Note</t>
-  </si>
-  <si>
-    <t>*2011 Cohort, Global Fund Concept Note</t>
-  </si>
-  <si>
     <t>*assume same as MDR Uptake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* same as MDR </t>
-  </si>
-  <si>
-    <t>* assume same as MDR</t>
-  </si>
-  <si>
-    <t>(Failure+Loss to follow-up)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*assume same as MDR </t>
-  </si>
-  <si>
-    <t>*2012 Cohort, Global Fund Concept Note (loss to follow-up+failure)</t>
   </si>
   <si>
     <t>*(Range is 0.5-0.8 NOT 0-0.8) - Tuberculosis Primer Madhukar Pai et al. 2016</t>
@@ -2078,12 +2051,107 @@
   <si>
     <t>New Smear-Negative Cases</t>
   </si>
+  <si>
+    <t>The WHO 30% global estimate groups together RR/MDR and XDR. WHO global estimate for XDR-TB is 9.5% of all drug resistant TB (30%).</t>
+  </si>
+  <si>
+    <t>GAJ assumed that XDR = 0.3 * 0.095 (i.e. 0.0285) and MDR = 0.3- 0.0285 (i.e. 0.2715)</t>
+  </si>
+  <si>
+    <t>WHO Global Tuberculosis report 2016 disaggregation for resistance encompasses both smear+ and smear-. Assume resistance values are the same for smear-</t>
+  </si>
+  <si>
+    <t>["]</t>
+  </si>
+  <si>
+    <t>WHO Global Tuberculosis report 2016.'Treatment Coverage' Expressed as the difference between incidence and notified cases. Not disaggregated and includes all strains</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>WHO Global Tuberculosis report 2016</t>
+  </si>
+  <si>
+    <r>
+      <t>WHO Global Tuberculosis report 2016.'Treatment Coverage' Expressed as the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> difference between incidence and notified cases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Not disaggregated and includes all strains</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>WHO Global Tuberculosis report 2016 - Global percentage of RR/MDR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> started on treament</t>
+    </r>
+  </si>
+  <si>
+    <t>WHO Global Tuberculosis report 2016 - Global percentage of RR/MDR abandonment of treament (will be 31% not 24% if Not evaluated are included)</t>
+  </si>
+  <si>
+    <t>WHO Global Tuberculosis report 2016 - Annex 4</t>
+  </si>
+  <si>
+    <t>WHO Global Tuberculosis report 2016 - Global percentage of RR/MDR started on treament</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WHO Global Tuberculosis report 2016 estimates 30% of new cases globally are M/XDR-TB. So DS-Tb therefore accounts for approximately 70% of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cases</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2160,6 +2228,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -2471,7 +2546,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="112">
+  <cellStyleXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2584,8 +2659,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2737,8 +2816,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="112">
+  <cellStyles count="116">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -2794,6 +2879,8 @@
     <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2849,6 +2936,8 @@
     <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -3194,17 +3283,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="15" t="s">
         <v>75</v>
       </c>
@@ -3212,31 +3301,31 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>253</v>
       </c>
@@ -3244,56 +3333,61 @@
         <v>296</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3305,17 +3399,17 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="8.77734375" style="2"/>
+    <col min="4" max="4" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3338,7 +3432,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3349,7 +3443,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3360,7 +3454,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>183</v>
       </c>
@@ -3371,7 +3465,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>184</v>
       </c>
@@ -3382,7 +3476,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>185</v>
       </c>
@@ -3393,7 +3487,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>186</v>
       </c>
@@ -3404,7 +3498,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>187</v>
       </c>
@@ -3415,7 +3509,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>188</v>
       </c>
@@ -3426,7 +3520,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -3437,7 +3531,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>180</v>
       </c>
@@ -3451,7 +3545,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>181</v>
       </c>
@@ -3465,7 +3559,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>104</v>
       </c>
@@ -3476,7 +3570,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>105</v>
       </c>
@@ -3487,7 +3581,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -3498,7 +3592,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>107</v>
       </c>
@@ -3509,7 +3603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>108</v>
       </c>
@@ -3520,7 +3614,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>109</v>
       </c>
@@ -3531,7 +3625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -3542,7 +3636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -3553,7 +3647,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>112</v>
       </c>
@@ -3564,7 +3658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>182</v>
       </c>
@@ -3578,7 +3672,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>113</v>
       </c>
@@ -3589,7 +3683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>114</v>
       </c>
@@ -3600,7 +3694,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>115</v>
       </c>
@@ -3611,7 +3705,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>116</v>
       </c>
@@ -3622,7 +3716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>117</v>
       </c>
@@ -3633,7 +3727,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>118</v>
       </c>
@@ -3644,7 +3738,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>119</v>
       </c>
@@ -3655,7 +3749,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>120</v>
       </c>
@@ -3666,7 +3760,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>121</v>
       </c>
@@ -3677,7 +3771,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -3688,7 +3782,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -3702,7 +3796,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -3716,7 +3810,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>247</v>
       </c>
@@ -3732,6 +3826,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3743,44 +3842,44 @@
       <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="2" max="2" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.33203125" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.33203125" customWidth="1"/>
     <col min="15" max="15" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="5.33203125" customWidth="1"/>
     <col min="25" max="25" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="7" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>247</v>
@@ -3885,7 +3984,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35">
       <c r="A2" s="3" t="s">
         <v>247</v>
       </c>
@@ -3928,17 +4027,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -3973,7 +4072,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -3988,7 +4087,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="17" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="10"/>
@@ -4016,7 +4115,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35">
       <c r="A5" s="25" t="s">
         <v>183</v>
       </c>
@@ -4025,17 +4124,17 @@
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
       <c r="F5" s="27" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="27" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
       <c r="K5" s="27"/>
       <c r="L5" s="28" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="M5" s="26"/>
       <c r="N5" s="27"/>
@@ -4063,7 +4162,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35">
       <c r="A6" s="24" t="s">
         <v>184</v>
       </c>
@@ -4073,16 +4172,16 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="17" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="10"/>
@@ -4110,7 +4209,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35">
       <c r="A7" s="30" t="s">
         <v>185</v>
       </c>
@@ -4119,14 +4218,14 @@
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
       <c r="F7" s="32" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
       <c r="K7" s="32" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="L7" s="33"/>
       <c r="M7" s="31"/>
@@ -4155,7 +4254,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35">
       <c r="A8" s="25" t="s">
         <v>186</v>
       </c>
@@ -4167,12 +4266,12 @@
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J8" s="27"/>
       <c r="K8" s="27"/>
       <c r="L8" s="28" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="M8" s="26"/>
       <c r="N8" s="27"/>
@@ -4200,7 +4299,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35">
       <c r="A9" s="24" t="s">
         <v>187</v>
       </c>
@@ -4213,11 +4312,11 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="K9" s="10"/>
       <c r="L9" s="17" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="10"/>
@@ -4245,7 +4344,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35">
       <c r="A10" s="30" t="s">
         <v>188</v>
       </c>
@@ -4257,11 +4356,11 @@
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
       <c r="I10" s="32" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="J10" s="32"/>
       <c r="K10" s="32" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="L10" s="33"/>
       <c r="M10" s="31"/>
@@ -4290,7 +4389,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35">
       <c r="A11" s="3" t="s">
         <v>71</v>
       </c>
@@ -4305,7 +4404,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="17" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="10"/>
@@ -4333,7 +4432,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35">
       <c r="A12" s="2" t="s">
         <v>180</v>
       </c>
@@ -4349,7 +4448,7 @@
       <c r="K12" s="20"/>
       <c r="L12" s="21"/>
       <c r="M12" s="19" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
@@ -4361,7 +4460,7 @@
       <c r="U12" s="20"/>
       <c r="V12" s="22"/>
       <c r="W12" s="19" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="X12" s="20"/>
       <c r="Y12" s="20"/>
@@ -4376,7 +4475,7 @@
       <c r="AH12" s="20"/>
       <c r="AI12" s="22"/>
     </row>
-    <row r="13" spans="1:35" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35">
       <c r="A13" s="4" t="s">
         <v>181</v>
       </c>
@@ -4393,17 +4492,17 @@
       <c r="L13" s="16"/>
       <c r="M13" s="6"/>
       <c r="N13" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="U13" s="7"/>
       <c r="V13" s="8"/>
@@ -4421,7 +4520,7 @@
       <c r="AH13" s="10"/>
       <c r="AI13" s="11"/>
     </row>
-    <row r="14" spans="1:35" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35">
       <c r="A14" s="4" t="s">
         <v>104</v>
       </c>
@@ -4439,7 +4538,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
@@ -4459,16 +4558,16 @@
       <c r="AE14" s="10"/>
       <c r="AF14" s="11"/>
       <c r="AG14" s="9" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="AH14" s="2" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="AI14" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35">
       <c r="A15" s="4" t="s">
         <v>105</v>
       </c>
@@ -4487,7 +4586,7 @@
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
@@ -4506,16 +4605,16 @@
       <c r="AE15" s="10"/>
       <c r="AF15" s="11"/>
       <c r="AG15" s="9" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="AH15" s="2" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="AI15" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35">
       <c r="A16" s="4" t="s">
         <v>106</v>
       </c>
@@ -4533,12 +4632,12 @@
       <c r="M16" s="9"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="10" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
@@ -4555,16 +4654,16 @@
       <c r="AE16" s="10"/>
       <c r="AF16" s="11"/>
       <c r="AG16" s="9" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="AH16" s="10" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="AI16" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35">
       <c r="A17" s="4" t="s">
         <v>107</v>
       </c>
@@ -4585,7 +4684,7 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="10" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
@@ -4602,16 +4701,16 @@
       <c r="AE17" s="10"/>
       <c r="AF17" s="11"/>
       <c r="AG17" s="9" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="AH17" s="2" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="AI17" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35">
       <c r="A18" s="4" t="s">
         <v>108</v>
       </c>
@@ -4633,7 +4732,7 @@
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
@@ -4649,16 +4748,16 @@
       <c r="AE18" s="10"/>
       <c r="AF18" s="11"/>
       <c r="AG18" s="9" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="AH18" s="2" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="AI18" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35">
       <c r="A19" s="4" t="s">
         <v>109</v>
       </c>
@@ -4679,12 +4778,12 @@
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
       <c r="U19" s="10" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="V19" s="11"/>
       <c r="W19" s="9"/>
@@ -4698,16 +4797,16 @@
       <c r="AE19" s="10"/>
       <c r="AF19" s="11"/>
       <c r="AG19" s="9" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="AH19" s="10" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="AI19" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35">
       <c r="A20" s="4" t="s">
         <v>110</v>
       </c>
@@ -4731,7 +4830,7 @@
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="V20" s="10"/>
       <c r="W20" s="9"/>
@@ -4745,16 +4844,16 @@
       <c r="AE20" s="10"/>
       <c r="AF20" s="11"/>
       <c r="AG20" s="9" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="AH20" s="2" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="AI20" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35">
       <c r="A21" s="4" t="s">
         <v>111</v>
       </c>
@@ -4779,7 +4878,7 @@
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="W21" s="9"/>
       <c r="X21" s="10"/>
@@ -4792,16 +4891,16 @@
       <c r="AE21" s="10"/>
       <c r="AF21" s="11"/>
       <c r="AG21" s="9" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="AH21" s="2" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="AI21" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35">
       <c r="A22" s="4" t="s">
         <v>112</v>
       </c>
@@ -4825,7 +4924,7 @@
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
       <c r="U22" s="10" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="V22" s="10"/>
       <c r="W22" s="12"/>
@@ -4839,16 +4938,16 @@
       <c r="AE22" s="13"/>
       <c r="AF22" s="14"/>
       <c r="AG22" s="12" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="AH22" s="13" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="AI22" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35">
       <c r="A23" s="5" t="s">
         <v>182</v>
       </c>
@@ -4875,17 +4974,17 @@
       <c r="V23" s="8"/>
       <c r="W23" s="6"/>
       <c r="X23" s="7" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
       <c r="AD23" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="AE23" s="7"/>
       <c r="AF23" s="8"/>
@@ -4893,7 +4992,7 @@
       <c r="AH23" s="7"/>
       <c r="AI23" s="8"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35">
       <c r="A24" s="5" t="s">
         <v>113</v>
       </c>
@@ -4921,7 +5020,7 @@
       <c r="W24" s="9"/>
       <c r="X24" s="10"/>
       <c r="Y24" s="10" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
@@ -4931,16 +5030,16 @@
       <c r="AE24" s="10"/>
       <c r="AF24" s="11"/>
       <c r="AG24" s="9" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="AH24" s="2" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="AI24" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35">
       <c r="A25" s="5" t="s">
         <v>114</v>
       </c>
@@ -4969,7 +5068,7 @@
       <c r="X25" s="10"/>
       <c r="Y25" s="10"/>
       <c r="Z25" s="10" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="AA25" s="10"/>
       <c r="AB25" s="10"/>
@@ -4978,16 +5077,16 @@
       <c r="AE25" s="10"/>
       <c r="AF25" s="11"/>
       <c r="AG25" s="9" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="AH25" s="2" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="AI25" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35">
       <c r="A26" s="5" t="s">
         <v>115</v>
       </c>
@@ -5015,28 +5114,28 @@
       <c r="W26" s="9"/>
       <c r="X26" s="10"/>
       <c r="Y26" s="10" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="Z26" s="10"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="10" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="AC26" s="10"/>
       <c r="AD26" s="10"/>
       <c r="AE26" s="10"/>
       <c r="AF26" s="11"/>
       <c r="AG26" s="9" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="AH26" s="10" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="AI26" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35">
       <c r="A27" s="5" t="s">
         <v>116</v>
       </c>
@@ -5067,23 +5166,23 @@
       <c r="Z27" s="10"/>
       <c r="AA27" s="10"/>
       <c r="AB27" s="10" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="AC27" s="10"/>
       <c r="AD27" s="10"/>
       <c r="AE27" s="10"/>
       <c r="AF27" s="11"/>
       <c r="AG27" s="9" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="AH27" s="2" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="AI27" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35">
       <c r="A28" s="5" t="s">
         <v>117</v>
       </c>
@@ -5115,22 +5214,22 @@
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
       <c r="AC28" s="10" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="AD28" s="10"/>
       <c r="AE28" s="10"/>
       <c r="AF28" s="11"/>
       <c r="AG28" s="9" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="AH28" s="2" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="AI28" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35">
       <c r="A29" s="5" t="s">
         <v>118</v>
       </c>
@@ -5161,25 +5260,25 @@
       <c r="Z29" s="10"/>
       <c r="AA29" s="10"/>
       <c r="AB29" s="10" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="AC29" s="10"/>
       <c r="AD29" s="10"/>
       <c r="AE29" s="10" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="AF29" s="11"/>
       <c r="AG29" s="9" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="AH29" s="10" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="AI29" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:35">
       <c r="A30" s="5" t="s">
         <v>119</v>
       </c>
@@ -5213,20 +5312,20 @@
       <c r="AC30" s="10"/>
       <c r="AD30" s="10"/>
       <c r="AE30" s="10" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="AF30" s="10"/>
       <c r="AG30" s="9" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="AH30" s="2" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AI30" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:35">
       <c r="A31" s="5" t="s">
         <v>120</v>
       </c>
@@ -5261,19 +5360,19 @@
       <c r="AD31" s="10"/>
       <c r="AE31" s="10"/>
       <c r="AF31" s="10" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="AG31" s="9" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="AH31" s="2" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AI31" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:35">
       <c r="A32" s="5" t="s">
         <v>121</v>
       </c>
@@ -5307,20 +5406,20 @@
       <c r="AC32" s="13"/>
       <c r="AD32" s="13"/>
       <c r="AE32" s="13" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="AF32" s="14"/>
       <c r="AG32" s="12" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="AH32" s="13" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="AI32" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35">
       <c r="A33" s="4" t="s">
         <v>72</v>
       </c>
@@ -5335,7 +5434,7 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="16" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10"/>
@@ -5363,7 +5462,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:35">
       <c r="A34" s="4" t="s">
         <v>41</v>
       </c>
@@ -5402,7 +5501,7 @@
       <c r="AH34" s="10"/>
       <c r="AI34" s="11"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:35">
       <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
@@ -5444,7 +5543,11 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5452,39 +5555,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="52" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.77734375" customWidth="1"/>
+    <col min="15" max="15" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" customWidth="1"/>
     <col min="17" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5513,18 +5616,18 @@
         <v>48</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="B2" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -5539,18 +5642,18 @@
         <v>3</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="B4" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="D4" s="2">
         <v>10</v>
@@ -5565,18 +5668,18 @@
         <v>71</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="B5" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="D5" s="2">
         <v>8</v>
@@ -5585,18 +5688,18 @@
         <v>185</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="B6" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="D6" s="2">
         <v>9</v>
@@ -5611,18 +5714,18 @@
         <v>188</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="B7" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="D7" s="2">
         <v>7</v>
@@ -5634,24 +5737,24 @@
         <v>185</v>
       </c>
       <c r="I7" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="J7" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="B8" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
@@ -5660,21 +5763,21 @@
         <v>184</v>
       </c>
       <c r="J8" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="B9" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="D9" s="2">
         <v>6</v>
@@ -5689,21 +5792,21 @@
         <v>187</v>
       </c>
       <c r="J9" t="s">
+        <v>477</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>485</v>
+      </c>
+      <c r="B10" t="s">
         <v>486</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>494</v>
-      </c>
-      <c r="B10" t="s">
-        <v>495</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="D10" s="2">
         <v>4</v>
@@ -5715,24 +5818,24 @@
         <v>184</v>
       </c>
       <c r="I10" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="J10" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B11" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="D11" s="2">
         <v>2</v>
@@ -5741,21 +5844,21 @@
         <v>183</v>
       </c>
       <c r="J11" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="B12" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="D12" s="2">
         <v>3</v>
@@ -5770,21 +5873,21 @@
         <v>186</v>
       </c>
       <c r="J12" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -5796,24 +5899,24 @@
         <v>183</v>
       </c>
       <c r="I13" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="J13" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="B15" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D15" s="2">
         <v>22</v>
@@ -5828,18 +5931,18 @@
         <v>72</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="B16" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D16" s="2">
         <v>9</v>
@@ -5854,18 +5957,18 @@
         <v>106</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B17" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D17" s="2">
         <v>10</v>
@@ -5880,18 +5983,18 @@
         <v>109</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="B18" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D18" s="2">
         <v>11</v>
@@ -5906,18 +6009,18 @@
         <v>112</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="B19" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D19" s="2">
         <v>19</v>
@@ -5932,18 +6035,18 @@
         <v>115</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="B20" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D20" s="2">
         <v>20</v>
@@ -5958,18 +6061,18 @@
         <v>118</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="B21" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D21" s="2">
         <v>21</v>
@@ -5984,18 +6087,18 @@
         <v>121</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="B22" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D22" s="2">
         <v>6</v>
@@ -6010,21 +6113,21 @@
         <v>105</v>
       </c>
       <c r="J22" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="B23" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D23" s="2">
         <v>7</v>
@@ -6039,21 +6142,21 @@
         <v>108</v>
       </c>
       <c r="J23" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="B24" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D24" s="2">
         <v>8</v>
@@ -6068,21 +6171,21 @@
         <v>111</v>
       </c>
       <c r="J24" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B25" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D25" s="2">
         <v>16</v>
@@ -6097,21 +6200,21 @@
         <v>114</v>
       </c>
       <c r="J25" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="B26" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D26" s="2">
         <v>17</v>
@@ -6126,21 +6229,21 @@
         <v>117</v>
       </c>
       <c r="J26" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="B27" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D27" s="2">
         <v>18</v>
@@ -6155,21 +6258,21 @@
         <v>120</v>
       </c>
       <c r="J27" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="B28" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D28" s="2">
         <v>3</v>
@@ -6184,21 +6287,21 @@
         <v>104</v>
       </c>
       <c r="J28" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="B29" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D29" s="2">
         <v>4</v>
@@ -6213,21 +6316,21 @@
         <v>107</v>
       </c>
       <c r="J29" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="B30" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D30" s="2">
         <v>5</v>
@@ -6242,21 +6345,21 @@
         <v>110</v>
       </c>
       <c r="J30" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="B31" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D31" s="2">
         <v>13</v>
@@ -6271,21 +6374,21 @@
         <v>113</v>
       </c>
       <c r="J31" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="B32" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D32" s="2">
         <v>14</v>
@@ -6300,21 +6403,21 @@
         <v>116</v>
       </c>
       <c r="J32" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="B33" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D33" s="2">
         <v>15</v>
@@ -6329,21 +6432,21 @@
         <v>119</v>
       </c>
       <c r="J33" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D34" s="2">
         <v>2</v>
@@ -6358,27 +6461,27 @@
         <v>181</v>
       </c>
       <c r="J34" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="K34" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="L34" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>154</v>
       </c>
       <c r="B35" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D35" s="2">
         <v>12</v>
@@ -6393,27 +6496,27 @@
         <v>182</v>
       </c>
       <c r="J35" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="K35" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="L35" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
@@ -6434,15 +6537,15 @@
         <v>154</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>77</v>
@@ -6460,13 +6563,13 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="K38" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="L38" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="M38" t="s">
         <v>49</v>
@@ -6475,15 +6578,15 @@
         <v>50</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>122</v>
       </c>
       <c r="B40" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="D40" s="2">
         <v>-1</v>
@@ -6495,15 +6598,15 @@
         <v>105</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>123</v>
       </c>
       <c r="B41" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="D41" s="2">
         <v>-1</v>
@@ -6515,15 +6618,15 @@
         <v>108</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>124</v>
       </c>
       <c r="B42" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="D42" s="2">
         <v>-1</v>
@@ -6535,15 +6638,15 @@
         <v>111</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>151</v>
       </c>
       <c r="B43" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="D43" s="2">
         <v>-1</v>
@@ -6555,15 +6658,15 @@
         <v>114</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>152</v>
       </c>
       <c r="B44" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="D44" s="2">
         <v>-1</v>
@@ -6575,15 +6678,15 @@
         <v>117</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>153</v>
       </c>
       <c r="B45" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="D45" s="2">
         <v>-1</v>
@@ -6595,15 +6698,15 @@
         <v>120</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>126</v>
       </c>
       <c r="B46" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="D46" s="2">
         <v>-1</v>
@@ -6618,15 +6721,15 @@
         <v>122</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>127</v>
       </c>
       <c r="B47" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="D47" s="2">
         <v>-1</v>
@@ -6641,15 +6744,15 @@
         <v>123</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>128</v>
       </c>
       <c r="B48" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="D48" s="2">
         <v>-1</v>
@@ -6664,15 +6767,15 @@
         <v>124</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>155</v>
       </c>
       <c r="B49" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="D49" s="2">
         <v>-1</v>
@@ -6687,15 +6790,15 @@
         <v>151</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>156</v>
       </c>
       <c r="B50" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="D50" s="2">
         <v>-1</v>
@@ -6711,15 +6814,15 @@
       </c>
       <c r="N50" s="15"/>
       <c r="O50" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>157</v>
       </c>
       <c r="B51" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="D51" s="2">
         <v>-1</v>
@@ -6734,15 +6837,15 @@
         <v>153</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="D53" s="2">
         <v>-1</v>
@@ -6757,15 +6860,15 @@
         <v>49</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="B54" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="D54" s="2">
         <v>-1</v>
@@ -6777,18 +6880,18 @@
         <v>51</v>
       </c>
       <c r="I54" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="B55" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="D55" s="2">
         <v>-1</v>
@@ -6800,18 +6903,18 @@
         <v>51</v>
       </c>
       <c r="I55" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="B56" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="D56" s="2">
         <v>-1</v>
@@ -6823,18 +6926,18 @@
         <v>51</v>
       </c>
       <c r="I56" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="B57" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="D57" s="2">
         <v>-1</v>
@@ -6846,18 +6949,18 @@
         <v>51</v>
       </c>
       <c r="I57" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="B58" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="D58" s="2">
         <v>-1</v>
@@ -6869,18 +6972,18 @@
         <v>51</v>
       </c>
       <c r="I58" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="B59" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D59" s="2">
         <v>-1</v>
@@ -6892,18 +6995,18 @@
         <v>51</v>
       </c>
       <c r="I59" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" t="s">
         <v>129</v>
       </c>
       <c r="B60" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="D60" s="2">
         <v>-1</v>
@@ -6918,15 +7021,15 @@
         <v>125</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" t="s">
         <v>158</v>
       </c>
       <c r="B61" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="D61" s="2">
         <v>-1</v>
@@ -6941,15 +7044,15 @@
         <v>154</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" t="s">
         <v>53</v>
       </c>
       <c r="B62" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="D62" s="2">
         <v>-1</v>
@@ -6964,15 +7067,15 @@
         <v>50</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" t="s">
         <v>318</v>
       </c>
       <c r="B64" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="D64" s="2">
         <v>-1</v>
@@ -6981,15 +7084,15 @@
         <v>41</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="B66" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="D66" s="2">
         <v>-1</v>
@@ -7001,18 +7104,18 @@
         <v>49</v>
       </c>
       <c r="I66" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="B67" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="D67" s="2">
         <v>-1</v>
@@ -7021,21 +7124,21 @@
         <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="I67" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="B68" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="D68" s="2">
         <v>-1</v>
@@ -7044,21 +7147,21 @@
         <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="I68" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="B69" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="D69" s="2">
         <v>-1</v>
@@ -7067,21 +7170,21 @@
         <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="I69" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="B70" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="D70" s="2">
         <v>-1</v>
@@ -7090,21 +7193,21 @@
         <v>47</v>
       </c>
       <c r="H70" t="s">
+        <v>505</v>
+      </c>
+      <c r="I70" t="s">
         <v>514</v>
       </c>
-      <c r="I70" t="s">
-        <v>523</v>
-      </c>
       <c r="O70" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="B71" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="D71" s="2">
         <v>-1</v>
@@ -7113,21 +7216,21 @@
         <v>47</v>
       </c>
       <c r="H71" t="s">
+        <v>506</v>
+      </c>
+      <c r="I71" t="s">
         <v>515</v>
       </c>
-      <c r="I71" t="s">
-        <v>524</v>
-      </c>
       <c r="O71" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="B72" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="D72" s="2">
         <v>-1</v>
@@ -7136,21 +7239,21 @@
         <v>47</v>
       </c>
       <c r="H72" t="s">
+        <v>507</v>
+      </c>
+      <c r="I72" t="s">
         <v>516</v>
       </c>
-      <c r="I72" t="s">
-        <v>525</v>
-      </c>
       <c r="O72" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="B73" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D73" s="2">
         <v>-1</v>
@@ -7159,21 +7262,21 @@
         <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="I73" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="B74" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D74" s="2">
         <v>-1</v>
@@ -7182,21 +7285,21 @@
         <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="I74" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="B75" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="D75" s="2">
         <v>-1</v>
@@ -7205,21 +7308,21 @@
         <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="I75" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="B76" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="D76" s="2">
         <v>-1</v>
@@ -7228,21 +7331,21 @@
         <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="I76" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="B77" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="D77" s="2">
         <v>-1</v>
@@ -7251,21 +7354,21 @@
         <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="I77" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="B78" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="D78" s="2">
         <v>-1</v>
@@ -7274,21 +7377,21 @@
         <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="I78" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="B79" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="D79" s="2">
         <v>-1</v>
@@ -7297,18 +7400,22 @@
         <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="I79" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7316,18 +7423,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.83203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="10" style="2" customWidth="1"/>
     <col min="8" max="8" width="128.33203125" style="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="40" customWidth="1"/>
@@ -7335,7 +7442,7 @@
     <col min="15" max="15" width="75.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="2" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -7355,7 +7462,7 @@
         <v>59</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>103</v>
@@ -7364,42 +7471,42 @@
         <v>262</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="F2" s="2">
         <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="I2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="16" customHeight="1">
       <c r="A3" t="s">
         <v>288</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="F3" s="2">
         <v>3</v>
@@ -7408,19 +7515,19 @@
         <v>273</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>276</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="F4" s="2">
         <v>4</v>
@@ -7429,19 +7536,19 @@
         <v>285</v>
       </c>
       <c r="J4" s="40" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16" customHeight="1">
       <c r="A5" t="s">
         <v>289</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="F5" s="2">
         <v>5</v>
@@ -7450,19 +7557,19 @@
         <v>274</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16" customHeight="1">
       <c r="A6" t="s">
         <v>290</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="F6" s="2">
         <v>6</v>
@@ -7471,15 +7578,15 @@
         <v>275</v>
       </c>
       <c r="J6" s="40" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>199</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="C7" t="s">
         <v>208</v>
@@ -7488,19 +7595,19 @@
         <v>-1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="H7" s="23" t="s">
         <v>288</v>
       </c>
       <c r="I7" s="23"/>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>209</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C8" t="s">
         <v>215</v>
@@ -7509,18 +7616,18 @@
         <v>-1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="H8" s="23" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>210</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C9" t="s">
         <v>216</v>
@@ -7529,18 +7636,18 @@
         <v>-1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="H9" s="23" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>211</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C10" t="s">
         <v>217</v>
@@ -7549,18 +7656,18 @@
         <v>-1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="H10" s="23" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>202</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C11" t="s">
         <v>218</v>
@@ -7569,18 +7676,18 @@
         <v>-1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="H11" s="23" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>212</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C12" t="s">
         <v>219</v>
@@ -7589,18 +7696,18 @@
         <v>-1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="H12" s="23" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>213</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C13" t="s">
         <v>220</v>
@@ -7609,18 +7716,18 @@
         <v>-1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="H13" s="23" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>214</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C14" t="s">
         <v>221</v>
@@ -7629,17 +7736,17 @@
         <v>-1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="H14" s="23" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="B15" s="2"/>
       <c r="J15" s="40"/>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>284</v>
       </c>
@@ -7651,16 +7758,16 @@
         <v>1E-3</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="I16" t="s">
         <v>286</v>
       </c>
       <c r="J16" s="39" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>268</v>
       </c>
@@ -7672,16 +7779,16 @@
         <v>0.09</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="I17" t="s">
         <v>287</v>
       </c>
       <c r="J17" s="42" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16" customHeight="1">
       <c r="A18" t="s">
         <v>271</v>
       </c>
@@ -7693,21 +7800,21 @@
         <v>0.115</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="I18" t="s">
         <v>316</v>
       </c>
       <c r="J18" s="39" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>222</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C19" t="s">
         <v>224</v>
@@ -7716,19 +7823,19 @@
         <v>-1</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="H19" s="23" t="s">
         <v>299</v>
       </c>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>223</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C20" t="s">
         <v>225</v>
@@ -7737,18 +7844,18 @@
         <v>-1</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="H20" s="23" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>198</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C21" t="s">
         <v>204</v>
@@ -7757,18 +7864,18 @@
         <v>-1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="H21" s="23" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>200</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C22" t="s">
         <v>205</v>
@@ -7777,18 +7884,18 @@
         <v>-1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="H22" s="23" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>201</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C23" t="s">
         <v>206</v>
@@ -7797,18 +7904,18 @@
         <v>-1</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="H23" s="23" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>203</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C24" t="s">
         <v>207</v>
@@ -7817,28 +7924,28 @@
         <v>-1</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="H24" s="23" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>265</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="D26" s="2">
         <v>0.5</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="F26" s="2">
         <v>1</v>
@@ -7847,22 +7954,22 @@
         <v>293</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>266</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="D27" s="2">
         <v>0.5</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="F27" s="2">
         <v>2</v>
@@ -7871,22 +7978,22 @@
         <v>294</v>
       </c>
       <c r="J27" s="40" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>267</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D28" s="2">
         <v>4</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="F28" s="2">
         <v>3</v>
@@ -7895,10 +8002,10 @@
         <v>295</v>
       </c>
       <c r="J28" s="41" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>130</v>
       </c>
@@ -7907,7 +8014,7 @@
         <v>230</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="F29" s="2">
         <v>4</v>
@@ -7916,19 +8023,19 @@
         <v>321</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="28">
       <c r="A30" t="s">
         <v>258</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="D30" s="2">
         <v>0.22</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="F30" s="2">
         <v>5</v>
@@ -7937,22 +8044,22 @@
         <v>264</v>
       </c>
       <c r="J30" s="36" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="42">
       <c r="A31" s="43" t="s">
         <v>297</v>
       </c>
       <c r="B31" s="44"/>
       <c r="C31" s="43" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="F31" s="44">
         <v>6</v>
@@ -7961,22 +8068,22 @@
         <v>314</v>
       </c>
       <c r="J31" s="45" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="43" t="s">
         <v>298</v>
       </c>
       <c r="B32" s="44"/>
       <c r="C32" s="43" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="F32" s="44">
         <v>7</v>
@@ -7985,10 +8092,10 @@
         <v>315</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>131</v>
       </c>
@@ -8000,16 +8107,16 @@
         <v>-1</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="H33" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="I33" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>132</v>
       </c>
@@ -8021,16 +8128,16 @@
         <v>-1</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="H34" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="I34" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>159</v>
       </c>
@@ -8042,16 +8149,16 @@
         <v>-1</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="H35" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="I35" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>160</v>
       </c>
@@ -8063,16 +8170,16 @@
         <v>-1</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="H36" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="I36" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>161</v>
       </c>
@@ -8084,16 +8191,16 @@
         <v>-1</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="H37" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="I37" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>259</v>
       </c>
@@ -8105,18 +8212,18 @@
         <v>-1</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="H38" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C39" t="s">
         <v>226</v>
@@ -8125,19 +8232,19 @@
         <v>-1</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="H39" s="23" t="s">
         <v>259</v>
       </c>
       <c r="I39" s="23"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C40" t="s">
         <v>227</v>
@@ -8146,18 +8253,18 @@
         <v>-1</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="H40" s="23" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>66</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C41" t="s">
         <v>228</v>
@@ -8166,18 +8273,18 @@
         <v>-1</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="H41" s="23" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>67</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C42" t="s">
         <v>229</v>
@@ -8186,17 +8293,17 @@
         <v>-1</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="H42" s="23" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15">
       <c r="B43" s="2"/>
       <c r="H43"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>251</v>
       </c>
@@ -8213,13 +8320,13 @@
         <v>2</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="I44" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -8236,25 +8343,25 @@
         <v>3</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="I45" t="s">
         <v>317</v>
       </c>
       <c r="J45" s="23"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15">
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="28">
       <c r="A47" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="C47" t="s">
-        <v>621</v>
-      </c>
-      <c r="D47" s="2">
-        <v>1</v>
+        <v>612</v>
+      </c>
+      <c r="D47" s="35">
+        <v>0.7</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>253</v>
@@ -8263,17 +8370,20 @@
         <v>1</v>
       </c>
       <c r="H47"/>
+      <c r="J47" s="53" t="s">
+        <v>632</v>
+      </c>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" ht="28">
       <c r="A48" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="C48" t="s">
-        <v>622</v>
-      </c>
-      <c r="D48" s="2">
-        <v>1</v>
+        <v>613</v>
+      </c>
+      <c r="D48" s="35">
+        <v>0.27150000000000002</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>253</v>
@@ -8282,17 +8392,20 @@
         <v>2</v>
       </c>
       <c r="H48"/>
+      <c r="J48" s="53" t="s">
+        <v>620</v>
+      </c>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="C49" t="s">
-        <v>623</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1</v>
+        <v>614</v>
+      </c>
+      <c r="D49" s="35">
+        <v>2.8500000000000001E-2</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>253</v>
@@ -8301,17 +8414,20 @@
         <v>3</v>
       </c>
       <c r="H49"/>
+      <c r="J49" s="37" t="s">
+        <v>621</v>
+      </c>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" ht="28">
       <c r="A50" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="C50" t="s">
-        <v>624</v>
-      </c>
-      <c r="D50" s="2">
-        <v>1</v>
+        <v>615</v>
+      </c>
+      <c r="D50" s="35">
+        <v>0.7</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>253</v>
@@ -8320,17 +8436,20 @@
         <v>4</v>
       </c>
       <c r="H50"/>
+      <c r="J50" s="36" t="s">
+        <v>622</v>
+      </c>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="C51" t="s">
-        <v>625</v>
-      </c>
-      <c r="D51" s="2">
-        <v>1</v>
+        <v>616</v>
+      </c>
+      <c r="D51" s="35">
+        <v>0.27150000000000002</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>253</v>
@@ -8339,17 +8458,20 @@
         <v>5</v>
       </c>
       <c r="H51"/>
+      <c r="J51" s="36" t="s">
+        <v>623</v>
+      </c>
       <c r="O51" s="2"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="C52" t="s">
-        <v>626</v>
-      </c>
-      <c r="D52" s="2">
-        <v>1</v>
+        <v>617</v>
+      </c>
+      <c r="D52" s="35">
+        <v>2.8500000000000001E-2</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>253</v>
@@ -8358,196 +8480,204 @@
         <v>6</v>
       </c>
       <c r="H52"/>
+      <c r="J52" s="36" t="s">
+        <v>623</v>
+      </c>
       <c r="O52" s="2"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="C53" t="s">
-        <v>627</v>
-      </c>
+        <v>618</v>
+      </c>
+      <c r="D53"/>
       <c r="E53" s="52"/>
       <c r="F53" s="2">
         <v>-1</v>
       </c>
       <c r="H53" t="s">
+        <v>610</v>
+      </c>
+      <c r="O53" s="2"/>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" t="s">
+        <v>609</v>
+      </c>
+      <c r="C54" t="s">
         <v>619</v>
       </c>
-      <c r="O53" s="2"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>618</v>
-      </c>
-      <c r="C54" t="s">
-        <v>628</v>
-      </c>
+      <c r="D54"/>
       <c r="E54" s="52"/>
       <c r="F54" s="2">
         <v>-1</v>
       </c>
       <c r="H54" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="O54" s="2"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
         <v>133</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C55" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="F55" s="2">
         <v>-1</v>
       </c>
       <c r="H55" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
         <v>162</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C56" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="F56" s="2">
         <v>-1</v>
       </c>
       <c r="H56" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
         <v>134</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C57" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="F57" s="2">
         <v>-1</v>
       </c>
       <c r="H57" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
         <v>135</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C58" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="F58" s="2">
         <v>-1</v>
       </c>
       <c r="H58" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" t="s">
         <v>136</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C59" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="F59" s="2">
         <v>-1</v>
       </c>
       <c r="H59" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" t="s">
         <v>163</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="F60" s="2">
         <v>-1</v>
       </c>
       <c r="H60" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="J60" s="23"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15">
       <c r="A61" t="s">
         <v>164</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="F61" s="2">
         <v>-1</v>
       </c>
       <c r="H61" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="J61" s="23"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15">
       <c r="A62" t="s">
         <v>165</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C62" s="43" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F62" s="2">
         <v>-1</v>
       </c>
       <c r="H62" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="J62" s="23"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15">
       <c r="B63" s="2"/>
       <c r="C63" s="43"/>
       <c r="J63" s="23"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" ht="28">
       <c r="A64" t="s">
         <v>137</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C64" t="s">
         <v>78</v>
       </c>
+      <c r="D64" s="2">
+        <v>0.59</v>
+      </c>
       <c r="E64" s="2" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F64" s="2">
         <v>1</v>
@@ -8555,100 +8685,112 @@
       <c r="I64" t="s">
         <v>277</v>
       </c>
-      <c r="J64" s="35" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J64" s="53" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>138</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C65" t="s">
         <v>79</v>
       </c>
+      <c r="D65" s="54">
+        <v>0.59</v>
+      </c>
       <c r="E65" s="2" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F65" s="2">
         <v>2</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="I65" t="s">
         <v>278</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>139</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C66" t="s">
         <v>80</v>
       </c>
+      <c r="D66" s="2">
+        <v>0.05</v>
+      </c>
       <c r="E66" s="2" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F66" s="2">
         <v>3</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="I66" t="s">
         <v>279</v>
       </c>
       <c r="J66" s="35" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>140</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C67" t="s">
         <v>81</v>
       </c>
+      <c r="D67" s="2">
+        <v>0.83</v>
+      </c>
       <c r="E67" s="2" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F67" s="2">
         <v>4</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="I67" t="s">
         <v>280</v>
       </c>
       <c r="J67" s="35" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="28">
       <c r="A68" t="s">
         <v>142</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C68" t="s">
         <v>82</v>
       </c>
+      <c r="D68" s="2">
+        <v>0.59</v>
+      </c>
       <c r="E68" s="2" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F68" s="2">
         <v>5</v>
@@ -8656,100 +8798,112 @@
       <c r="I68" t="s">
         <v>277</v>
       </c>
-      <c r="J68" s="35" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J68" s="53" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>143</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C69" t="s">
         <v>83</v>
       </c>
+      <c r="D69" s="2">
+        <v>0.37</v>
+      </c>
       <c r="E69" s="2" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F69" s="2">
         <v>6</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="I69" t="s">
         <v>278</v>
       </c>
       <c r="J69" s="35" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>144</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C70" t="s">
         <v>84</v>
       </c>
+      <c r="D70" s="2">
+        <v>0.24</v>
+      </c>
       <c r="E70" s="2" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F70" s="2">
         <v>7</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="I70" t="s">
         <v>279</v>
       </c>
       <c r="J70" s="35" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>145</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C71" t="s">
         <v>85</v>
       </c>
+      <c r="D71" s="2">
+        <v>0.52</v>
+      </c>
       <c r="E71" s="2" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F71" s="2">
         <v>8</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="I71" t="s">
         <v>280</v>
       </c>
       <c r="J71" s="35" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="28">
       <c r="A72" t="s">
         <v>147</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C72" t="s">
         <v>86</v>
       </c>
+      <c r="D72" s="2">
+        <v>0.59</v>
+      </c>
       <c r="E72" s="2" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F72" s="35">
         <v>9</v>
@@ -8757,22 +8911,25 @@
       <c r="I72" t="s">
         <v>277</v>
       </c>
-      <c r="J72" s="35" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J72" s="53" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>148</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C73" t="s">
         <v>87</v>
       </c>
+      <c r="D73" s="2">
+        <v>0.37</v>
+      </c>
       <c r="E73" s="2" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F73" s="2">
         <v>10</v>
@@ -8781,21 +8938,24 @@
         <v>278</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>149</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="C74" t="s">
         <v>88</v>
       </c>
+      <c r="D74" s="2">
+        <v>0.44</v>
+      </c>
       <c r="E74" s="2" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F74" s="35">
         <v>11</v>
@@ -8803,22 +8963,25 @@
       <c r="I74" t="s">
         <v>279</v>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J74" s="35" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>150</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C75" t="s">
         <v>89</v>
       </c>
+      <c r="D75" s="2">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="E75" s="2" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F75" s="2">
         <v>12</v>
@@ -8826,22 +8989,25 @@
       <c r="I75" t="s">
         <v>280</v>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J75" s="35" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="28">
       <c r="A76" t="s">
         <v>166</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C76" s="43" t="s">
         <v>90</v>
       </c>
+      <c r="D76" s="2">
+        <v>0.59</v>
+      </c>
       <c r="E76" s="2" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F76" s="35">
         <v>13</v>
@@ -8849,98 +9015,112 @@
       <c r="I76" t="s">
         <v>277</v>
       </c>
-      <c r="J76" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J76" s="53" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>167</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="C77" s="43" t="s">
         <v>91</v>
       </c>
+      <c r="D77" s="54">
+        <v>0.59</v>
+      </c>
       <c r="E77" s="2" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F77" s="2">
         <v>14</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="I77" t="s">
         <v>278</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>168</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C78" s="43" t="s">
         <v>92</v>
       </c>
+      <c r="D78" s="2">
+        <v>0.05</v>
+      </c>
       <c r="E78" s="2" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F78" s="35">
         <v>15</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="I78" t="s">
         <v>279</v>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J78" s="35" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>169</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="C79" s="43" t="s">
         <v>93</v>
       </c>
+      <c r="D79" s="2">
+        <v>0.83</v>
+      </c>
       <c r="E79" s="2" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F79" s="2">
         <v>16</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="I79" t="s">
         <v>280</v>
       </c>
-      <c r="J79" s="23"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J79" s="35" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="28">
       <c r="A80" t="s">
         <v>171</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C80" s="43" t="s">
         <v>94</v>
       </c>
+      <c r="D80" s="2">
+        <v>0.59</v>
+      </c>
       <c r="E80" s="2" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F80" s="35">
         <v>17</v>
@@ -8948,98 +9128,112 @@
       <c r="I80" t="s">
         <v>277</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J80" s="53" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81" t="s">
         <v>172</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C81" s="43" t="s">
         <v>95</v>
       </c>
+      <c r="D81" s="2">
+        <v>0.37</v>
+      </c>
       <c r="E81" s="2" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F81" s="2">
         <v>18</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="I81" t="s">
         <v>278</v>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J81" s="35" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82" t="s">
         <v>173</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C82" s="43" t="s">
         <v>96</v>
       </c>
+      <c r="D82" s="2">
+        <v>0.24</v>
+      </c>
       <c r="E82" s="2" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F82" s="35">
         <v>19</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="I82" t="s">
         <v>279</v>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J82" s="35" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" t="s">
         <v>174</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C83" s="43" t="s">
         <v>97</v>
       </c>
+      <c r="D83" s="2">
+        <v>0.52</v>
+      </c>
       <c r="E83" s="2" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F83" s="2">
         <v>20</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="I83" t="s">
         <v>280</v>
       </c>
-      <c r="J83" s="23"/>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J83" s="35" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="28">
       <c r="A84" t="s">
         <v>176</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="C84" s="43" t="s">
         <v>98</v>
       </c>
+      <c r="D84" s="2">
+        <v>0.59</v>
+      </c>
       <c r="E84" s="2" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F84" s="35">
         <v>21</v>
@@ -9047,22 +9241,25 @@
       <c r="I84" t="s">
         <v>277</v>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J84" s="53" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85" t="s">
         <v>177</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C85" s="43" t="s">
         <v>99</v>
       </c>
+      <c r="D85" s="2">
+        <v>0.37</v>
+      </c>
       <c r="E85" s="2" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F85" s="2">
         <v>22</v>
@@ -9071,21 +9268,24 @@
         <v>278</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86" t="s">
         <v>178</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C86" s="43" t="s">
         <v>100</v>
       </c>
+      <c r="D86" s="2">
+        <v>0.44</v>
+      </c>
       <c r="E86" s="2" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F86" s="35">
         <v>23</v>
@@ -9093,22 +9293,25 @@
       <c r="I86" t="s">
         <v>279</v>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J86" s="35" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87" t="s">
         <v>179</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C87" s="43" t="s">
         <v>101</v>
       </c>
+      <c r="D87" s="2">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="E87" s="2" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F87" s="2">
         <v>24</v>
@@ -9116,20 +9319,20 @@
       <c r="I87" t="s">
         <v>280</v>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J87" s="35" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="B88" s="2"/>
       <c r="J88" s="2"/>
     </row>
-    <row r="89" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" ht="56">
       <c r="A89" t="s">
         <v>305</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="C89" t="s">
         <v>308</v>
@@ -9138,7 +9341,7 @@
         <v>0.2</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F89" s="2">
         <v>1</v>
@@ -9147,15 +9350,15 @@
         <v>301</v>
       </c>
       <c r="J89" s="46" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="42">
       <c r="A90" t="s">
         <v>302</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C90" t="s">
         <v>309</v>
@@ -9164,7 +9367,7 @@
         <v>0.15</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F90" s="2">
         <v>2</v>
@@ -9173,18 +9376,18 @@
         <v>301</v>
       </c>
       <c r="J90" s="46" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="O90" s="45" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91" t="s">
         <v>303</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C91" t="s">
         <v>310</v>
@@ -9193,7 +9396,7 @@
         <v>0.15</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F91" s="37">
         <v>3</v>
@@ -9202,15 +9405,15 @@
         <v>301</v>
       </c>
       <c r="J91" s="47" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92" t="s">
         <v>304</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C92" t="s">
         <v>311</v>
@@ -9219,7 +9422,7 @@
         <v>0.2</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F92" s="2">
         <v>4</v>
@@ -9228,15 +9431,15 @@
         <v>301</v>
       </c>
       <c r="J92" s="45" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93" t="s">
         <v>307</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C93" t="s">
         <v>312</v>
@@ -9245,7 +9448,7 @@
         <v>0.15</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F93" s="2">
         <v>5</v>
@@ -9254,15 +9457,15 @@
         <v>301</v>
       </c>
       <c r="J93" s="45" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94" t="s">
         <v>306</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C94" t="s">
         <v>313</v>
@@ -9271,7 +9474,7 @@
         <v>0.15</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F94" s="2">
         <v>6</v>
@@ -9280,21 +9483,21 @@
         <v>301</v>
       </c>
       <c r="J94" s="48" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95" t="s">
         <v>170</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C95" s="43" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F95" s="2">
         <v>7</v>
@@ -9304,18 +9507,18 @@
       </c>
       <c r="J95" s="23"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15">
       <c r="A96" t="s">
         <v>175</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C96" s="43" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F96" s="2">
         <v>8</v>
@@ -9325,18 +9528,18 @@
       </c>
       <c r="J96" s="23"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
         <v>141</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="C97" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F97" s="2">
         <v>9</v>
@@ -9346,18 +9549,18 @@
       </c>
       <c r="J97" s="23"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
         <v>146</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C98" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F98" s="2">
         <v>10</v>
@@ -9367,152 +9570,152 @@
       </c>
       <c r="J98" s="23"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10">
       <c r="B99" s="2"/>
       <c r="J99" s="23"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C100" s="43" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="D100" s="2">
         <v>0.7</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="F100" s="2">
         <v>1</v>
       </c>
       <c r="J100" s="38" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C101" s="43" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="D101" s="2">
         <v>0.7</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="F101" s="2">
         <v>2</v>
       </c>
       <c r="J101" s="38" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C102" s="43" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="D102" s="2">
         <v>0.7</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="F102" s="2">
         <v>3</v>
       </c>
       <c r="J102" s="38" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="C103" t="s">
+        <v>445</v>
+      </c>
+      <c r="D103" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="D103" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>463</v>
       </c>
       <c r="F103" s="2">
         <v>4</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="I103" t="s">
         <v>261</v>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J103" s="35" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C104" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="D104" s="2">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="F104" s="35">
         <v>5</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="I104" t="s">
         <v>261</v>
       </c>
-      <c r="J104" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J104" s="35" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C105" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="D105" s="2">
-        <v>0.11</v>
+        <v>0.27</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="F105" s="2">
         <v>6</v>
@@ -9520,152 +9723,152 @@
       <c r="I105" t="s">
         <v>261</v>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J105" s="35" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="C106" s="43" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="D106" s="2">
         <v>0.2</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="F106" s="2">
         <v>7</v>
       </c>
       <c r="J106" s="38" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C107" s="43" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="D107" s="2">
         <v>0.2</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="F107" s="2">
         <v>8</v>
       </c>
       <c r="J107" s="38" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C108" s="43" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="D108" s="2">
         <v>0.2</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="F108" s="2">
         <v>9</v>
       </c>
       <c r="J108" s="38" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C109" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D109" s="2">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="F109" s="2">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="I109" t="s">
         <v>261</v>
       </c>
-      <c r="J109" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J109" s="35" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C110" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="D110" s="2">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="F110" s="35">
         <v>11</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="I110" t="s">
         <v>261</v>
       </c>
-      <c r="J110" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J110" s="35" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C111" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="D111" s="2">
-        <v>0.11</v>
+        <v>0.27</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="F111" s="2">
         <v>12</v>
@@ -9673,27 +9876,32 @@
       <c r="I111" t="s">
         <v>261</v>
       </c>
-      <c r="J111" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J111" s="35" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="B112" s="2"/>
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="10:10">
       <c r="J113" s="49"/>
     </row>
-    <row r="114" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="10:10">
       <c r="J114" s="49"/>
     </row>
-    <row r="115" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="10:10">
       <c r="J115" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9705,17 +9913,22 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>246</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/project/cascade-belarus.xlsx
+++ b/project/cascade-belarus.xlsx
@@ -2052,12 +2052,6 @@
     <t>New Smear-Negative Cases</t>
   </si>
   <si>
-    <t>The WHO 30% global estimate groups together RR/MDR and XDR. WHO global estimate for XDR-TB is 9.5% of all drug resistant TB (30%).</t>
-  </si>
-  <si>
-    <t>GAJ assumed that XDR = 0.3 * 0.095 (i.e. 0.0285) and MDR = 0.3- 0.0285 (i.e. 0.2715)</t>
-  </si>
-  <si>
     <t>WHO Global Tuberculosis report 2016 disaggregation for resistance encompasses both smear+ and smear-. Assume resistance values are the same for smear-</t>
   </si>
   <si>
@@ -2123,7 +2117,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">WHO Global Tuberculosis report 2016 estimates 30% of new cases globally are M/XDR-TB. So DS-Tb therefore accounts for approximately 70% of </t>
+      <t xml:space="preserve">WHO Global Tuberculosis report 2016 estimates 3.9% of new cases globally are M/XDR-TB. So DS-Tb therefore accounts for approximately 96.1% of </t>
     </r>
     <r>
       <rPr>
@@ -2145,6 +2139,12 @@
       </rPr>
       <t xml:space="preserve"> cases</t>
     </r>
+  </si>
+  <si>
+    <t>The WHO 30% global estimate groups together RR/MDR and XDR. WHO global estimate for XDR-TB is 9.5% of all drug resistant TB (3.9%).</t>
+  </si>
+  <si>
+    <t>GAJ assumed that XDR = 0.039 * 0.095 (i.e. 0.003705) and MDR = 0.39- 0.003705 (i.e. 0.035295)</t>
   </si>
 </sst>
 </file>
@@ -2546,11 +2546,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="116">
+  <cellStyleXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2823,7 +2833,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="116">
+  <cellStyles count="126">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -2881,6 +2891,11 @@
     <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2938,6 +2953,11 @@
     <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -7423,8 +7443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8361,7 +8381,7 @@
         <v>612</v>
       </c>
       <c r="D47" s="35">
-        <v>0.7</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>253</v>
@@ -8371,7 +8391,7 @@
       </c>
       <c r="H47"/>
       <c r="J47" s="53" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="O47" s="2"/>
     </row>
@@ -8383,7 +8403,7 @@
         <v>613</v>
       </c>
       <c r="D48" s="35">
-        <v>0.27150000000000002</v>
+        <v>3.5295E-2</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>253</v>
@@ -8393,7 +8413,7 @@
       </c>
       <c r="H48"/>
       <c r="J48" s="53" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="O48" s="2"/>
     </row>
@@ -8405,7 +8425,7 @@
         <v>614</v>
       </c>
       <c r="D49" s="35">
-        <v>2.8500000000000001E-2</v>
+        <v>3.705E-3</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>253</v>
@@ -8415,7 +8435,7 @@
       </c>
       <c r="H49"/>
       <c r="J49" s="37" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="O49" s="2"/>
     </row>
@@ -8427,7 +8447,7 @@
         <v>615</v>
       </c>
       <c r="D50" s="35">
-        <v>0.7</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>253</v>
@@ -8437,7 +8457,7 @@
       </c>
       <c r="H50"/>
       <c r="J50" s="36" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="O50" s="2"/>
     </row>
@@ -8449,7 +8469,7 @@
         <v>616</v>
       </c>
       <c r="D51" s="35">
-        <v>0.27150000000000002</v>
+        <v>3.5295E-2</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>253</v>
@@ -8459,7 +8479,7 @@
       </c>
       <c r="H51"/>
       <c r="J51" s="36" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="O51" s="2"/>
     </row>
@@ -8471,7 +8491,7 @@
         <v>617</v>
       </c>
       <c r="D52" s="35">
-        <v>2.8500000000000001E-2</v>
+        <v>3.705E-3</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>253</v>
@@ -8481,7 +8501,7 @@
       </c>
       <c r="H52"/>
       <c r="J52" s="36" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="O52" s="2"/>
     </row>
@@ -8686,7 +8706,7 @@
         <v>277</v>
       </c>
       <c r="J64" s="53" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -8715,7 +8735,7 @@
         <v>278</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -8744,7 +8764,7 @@
         <v>279</v>
       </c>
       <c r="J66" s="35" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -8773,7 +8793,7 @@
         <v>280</v>
       </c>
       <c r="J67" s="35" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="28">
@@ -8799,7 +8819,7 @@
         <v>277</v>
       </c>
       <c r="J68" s="53" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -8828,7 +8848,7 @@
         <v>278</v>
       </c>
       <c r="J69" s="35" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -8857,7 +8877,7 @@
         <v>279</v>
       </c>
       <c r="J70" s="35" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -8886,7 +8906,7 @@
         <v>280</v>
       </c>
       <c r="J71" s="35" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="28">
@@ -8912,7 +8932,7 @@
         <v>277</v>
       </c>
       <c r="J72" s="53" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -8964,7 +8984,7 @@
         <v>279</v>
       </c>
       <c r="J74" s="35" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -8990,7 +9010,7 @@
         <v>280</v>
       </c>
       <c r="J75" s="35" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="28">
@@ -9016,7 +9036,7 @@
         <v>277</v>
       </c>
       <c r="J76" s="53" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -9045,7 +9065,7 @@
         <v>278</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -9074,7 +9094,7 @@
         <v>279</v>
       </c>
       <c r="J78" s="35" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -9103,7 +9123,7 @@
         <v>280</v>
       </c>
       <c r="J79" s="35" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="28">
@@ -9129,7 +9149,7 @@
         <v>277</v>
       </c>
       <c r="J80" s="53" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -9158,7 +9178,7 @@
         <v>278</v>
       </c>
       <c r="J81" s="35" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -9187,7 +9207,7 @@
         <v>279</v>
       </c>
       <c r="J82" s="35" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -9216,7 +9236,7 @@
         <v>280</v>
       </c>
       <c r="J83" s="35" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="28">
@@ -9242,7 +9262,7 @@
         <v>277</v>
       </c>
       <c r="J84" s="53" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -9294,7 +9314,7 @@
         <v>279</v>
       </c>
       <c r="J86" s="35" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -9320,7 +9340,7 @@
         <v>280</v>
       </c>
       <c r="J87" s="35" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -9669,7 +9689,7 @@
         <v>261</v>
       </c>
       <c r="J103" s="35" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -9698,7 +9718,7 @@
         <v>261</v>
       </c>
       <c r="J104" s="35" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -9724,7 +9744,7 @@
         <v>261</v>
       </c>
       <c r="J105" s="35" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -9822,7 +9842,7 @@
         <v>261</v>
       </c>
       <c r="J109" s="35" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -9851,7 +9871,7 @@
         <v>261</v>
       </c>
       <c r="J110" s="35" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -9877,7 +9897,7 @@
         <v>261</v>
       </c>
       <c r="J111" s="35" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="112" spans="1:10">

--- a/project/cascade-belarus.xlsx
+++ b/project/cascade-belarus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="0" windowWidth="23320" windowHeight="15280" activeTab="4"/>
+    <workbookView xWindow="2420" yWindow="460" windowWidth="24480" windowHeight="15460" tabRatio="647" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Databook Sheet Names" sheetId="5" r:id="rId1"/>
@@ -806,9 +806,6 @@
     <t>D1_gD2</t>
   </si>
   <si>
-    <t>Combined term for infectiousness</t>
-  </si>
-  <si>
     <t>Disease related death rate by smear and strain</t>
   </si>
   <si>
@@ -833,18 +830,9 @@
     <t>phi_late</t>
   </si>
   <si>
-    <t>Late Latency Progression Rate to Active TB</t>
-  </si>
-  <si>
-    <t>Early Latency Progression Rate to Active TB</t>
-  </si>
-  <si>
     <t>p_act_early</t>
   </si>
   <si>
-    <t>Probability of Active TB from Early Latent TB</t>
-  </si>
-  <si>
     <t>alpha</t>
   </si>
   <si>
@@ -888,9 +876,6 @@
   </si>
   <si>
     <t>phi2</t>
-  </si>
-  <si>
-    <t>alpha_test</t>
   </si>
   <si>
     <t>alpha_fail</t>
@@ -1839,9 +1824,6 @@
     <t>Suspected Untreated SN XDR Prevalence</t>
   </si>
   <si>
-    <t>Latency Testing Rate</t>
-  </si>
-  <si>
     <t>Latency Treatment Initiation Rate</t>
   </si>
   <si>
@@ -2145,6 +2127,24 @@
   </si>
   <si>
     <t>GAJ assumed that XDR = 0.039 * 0.095 (i.e. 0.003705) and MDR = 0.39- 0.003705 (i.e. 0.035295)</t>
+  </si>
+  <si>
+    <t>Early Latency Departure Rate</t>
+  </si>
+  <si>
+    <t>Late Latency Departure Rate</t>
+  </si>
+  <si>
+    <t>Combined Infectiousness Term</t>
+  </si>
+  <si>
+    <t>Probability of Early-Active vs. Early-Late LTBI Progression</t>
+  </si>
+  <si>
+    <t>Latency Diagnosis Rate</t>
+  </si>
+  <si>
+    <t>alpha_diag</t>
   </si>
 </sst>
 </file>
@@ -3326,23 +3326,23 @@
         <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3350,55 +3350,55 @@
         <v>253</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -4054,10 +4054,10 @@
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -4107,7 +4107,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="17" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="10"/>
@@ -4144,17 +4144,17 @@
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
       <c r="F5" s="27" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="27" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
       <c r="K5" s="27"/>
       <c r="L5" s="28" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="M5" s="26"/>
       <c r="N5" s="27"/>
@@ -4192,16 +4192,16 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="17" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="10"/>
@@ -4238,14 +4238,14 @@
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
       <c r="F7" s="32" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
       <c r="K7" s="32" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="L7" s="33"/>
       <c r="M7" s="31"/>
@@ -4286,12 +4286,12 @@
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J8" s="27"/>
       <c r="K8" s="27"/>
       <c r="L8" s="28" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="M8" s="26"/>
       <c r="N8" s="27"/>
@@ -4332,11 +4332,11 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="K9" s="10"/>
       <c r="L9" s="17" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="10"/>
@@ -4376,11 +4376,11 @@
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
       <c r="I10" s="32" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="J10" s="32"/>
       <c r="K10" s="32" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="L10" s="33"/>
       <c r="M10" s="31"/>
@@ -4424,7 +4424,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="17" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="10"/>
@@ -4468,7 +4468,7 @@
       <c r="K12" s="20"/>
       <c r="L12" s="21"/>
       <c r="M12" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
@@ -4480,7 +4480,7 @@
       <c r="U12" s="20"/>
       <c r="V12" s="22"/>
       <c r="W12" s="19" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="X12" s="20"/>
       <c r="Y12" s="20"/>
@@ -4512,17 +4512,17 @@
       <c r="L13" s="16"/>
       <c r="M13" s="6"/>
       <c r="N13" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="U13" s="7"/>
       <c r="V13" s="8"/>
@@ -4558,7 +4558,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
@@ -4578,10 +4578,10 @@
       <c r="AE14" s="10"/>
       <c r="AF14" s="11"/>
       <c r="AG14" s="9" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="AH14" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AI14" s="11" t="s">
         <v>45</v>
@@ -4606,7 +4606,7 @@
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
@@ -4625,10 +4625,10 @@
       <c r="AE15" s="10"/>
       <c r="AF15" s="11"/>
       <c r="AG15" s="9" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="AH15" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AI15" s="11" t="s">
         <v>45</v>
@@ -4652,12 +4652,12 @@
       <c r="M16" s="9"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="10" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
@@ -4674,10 +4674,10 @@
       <c r="AE16" s="10"/>
       <c r="AF16" s="11"/>
       <c r="AG16" s="9" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AH16" s="10" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="AI16" s="11" t="s">
         <v>45</v>
@@ -4704,7 +4704,7 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
@@ -4721,10 +4721,10 @@
       <c r="AE17" s="10"/>
       <c r="AF17" s="11"/>
       <c r="AG17" s="9" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="AH17" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="AI17" s="11" t="s">
         <v>45</v>
@@ -4752,7 +4752,7 @@
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
@@ -4768,10 +4768,10 @@
       <c r="AE18" s="10"/>
       <c r="AF18" s="11"/>
       <c r="AG18" s="9" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="AH18" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="AI18" s="11" t="s">
         <v>45</v>
@@ -4798,12 +4798,12 @@
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
       <c r="U19" s="10" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="V19" s="11"/>
       <c r="W19" s="9"/>
@@ -4817,10 +4817,10 @@
       <c r="AE19" s="10"/>
       <c r="AF19" s="11"/>
       <c r="AG19" s="9" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AH19" s="10" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="AI19" s="11" t="s">
         <v>45</v>
@@ -4850,7 +4850,7 @@
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="V20" s="10"/>
       <c r="W20" s="9"/>
@@ -4864,10 +4864,10 @@
       <c r="AE20" s="10"/>
       <c r="AF20" s="11"/>
       <c r="AG20" s="9" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="AH20" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="AI20" s="11" t="s">
         <v>45</v>
@@ -4898,7 +4898,7 @@
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="W21" s="9"/>
       <c r="X21" s="10"/>
@@ -4911,10 +4911,10 @@
       <c r="AE21" s="10"/>
       <c r="AF21" s="11"/>
       <c r="AG21" s="9" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="AH21" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="AI21" s="11" t="s">
         <v>45</v>
@@ -4944,7 +4944,7 @@
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
       <c r="U22" s="10" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="V22" s="10"/>
       <c r="W22" s="12"/>
@@ -4958,10 +4958,10 @@
       <c r="AE22" s="13"/>
       <c r="AF22" s="14"/>
       <c r="AG22" s="12" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AH22" s="13" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="AI22" s="14" t="s">
         <v>45</v>
@@ -4994,17 +4994,17 @@
       <c r="V23" s="8"/>
       <c r="W23" s="6"/>
       <c r="X23" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
       <c r="AD23" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AE23" s="7"/>
       <c r="AF23" s="8"/>
@@ -5040,7 +5040,7 @@
       <c r="W24" s="9"/>
       <c r="X24" s="10"/>
       <c r="Y24" s="10" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
@@ -5050,10 +5050,10 @@
       <c r="AE24" s="10"/>
       <c r="AF24" s="11"/>
       <c r="AG24" s="9" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="AH24" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AI24" s="11" t="s">
         <v>45</v>
@@ -5088,7 +5088,7 @@
       <c r="X25" s="10"/>
       <c r="Y25" s="10"/>
       <c r="Z25" s="10" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="AA25" s="10"/>
       <c r="AB25" s="10"/>
@@ -5097,10 +5097,10 @@
       <c r="AE25" s="10"/>
       <c r="AF25" s="11"/>
       <c r="AG25" s="9" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="AH25" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AI25" s="11" t="s">
         <v>45</v>
@@ -5134,22 +5134,22 @@
       <c r="W26" s="9"/>
       <c r="X26" s="10"/>
       <c r="Y26" s="10" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="Z26" s="10"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="10" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="AC26" s="10"/>
       <c r="AD26" s="10"/>
       <c r="AE26" s="10"/>
       <c r="AF26" s="11"/>
       <c r="AG26" s="9" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="AH26" s="10" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AI26" s="11" t="s">
         <v>45</v>
@@ -5186,17 +5186,17 @@
       <c r="Z27" s="10"/>
       <c r="AA27" s="10"/>
       <c r="AB27" s="10" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AC27" s="10"/>
       <c r="AD27" s="10"/>
       <c r="AE27" s="10"/>
       <c r="AF27" s="11"/>
       <c r="AG27" s="9" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="AH27" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="AI27" s="11" t="s">
         <v>45</v>
@@ -5234,16 +5234,16 @@
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
       <c r="AC28" s="10" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AD28" s="10"/>
       <c r="AE28" s="10"/>
       <c r="AF28" s="11"/>
       <c r="AG28" s="9" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="AH28" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="AI28" s="11" t="s">
         <v>45</v>
@@ -5280,19 +5280,19 @@
       <c r="Z29" s="10"/>
       <c r="AA29" s="10"/>
       <c r="AB29" s="10" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AC29" s="10"/>
       <c r="AD29" s="10"/>
       <c r="AE29" s="10" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AF29" s="11"/>
       <c r="AG29" s="9" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="AH29" s="10" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="AI29" s="11" t="s">
         <v>45</v>
@@ -5332,14 +5332,14 @@
       <c r="AC30" s="10"/>
       <c r="AD30" s="10"/>
       <c r="AE30" s="10" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AF30" s="10"/>
       <c r="AG30" s="9" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="AH30" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="AI30" s="11" t="s">
         <v>45</v>
@@ -5380,13 +5380,13 @@
       <c r="AD31" s="10"/>
       <c r="AE31" s="10"/>
       <c r="AF31" s="10" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AG31" s="9" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="AH31" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="AI31" s="11" t="s">
         <v>45</v>
@@ -5426,14 +5426,14 @@
       <c r="AC32" s="13"/>
       <c r="AD32" s="13"/>
       <c r="AE32" s="13" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AF32" s="14"/>
       <c r="AG32" s="12" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="AH32" s="13" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AI32" s="14" t="s">
         <v>45</v>
@@ -5454,7 +5454,7 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="16" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10"/>
@@ -5575,8 +5575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5636,25 +5636,22 @@
         <v>48</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B2" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="52">
-        <v>50</v>
-      </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
@@ -5662,25 +5659,22 @@
         <v>3</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B4" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D4" s="2">
         <v>10</v>
       </c>
-      <c r="E4" s="52">
-        <v>100</v>
-      </c>
       <c r="G4" s="2" t="s">
         <v>71</v>
       </c>
@@ -5688,18 +5682,18 @@
         <v>71</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B5" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D5" s="2">
         <v>8</v>
@@ -5708,25 +5702,22 @@
         <v>185</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B6" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D6" s="2">
         <v>9</v>
       </c>
-      <c r="E6" s="52">
-        <v>100</v>
-      </c>
       <c r="G6" s="2" t="s">
         <v>188</v>
       </c>
@@ -5734,47 +5725,44 @@
         <v>188</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D7" s="2">
         <v>7</v>
       </c>
-      <c r="E7" s="52">
-        <v>200</v>
-      </c>
       <c r="G7" s="2" t="s">
         <v>185</v>
       </c>
       <c r="I7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="J7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B8" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
@@ -5783,28 +5771,25 @@
         <v>184</v>
       </c>
       <c r="J8" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B9" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D9" s="2">
         <v>6</v>
       </c>
-      <c r="E9" s="52">
-        <v>200</v>
-      </c>
       <c r="G9" s="2" t="s">
         <v>187</v>
       </c>
@@ -5812,50 +5797,47 @@
         <v>187</v>
       </c>
       <c r="J9" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B10" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D10" s="2">
         <v>4</v>
       </c>
-      <c r="E10" s="52">
-        <v>500</v>
-      </c>
       <c r="G10" s="2" t="s">
         <v>184</v>
       </c>
       <c r="I10" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="J10" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B11" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D11" s="2">
         <v>2</v>
@@ -5864,28 +5846,25 @@
         <v>183</v>
       </c>
       <c r="J11" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B12" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D12" s="2">
         <v>3</v>
       </c>
-      <c r="E12" s="52">
-        <v>400</v>
-      </c>
       <c r="G12" s="2" t="s">
         <v>186</v>
       </c>
@@ -5893,10 +5872,10 @@
         <v>186</v>
       </c>
       <c r="J12" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -5904,46 +5883,40 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
       </c>
-      <c r="E13" s="52">
-        <v>1000</v>
-      </c>
       <c r="G13" s="2" t="s">
         <v>183</v>
       </c>
       <c r="I13" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="J13" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B15" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D15" s="2">
         <v>22</v>
       </c>
-      <c r="E15" s="52">
-        <v>30</v>
-      </c>
       <c r="G15" s="2" t="s">
         <v>72</v>
       </c>
@@ -5951,25 +5924,22 @@
         <v>72</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B16" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D16" s="2">
         <v>9</v>
       </c>
-      <c r="E16" s="52">
-        <v>10</v>
-      </c>
       <c r="G16" s="2" t="s">
         <v>106</v>
       </c>
@@ -5977,25 +5947,22 @@
         <v>106</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B17" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D17" s="2">
         <v>10</v>
       </c>
-      <c r="E17" s="52">
-        <v>20</v>
-      </c>
       <c r="G17" s="2" t="s">
         <v>109</v>
       </c>
@@ -6003,25 +5970,22 @@
         <v>109</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B18" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D18" s="2">
         <v>11</v>
       </c>
-      <c r="E18" s="52">
-        <v>30</v>
-      </c>
       <c r="G18" s="2" t="s">
         <v>112</v>
       </c>
@@ -6029,25 +5993,22 @@
         <v>112</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D19" s="2">
         <v>19</v>
       </c>
-      <c r="E19" s="52">
-        <v>40</v>
-      </c>
       <c r="G19" s="2" t="s">
         <v>115</v>
       </c>
@@ -6055,25 +6016,22 @@
         <v>115</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
+        <v>523</v>
+      </c>
+      <c r="B20" t="s">
         <v>528</v>
       </c>
-      <c r="B20" t="s">
-        <v>533</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D20" s="2">
         <v>20</v>
       </c>
-      <c r="E20" s="52">
-        <v>50</v>
-      </c>
       <c r="G20" s="2" t="s">
         <v>118</v>
       </c>
@@ -6081,25 +6039,22 @@
         <v>118</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B21" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D21" s="2">
         <v>21</v>
       </c>
-      <c r="E21" s="52">
-        <v>60</v>
-      </c>
       <c r="G21" s="2" t="s">
         <v>121</v>
       </c>
@@ -6107,25 +6062,22 @@
         <v>121</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B22" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D22" s="2">
         <v>6</v>
       </c>
-      <c r="E22" s="52">
-        <v>120</v>
-      </c>
       <c r="G22" s="2" t="s">
         <v>105</v>
       </c>
@@ -6133,28 +6085,25 @@
         <v>105</v>
       </c>
       <c r="J22" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B23" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D23" s="2">
         <v>7</v>
       </c>
-      <c r="E23" s="52">
-        <v>110</v>
-      </c>
       <c r="G23" s="2" t="s">
         <v>108</v>
       </c>
@@ -6162,28 +6111,25 @@
         <v>108</v>
       </c>
       <c r="J23" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B24" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D24" s="2">
         <v>8</v>
       </c>
-      <c r="E24" s="52">
-        <v>100</v>
-      </c>
       <c r="G24" s="2" t="s">
         <v>111</v>
       </c>
@@ -6191,28 +6137,25 @@
         <v>111</v>
       </c>
       <c r="J24" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B25" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D25" s="2">
         <v>16</v>
       </c>
-      <c r="E25" s="52">
-        <v>90</v>
-      </c>
       <c r="G25" s="2" t="s">
         <v>114</v>
       </c>
@@ -6220,28 +6163,25 @@
         <v>114</v>
       </c>
       <c r="J25" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B26" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D26" s="2">
         <v>17</v>
       </c>
-      <c r="E26" s="52">
-        <v>80</v>
-      </c>
       <c r="G26" s="2" t="s">
         <v>117</v>
       </c>
@@ -6249,28 +6189,25 @@
         <v>117</v>
       </c>
       <c r="J26" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B27" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D27" s="2">
         <v>18</v>
       </c>
-      <c r="E27" s="52">
-        <v>70</v>
-      </c>
       <c r="G27" s="2" t="s">
         <v>120</v>
       </c>
@@ -6278,28 +6215,25 @@
         <v>120</v>
       </c>
       <c r="J27" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B28" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D28" s="2">
         <v>3</v>
       </c>
-      <c r="E28" s="52">
-        <v>130</v>
-      </c>
       <c r="G28" s="2" t="s">
         <v>104</v>
       </c>
@@ -6307,28 +6241,25 @@
         <v>104</v>
       </c>
       <c r="J28" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B29" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D29" s="2">
         <v>4</v>
       </c>
-      <c r="E29" s="52">
-        <v>140</v>
-      </c>
       <c r="G29" s="2" t="s">
         <v>107</v>
       </c>
@@ -6336,28 +6267,25 @@
         <v>107</v>
       </c>
       <c r="J29" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B30" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D30" s="2">
         <v>5</v>
       </c>
-      <c r="E30" s="52">
-        <v>150</v>
-      </c>
       <c r="G30" s="2" t="s">
         <v>110</v>
       </c>
@@ -6365,28 +6293,25 @@
         <v>110</v>
       </c>
       <c r="J30" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B31" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D31" s="2">
         <v>13</v>
       </c>
-      <c r="E31" s="52">
-        <v>160</v>
-      </c>
       <c r="G31" s="2" t="s">
         <v>113</v>
       </c>
@@ -6394,28 +6319,25 @@
         <v>113</v>
       </c>
       <c r="J31" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B32" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D32" s="2">
         <v>14</v>
       </c>
-      <c r="E32" s="52">
-        <v>170</v>
-      </c>
       <c r="G32" s="2" t="s">
         <v>116</v>
       </c>
@@ -6423,28 +6345,25 @@
         <v>116</v>
       </c>
       <c r="J32" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B33" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D33" s="2">
         <v>15</v>
       </c>
-      <c r="E33" s="52">
-        <v>180</v>
-      </c>
       <c r="G33" s="2" t="s">
         <v>119</v>
       </c>
@@ -6452,10 +6371,10 @@
         <v>119</v>
       </c>
       <c r="J33" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -6463,17 +6382,14 @@
         <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D34" s="2">
         <v>2</v>
       </c>
-      <c r="E34" s="52">
-        <v>500</v>
-      </c>
       <c r="G34" s="2" t="s">
         <v>181</v>
       </c>
@@ -6481,16 +6397,16 @@
         <v>181</v>
       </c>
       <c r="J34" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="K34" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="L34" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -6498,17 +6414,14 @@
         <v>154</v>
       </c>
       <c r="B35" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D35" s="2">
         <v>12</v>
       </c>
-      <c r="E35" s="52">
-        <v>600</v>
-      </c>
       <c r="G35" s="2" t="s">
         <v>182</v>
       </c>
@@ -6516,16 +6429,16 @@
         <v>182</v>
       </c>
       <c r="J35" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="K35" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="L35" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -6533,17 +6446,14 @@
         <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
       </c>
-      <c r="E36" s="52">
-        <v>1200</v>
-      </c>
       <c r="G36" s="2" t="s">
         <v>180</v>
       </c>
@@ -6557,7 +6467,7 @@
         <v>154</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -6565,7 +6475,7 @@
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>77</v>
@@ -6574,7 +6484,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="52">
-        <v>3000</v>
+        <v>1000000</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>2</v>
@@ -6583,13 +6493,13 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="K38" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L38" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="M38" t="s">
         <v>49</v>
@@ -6598,7 +6508,7 @@
         <v>50</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -6606,7 +6516,7 @@
         <v>122</v>
       </c>
       <c r="B40" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D40" s="2">
         <v>-1</v>
@@ -6618,7 +6528,7 @@
         <v>105</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -6626,7 +6536,7 @@
         <v>123</v>
       </c>
       <c r="B41" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D41" s="2">
         <v>-1</v>
@@ -6638,7 +6548,7 @@
         <v>108</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -6646,7 +6556,7 @@
         <v>124</v>
       </c>
       <c r="B42" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D42" s="2">
         <v>-1</v>
@@ -6658,7 +6568,7 @@
         <v>111</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -6666,7 +6576,7 @@
         <v>151</v>
       </c>
       <c r="B43" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D43" s="2">
         <v>-1</v>
@@ -6678,7 +6588,7 @@
         <v>114</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -6686,7 +6596,7 @@
         <v>152</v>
       </c>
       <c r="B44" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D44" s="2">
         <v>-1</v>
@@ -6698,7 +6608,7 @@
         <v>117</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -6706,7 +6616,7 @@
         <v>153</v>
       </c>
       <c r="B45" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D45" s="2">
         <v>-1</v>
@@ -6718,7 +6628,7 @@
         <v>120</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -6726,7 +6636,7 @@
         <v>126</v>
       </c>
       <c r="B46" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D46" s="2">
         <v>-1</v>
@@ -6741,7 +6651,7 @@
         <v>122</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -6749,7 +6659,7 @@
         <v>127</v>
       </c>
       <c r="B47" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D47" s="2">
         <v>-1</v>
@@ -6764,7 +6674,7 @@
         <v>123</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -6772,7 +6682,7 @@
         <v>128</v>
       </c>
       <c r="B48" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D48" s="2">
         <v>-1</v>
@@ -6787,7 +6697,7 @@
         <v>124</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -6795,7 +6705,7 @@
         <v>155</v>
       </c>
       <c r="B49" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D49" s="2">
         <v>-1</v>
@@ -6810,7 +6720,7 @@
         <v>151</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -6818,7 +6728,7 @@
         <v>156</v>
       </c>
       <c r="B50" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D50" s="2">
         <v>-1</v>
@@ -6834,7 +6744,7 @@
       </c>
       <c r="N50" s="15"/>
       <c r="O50" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -6842,7 +6752,7 @@
         <v>157</v>
       </c>
       <c r="B51" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D51" s="2">
         <v>-1</v>
@@ -6857,7 +6767,7 @@
         <v>153</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -6865,7 +6775,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D53" s="2">
         <v>-1</v>
@@ -6880,15 +6790,15 @@
         <v>49</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B54" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="D54" s="2">
         <v>-1</v>
@@ -6900,18 +6810,18 @@
         <v>51</v>
       </c>
       <c r="I54" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B55" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="D55" s="2">
         <v>-1</v>
@@ -6923,18 +6833,18 @@
         <v>51</v>
       </c>
       <c r="I55" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B56" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D56" s="2">
         <v>-1</v>
@@ -6946,18 +6856,18 @@
         <v>51</v>
       </c>
       <c r="I56" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B57" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D57" s="2">
         <v>-1</v>
@@ -6969,18 +6879,18 @@
         <v>51</v>
       </c>
       <c r="I57" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B58" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="D58" s="2">
         <v>-1</v>
@@ -6992,18 +6902,18 @@
         <v>51</v>
       </c>
       <c r="I58" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B59" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="D59" s="2">
         <v>-1</v>
@@ -7015,10 +6925,10 @@
         <v>51</v>
       </c>
       <c r="I59" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -7026,7 +6936,7 @@
         <v>129</v>
       </c>
       <c r="B60" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D60" s="2">
         <v>-1</v>
@@ -7041,7 +6951,7 @@
         <v>125</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -7049,7 +6959,7 @@
         <v>158</v>
       </c>
       <c r="B61" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D61" s="2">
         <v>-1</v>
@@ -7064,7 +6974,7 @@
         <v>154</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -7072,7 +6982,7 @@
         <v>53</v>
       </c>
       <c r="B62" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D62" s="2">
         <v>-1</v>
@@ -7087,15 +6997,15 @@
         <v>50</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B64" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D64" s="2">
         <v>-1</v>
@@ -7104,15 +7014,15 @@
         <v>41</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B66" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="D66" s="2">
         <v>-1</v>
@@ -7124,18 +7034,18 @@
         <v>49</v>
       </c>
       <c r="I66" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B67" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="D67" s="2">
         <v>-1</v>
@@ -7144,21 +7054,21 @@
         <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="I67" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B68" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="D68" s="2">
         <v>-1</v>
@@ -7167,21 +7077,21 @@
         <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="I68" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B69" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D69" s="2">
         <v>-1</v>
@@ -7190,21 +7100,21 @@
         <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="I69" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" t="s">
+        <v>584</v>
+      </c>
+      <c r="B70" t="s">
         <v>590</v>
-      </c>
-      <c r="B70" t="s">
-        <v>596</v>
       </c>
       <c r="D70" s="2">
         <v>-1</v>
@@ -7213,21 +7123,21 @@
         <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I70" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" t="s">
+        <v>586</v>
+      </c>
+      <c r="B71" t="s">
         <v>592</v>
-      </c>
-      <c r="B71" t="s">
-        <v>598</v>
       </c>
       <c r="D71" s="2">
         <v>-1</v>
@@ -7236,21 +7146,21 @@
         <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="I71" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" t="s">
+        <v>588</v>
+      </c>
+      <c r="B72" t="s">
         <v>594</v>
-      </c>
-      <c r="B72" t="s">
-        <v>600</v>
       </c>
       <c r="D72" s="2">
         <v>-1</v>
@@ -7259,21 +7169,21 @@
         <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="I72" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B73" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D73" s="2">
         <v>-1</v>
@@ -7282,21 +7192,21 @@
         <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="I73" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B74" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D74" s="2">
         <v>-1</v>
@@ -7305,21 +7215,21 @@
         <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="I74" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B75" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="D75" s="2">
         <v>-1</v>
@@ -7328,21 +7238,21 @@
         <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="I75" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B76" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D76" s="2">
         <v>-1</v>
@@ -7351,21 +7261,21 @@
         <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="I76" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" t="s">
+        <v>585</v>
+      </c>
+      <c r="B77" t="s">
         <v>591</v>
-      </c>
-      <c r="B77" t="s">
-        <v>597</v>
       </c>
       <c r="D77" s="2">
         <v>-1</v>
@@ -7374,21 +7284,21 @@
         <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="I77" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" t="s">
+        <v>587</v>
+      </c>
+      <c r="B78" t="s">
         <v>593</v>
-      </c>
-      <c r="B78" t="s">
-        <v>599</v>
       </c>
       <c r="D78" s="2">
         <v>-1</v>
@@ -7397,21 +7307,21 @@
         <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="I78" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" t="s">
+        <v>589</v>
+      </c>
+      <c r="B79" t="s">
         <v>595</v>
-      </c>
-      <c r="B79" t="s">
-        <v>601</v>
       </c>
       <c r="D79" s="2">
         <v>-1</v>
@@ -7420,13 +7330,13 @@
         <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="I79" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -7443,8 +7353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50:D52"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7482,16 +7392,16 @@
         <v>59</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>103</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -7499,106 +7409,106 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F2" s="2">
         <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1">
       <c r="A3" t="s">
-        <v>288</v>
+        <v>632</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>549</v>
+        <v>631</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F3" s="2">
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F4" s="2">
         <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="J4" s="40" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16" customHeight="1">
       <c r="A5" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F5" s="2">
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16" customHeight="1">
       <c r="A6" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F6" s="2">
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J6" s="40" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7606,7 +7516,7 @@
         <v>199</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C7" t="s">
         <v>208</v>
@@ -7615,10 +7525,10 @@
         <v>-1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>288</v>
+        <v>632</v>
       </c>
       <c r="I7" s="23"/>
     </row>
@@ -7627,7 +7537,7 @@
         <v>209</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C8" t="s">
         <v>215</v>
@@ -7636,10 +7546,10 @@
         <v>-1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7647,7 +7557,7 @@
         <v>210</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C9" t="s">
         <v>216</v>
@@ -7656,10 +7566,10 @@
         <v>-1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7667,7 +7577,7 @@
         <v>211</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C10" t="s">
         <v>217</v>
@@ -7676,10 +7586,10 @@
         <v>-1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7687,7 +7597,7 @@
         <v>202</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C11" t="s">
         <v>218</v>
@@ -7696,10 +7606,10 @@
         <v>-1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>288</v>
+        <v>632</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7707,7 +7617,7 @@
         <v>212</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C12" t="s">
         <v>219</v>
@@ -7716,10 +7626,10 @@
         <v>-1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7727,7 +7637,7 @@
         <v>213</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C13" t="s">
         <v>220</v>
@@ -7736,10 +7646,10 @@
         <v>-1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7747,7 +7657,7 @@
         <v>214</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C14" t="s">
         <v>221</v>
@@ -7756,10 +7666,10 @@
         <v>-1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7768,65 +7678,65 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s">
-        <v>270</v>
+        <v>627</v>
       </c>
       <c r="D16" s="2">
-        <v>1E-3</v>
+        <v>0.2</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="I16" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="J16" s="39" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s">
-        <v>269</v>
+        <v>628</v>
       </c>
       <c r="D17" s="2">
         <v>0.09</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="I17" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="J17" s="42" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16" customHeight="1">
       <c r="A18" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s">
-        <v>272</v>
+        <v>630</v>
       </c>
       <c r="D18" s="2">
         <v>0.115</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="I18" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="J18" s="39" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7834,7 +7744,7 @@
         <v>222</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C19" t="s">
         <v>224</v>
@@ -7843,10 +7753,10 @@
         <v>-1</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="I19" s="23"/>
     </row>
@@ -7855,7 +7765,7 @@
         <v>223</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C20" t="s">
         <v>225</v>
@@ -7864,10 +7774,10 @@
         <v>-1</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -7875,7 +7785,7 @@
         <v>198</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C21" t="s">
         <v>204</v>
@@ -7884,10 +7794,10 @@
         <v>-1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -7895,7 +7805,7 @@
         <v>200</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C22" t="s">
         <v>205</v>
@@ -7904,10 +7814,10 @@
         <v>-1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -7915,7 +7825,7 @@
         <v>201</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C23" t="s">
         <v>206</v>
@@ -7924,10 +7834,10 @@
         <v>-1</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -7935,7 +7845,7 @@
         <v>203</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C24" t="s">
         <v>207</v>
@@ -7944,10 +7854,10 @@
         <v>-1</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -7955,74 +7865,74 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D26" s="2">
         <v>0.5</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F26" s="2">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D27" s="2">
         <v>0.5</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F27" s="2">
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="J27" s="40" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D28" s="2">
         <v>4</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F28" s="2">
         <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="J28" s="41" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -8033,14 +7943,17 @@
       <c r="C29" t="s">
         <v>230</v>
       </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
       <c r="E29" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F29" s="2">
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="28">
@@ -8049,70 +7962,70 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D30" s="2">
         <v>0.22</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F30" s="2">
         <v>5</v>
       </c>
       <c r="I30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J30" s="36" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="42">
       <c r="A31" s="43" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B31" s="44"/>
       <c r="C31" s="43" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F31" s="44">
         <v>6</v>
       </c>
       <c r="I31" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="J31" s="45" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="43" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B32" s="44"/>
       <c r="C32" s="43" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F32" s="44">
         <v>7</v>
       </c>
       <c r="I32" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -8127,13 +8040,13 @@
         <v>-1</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H33" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="I33" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -8148,13 +8061,13 @@
         <v>-1</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H34" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="I34" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -8169,13 +8082,13 @@
         <v>-1</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H35" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I35" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -8190,13 +8103,13 @@
         <v>-1</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H36" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="I36" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -8211,13 +8124,13 @@
         <v>-1</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H37" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="I37" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -8226,13 +8139,13 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s">
-        <v>260</v>
+        <v>629</v>
       </c>
       <c r="F38" s="2">
         <v>-1</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H38" t="s">
         <v>236</v>
@@ -8243,7 +8156,7 @@
         <v>8</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C39" t="s">
         <v>226</v>
@@ -8252,7 +8165,7 @@
         <v>-1</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H39" s="23" t="s">
         <v>259</v>
@@ -8264,7 +8177,7 @@
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C40" t="s">
         <v>227</v>
@@ -8273,10 +8186,10 @@
         <v>-1</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -8284,7 +8197,7 @@
         <v>66</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C41" t="s">
         <v>228</v>
@@ -8293,10 +8206,10 @@
         <v>-1</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H41" s="23" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -8304,7 +8217,7 @@
         <v>67</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C42" t="s">
         <v>229</v>
@@ -8313,10 +8226,10 @@
         <v>-1</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H42" s="23" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -8340,10 +8253,10 @@
         <v>2</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I44" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -8363,10 +8276,10 @@
         <v>3</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I45" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="J45" s="23"/>
     </row>
@@ -8375,10 +8288,10 @@
     </row>
     <row r="47" spans="1:15" ht="28">
       <c r="A47" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C47" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D47" s="35">
         <v>0.96099999999999997</v>
@@ -8391,16 +8304,16 @@
       </c>
       <c r="H47"/>
       <c r="J47" s="53" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="O47" s="2"/>
     </row>
     <row r="48" spans="1:15" ht="28">
       <c r="A48" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="C48" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D48" s="35">
         <v>3.5295E-2</v>
@@ -8413,16 +8326,16 @@
       </c>
       <c r="H48"/>
       <c r="J48" s="53" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="O48" s="2"/>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="C49" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="D49" s="35">
         <v>3.705E-3</v>
@@ -8435,16 +8348,16 @@
       </c>
       <c r="H49"/>
       <c r="J49" s="37" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="O49" s="2"/>
     </row>
     <row r="50" spans="1:15" ht="28">
       <c r="A50" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C50" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D50" s="35">
         <v>0.96099999999999997</v>
@@ -8457,16 +8370,16 @@
       </c>
       <c r="H50"/>
       <c r="J50" s="36" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="O50" s="2"/>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C51" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="D51" s="35">
         <v>3.5295E-2</v>
@@ -8479,16 +8392,16 @@
       </c>
       <c r="H51"/>
       <c r="J51" s="36" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="O51" s="2"/>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C52" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D52" s="35">
         <v>3.705E-3</v>
@@ -8501,16 +8414,16 @@
       </c>
       <c r="H52"/>
       <c r="J52" s="36" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="O52" s="2"/>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="C53" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="D53"/>
       <c r="E53" s="52"/>
@@ -8518,16 +8431,16 @@
         <v>-1</v>
       </c>
       <c r="H53" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="O53" s="2"/>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C54" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="D54"/>
       <c r="E54" s="52"/>
@@ -8535,7 +8448,7 @@
         <v>-1</v>
       </c>
       <c r="H54" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="O54" s="2"/>
     </row>
@@ -8544,16 +8457,16 @@
         <v>133</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C55" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F55" s="2">
         <v>-1</v>
       </c>
       <c r="H55" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -8561,16 +8474,16 @@
         <v>162</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C56" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F56" s="2">
         <v>-1</v>
       </c>
       <c r="H56" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -8578,16 +8491,16 @@
         <v>134</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C57" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F57" s="2">
         <v>-1</v>
       </c>
       <c r="H57" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -8595,16 +8508,16 @@
         <v>135</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C58" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F58" s="2">
         <v>-1</v>
       </c>
       <c r="H58" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -8612,16 +8525,16 @@
         <v>136</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C59" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F59" s="2">
         <v>-1</v>
       </c>
       <c r="H59" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -8629,16 +8542,16 @@
         <v>163</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="F60" s="2">
         <v>-1</v>
       </c>
       <c r="H60" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="J60" s="23"/>
     </row>
@@ -8647,16 +8560,16 @@
         <v>164</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F61" s="2">
         <v>-1</v>
       </c>
       <c r="H61" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="J61" s="23"/>
     </row>
@@ -8665,16 +8578,16 @@
         <v>165</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C62" s="43" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F62" s="2">
         <v>-1</v>
       </c>
       <c r="H62" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="J62" s="23"/>
     </row>
@@ -8688,7 +8601,7 @@
         <v>137</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C64" t="s">
         <v>78</v>
@@ -8697,16 +8610,16 @@
         <v>0.59</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F64" s="2">
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J64" s="53" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -8714,7 +8627,7 @@
         <v>138</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C65" t="s">
         <v>79</v>
@@ -8723,19 +8636,19 @@
         <v>0.59</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F65" s="2">
         <v>2</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I65" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -8743,7 +8656,7 @@
         <v>139</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C66" t="s">
         <v>80</v>
@@ -8752,19 +8665,19 @@
         <v>0.05</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F66" s="2">
         <v>3</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I66" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J66" s="35" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -8772,7 +8685,7 @@
         <v>140</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C67" t="s">
         <v>81</v>
@@ -8781,19 +8694,19 @@
         <v>0.83</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F67" s="2">
         <v>4</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I67" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J67" s="35" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="28">
@@ -8801,7 +8714,7 @@
         <v>142</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C68" t="s">
         <v>82</v>
@@ -8810,16 +8723,16 @@
         <v>0.59</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F68" s="2">
         <v>5</v>
       </c>
       <c r="I68" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J68" s="53" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -8827,7 +8740,7 @@
         <v>143</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C69" t="s">
         <v>83</v>
@@ -8836,19 +8749,19 @@
         <v>0.37</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F69" s="2">
         <v>6</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I69" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J69" s="35" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -8856,7 +8769,7 @@
         <v>144</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C70" t="s">
         <v>84</v>
@@ -8865,19 +8778,19 @@
         <v>0.24</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F70" s="2">
         <v>7</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I70" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J70" s="35" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -8885,7 +8798,7 @@
         <v>145</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C71" t="s">
         <v>85</v>
@@ -8894,19 +8807,19 @@
         <v>0.52</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F71" s="2">
         <v>8</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I71" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J71" s="35" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="28">
@@ -8914,7 +8827,7 @@
         <v>147</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C72" t="s">
         <v>86</v>
@@ -8923,16 +8836,16 @@
         <v>0.59</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F72" s="35">
         <v>9</v>
       </c>
       <c r="I72" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J72" s="53" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -8940,7 +8853,7 @@
         <v>148</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C73" t="s">
         <v>87</v>
@@ -8949,16 +8862,16 @@
         <v>0.37</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F73" s="2">
         <v>10</v>
       </c>
       <c r="I73" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -8966,7 +8879,7 @@
         <v>149</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C74" t="s">
         <v>88</v>
@@ -8975,16 +8888,16 @@
         <v>0.44</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F74" s="35">
         <v>11</v>
       </c>
       <c r="I74" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J74" s="35" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -8992,7 +8905,7 @@
         <v>150</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C75" t="s">
         <v>89</v>
@@ -9001,16 +8914,16 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F75" s="2">
         <v>12</v>
       </c>
       <c r="I75" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J75" s="35" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="28">
@@ -9018,7 +8931,7 @@
         <v>166</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C76" s="43" t="s">
         <v>90</v>
@@ -9027,16 +8940,16 @@
         <v>0.59</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F76" s="35">
         <v>13</v>
       </c>
       <c r="I76" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J76" s="53" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -9044,7 +8957,7 @@
         <v>167</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C77" s="43" t="s">
         <v>91</v>
@@ -9053,19 +8966,19 @@
         <v>0.59</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F77" s="2">
         <v>14</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I77" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -9073,7 +8986,7 @@
         <v>168</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C78" s="43" t="s">
         <v>92</v>
@@ -9082,19 +8995,19 @@
         <v>0.05</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F78" s="35">
         <v>15</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I78" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J78" s="35" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -9102,7 +9015,7 @@
         <v>169</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C79" s="43" t="s">
         <v>93</v>
@@ -9111,19 +9024,19 @@
         <v>0.83</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F79" s="2">
         <v>16</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I79" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J79" s="35" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="28">
@@ -9131,7 +9044,7 @@
         <v>171</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C80" s="43" t="s">
         <v>94</v>
@@ -9140,16 +9053,16 @@
         <v>0.59</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F80" s="35">
         <v>17</v>
       </c>
       <c r="I80" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J80" s="53" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -9157,7 +9070,7 @@
         <v>172</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C81" s="43" t="s">
         <v>95</v>
@@ -9166,19 +9079,19 @@
         <v>0.37</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F81" s="2">
         <v>18</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I81" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J81" s="35" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -9186,7 +9099,7 @@
         <v>173</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C82" s="43" t="s">
         <v>96</v>
@@ -9195,19 +9108,19 @@
         <v>0.24</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F82" s="35">
         <v>19</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I82" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J82" s="35" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -9215,7 +9128,7 @@
         <v>174</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C83" s="43" t="s">
         <v>97</v>
@@ -9224,19 +9137,19 @@
         <v>0.52</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F83" s="2">
         <v>20</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I83" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J83" s="35" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="28">
@@ -9244,7 +9157,7 @@
         <v>176</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C84" s="43" t="s">
         <v>98</v>
@@ -9253,16 +9166,16 @@
         <v>0.59</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F84" s="35">
         <v>21</v>
       </c>
       <c r="I84" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J84" s="53" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -9270,7 +9183,7 @@
         <v>177</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C85" s="43" t="s">
         <v>99</v>
@@ -9279,16 +9192,16 @@
         <v>0.37</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F85" s="2">
         <v>22</v>
       </c>
       <c r="I85" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -9296,7 +9209,7 @@
         <v>178</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C86" s="43" t="s">
         <v>100</v>
@@ -9305,16 +9218,16 @@
         <v>0.44</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F86" s="35">
         <v>23</v>
       </c>
       <c r="I86" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J86" s="35" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -9322,7 +9235,7 @@
         <v>179</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C87" s="43" t="s">
         <v>101</v>
@@ -9331,16 +9244,16 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F87" s="2">
         <v>24</v>
       </c>
       <c r="I87" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J87" s="35" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -9349,161 +9262,161 @@
     </row>
     <row r="89" spans="1:15" ht="56">
       <c r="A89" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C89" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D89" s="2">
         <v>0.2</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F89" s="2">
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="J89" s="46" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="42">
       <c r="A90" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C90" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D90" s="2">
         <v>0.15</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F90" s="2">
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="J90" s="46" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="O90" s="45" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C91" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D91" s="2">
         <v>0.15</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F91" s="37">
         <v>3</v>
       </c>
       <c r="I91" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="J91" s="47" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C92" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D92" s="2">
         <v>0.2</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F92" s="2">
         <v>4</v>
       </c>
       <c r="I92" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="J92" s="45" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" t="s">
+        <v>302</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C93" t="s">
         <v>307</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C93" t="s">
-        <v>312</v>
       </c>
       <c r="D93" s="2">
         <v>0.15</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F93" s="2">
         <v>5</v>
       </c>
       <c r="I93" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="J93" s="45" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C94" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D94" s="2">
         <v>0.15</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F94" s="2">
         <v>6</v>
       </c>
       <c r="I94" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="J94" s="48" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="95" spans="1:15">
@@ -9511,19 +9424,19 @@
         <v>170</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C95" s="43" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F95" s="2">
         <v>7</v>
       </c>
       <c r="I95" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="J95" s="23"/>
     </row>
@@ -9532,19 +9445,19 @@
         <v>175</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C96" s="43" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F96" s="2">
         <v>8</v>
       </c>
       <c r="I96" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="J96" s="23"/>
     </row>
@@ -9553,19 +9466,19 @@
         <v>141</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C97" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F97" s="2">
         <v>9</v>
       </c>
       <c r="I97" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="J97" s="23"/>
     </row>
@@ -9574,19 +9487,19 @@
         <v>146</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C98" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F98" s="2">
         <v>10</v>
       </c>
       <c r="I98" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="J98" s="23"/>
     </row>
@@ -9596,308 +9509,308 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C100" s="43" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D100" s="2">
         <v>0.7</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F100" s="2">
         <v>1</v>
       </c>
       <c r="J100" s="38" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C101" s="43" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D101" s="2">
         <v>0.7</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F101" s="2">
         <v>2</v>
       </c>
       <c r="J101" s="38" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C102" s="43" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D102" s="2">
         <v>0.7</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F102" s="2">
         <v>3</v>
       </c>
       <c r="J102" s="38" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C103" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D103" s="2">
         <v>0.03</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F103" s="2">
         <v>4</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I103" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J103" s="35" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C104" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D104" s="2">
         <v>0.17</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F104" s="35">
         <v>5</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I104" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J104" s="35" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C105" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D105" s="2">
         <v>0.27</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F105" s="2">
         <v>6</v>
       </c>
       <c r="I105" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J105" s="35" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C106" s="43" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D106" s="2">
         <v>0.2</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F106" s="2">
         <v>7</v>
       </c>
       <c r="J106" s="38" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C107" s="43" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D107" s="2">
         <v>0.2</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F107" s="2">
         <v>8</v>
       </c>
       <c r="J107" s="38" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C108" s="43" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D108" s="2">
         <v>0.2</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F108" s="2">
         <v>9</v>
       </c>
       <c r="J108" s="38" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C109" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D109" s="2">
         <v>0.03</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F109" s="2">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I109" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J109" s="35" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C110" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D110" s="2">
         <v>0.17</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F110" s="35">
         <v>11</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I110" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J110" s="35" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C111" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D111" s="2">
         <v>0.27</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F111" s="2">
         <v>12</v>
       </c>
       <c r="I111" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J111" s="35" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -9915,7 +9828,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/project/cascade-belarus.xlsx
+++ b/project/cascade-belarus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="460" windowWidth="24480" windowHeight="15460" tabRatio="647" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="647" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Databook Sheet Names" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="634">
   <si>
     <t>Code Label</t>
   </si>
@@ -2145,6 +2145,9 @@
   </si>
   <si>
     <t>alpha_diag</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -5575,7 +5578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
@@ -7353,8 +7356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7530,7 +7533,9 @@
       <c r="H7" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="I7" s="23"/>
+      <c r="I7" s="23" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">

--- a/project/cascade-belarus.xlsx
+++ b/project/cascade-belarus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="647" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="14960" tabRatio="647" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Databook Sheet Names" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="634">
   <si>
     <t>Code Label</t>
   </si>
@@ -5578,8 +5578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5661,9 +5661,6 @@
       <c r="I2" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>333</v>
-      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
@@ -6468,9 +6465,6 @@
       </c>
       <c r="K36" t="s">
         <v>154</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -7356,7 +7350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>

--- a/project/cascade-belarus.xlsx
+++ b/project/cascade-belarus.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27417"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sjarvis/git/tb-ucl/project/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="647" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-2900" yWindow="-18760" windowWidth="30100" windowHeight="18500" tabRatio="647" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Databook Sheet Names" sheetId="5" r:id="rId1"/>
@@ -16,6 +21,9 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="634">
   <si>
     <t>Code Label</t>
   </si>
@@ -2242,7 +2250,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2279,6 +2287,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2677,7 +2691,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2833,6 +2847,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3310,13 +3327,13 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>75</v>
       </c>
@@ -3324,7 +3341,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>77</v>
       </c>
@@ -3332,7 +3349,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>548</v>
       </c>
@@ -3340,7 +3357,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>547</v>
       </c>
@@ -3348,7 +3365,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>253</v>
       </c>
@@ -3356,7 +3373,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>452</v>
       </c>
@@ -3364,7 +3381,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>432</v>
       </c>
@@ -3372,7 +3389,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>466</v>
       </c>
@@ -3380,7 +3397,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>431</v>
       </c>
@@ -3388,7 +3405,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>467</v>
       </c>
@@ -3396,7 +3413,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>449</v>
       </c>
@@ -3406,11 +3423,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3422,7 +3434,7 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.83203125" bestFit="1" customWidth="1"/>
@@ -3432,7 +3444,7 @@
     <col min="6" max="7" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3455,7 +3467,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3466,7 +3478,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3477,7 +3489,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>183</v>
       </c>
@@ -3488,7 +3500,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>184</v>
       </c>
@@ -3499,7 +3511,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>185</v>
       </c>
@@ -3510,7 +3522,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>186</v>
       </c>
@@ -3521,7 +3533,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>187</v>
       </c>
@@ -3532,7 +3544,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>188</v>
       </c>
@@ -3543,7 +3555,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -3554,7 +3566,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>180</v>
       </c>
@@ -3568,7 +3580,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>181</v>
       </c>
@@ -3582,7 +3594,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>104</v>
       </c>
@@ -3593,7 +3605,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>105</v>
       </c>
@@ -3604,7 +3616,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -3615,7 +3627,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>107</v>
       </c>
@@ -3626,7 +3638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>108</v>
       </c>
@@ -3637,7 +3649,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>109</v>
       </c>
@@ -3648,7 +3660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -3659,7 +3671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -3670,7 +3682,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>112</v>
       </c>
@@ -3681,7 +3693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>182</v>
       </c>
@@ -3695,7 +3707,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>113</v>
       </c>
@@ -3706,7 +3718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>114</v>
       </c>
@@ -3717,7 +3729,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>115</v>
       </c>
@@ -3728,7 +3740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>116</v>
       </c>
@@ -3739,7 +3751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>117</v>
       </c>
@@ -3750,7 +3762,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>118</v>
       </c>
@@ -3761,7 +3773,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>119</v>
       </c>
@@ -3772,7 +3784,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>120</v>
       </c>
@@ -3783,7 +3795,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>121</v>
       </c>
@@ -3794,7 +3806,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -3805,7 +3817,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -3819,7 +3831,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -3833,7 +3845,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>247</v>
       </c>
@@ -3849,11 +3861,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3861,11 +3868,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AJ4" sqref="AJ4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="2" max="2" width="3.33203125" bestFit="1" customWidth="1"/>
@@ -3902,7 +3909,7 @@
     <col min="35" max="35" width="4.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>247</v>
@@ -4007,7 +4014,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>247</v>
       </c>
@@ -4046,11 +4053,9 @@
       <c r="AF2" s="7"/>
       <c r="AG2" s="6"/>
       <c r="AH2" s="7"/>
-      <c r="AI2" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35">
+      <c r="AI2" s="55"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4095,7 +4100,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -4138,7 +4143,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>183</v>
       </c>
@@ -4185,7 +4190,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>184</v>
       </c>
@@ -4232,7 +4237,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
         <v>185</v>
       </c>
@@ -4277,7 +4282,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>186</v>
       </c>
@@ -4322,7 +4327,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
         <v>187</v>
       </c>
@@ -4367,7 +4372,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="30" t="s">
         <v>188</v>
       </c>
@@ -4412,7 +4417,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>71</v>
       </c>
@@ -4455,7 +4460,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>180</v>
       </c>
@@ -4498,7 +4503,7 @@
       <c r="AH12" s="20"/>
       <c r="AI12" s="22"/>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>181</v>
       </c>
@@ -4543,7 +4548,7 @@
       <c r="AH13" s="10"/>
       <c r="AI13" s="11"/>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>104</v>
       </c>
@@ -4590,7 +4595,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>105</v>
       </c>
@@ -4637,7 +4642,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>106</v>
       </c>
@@ -4686,7 +4691,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>107</v>
       </c>
@@ -4733,7 +4738,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>108</v>
       </c>
@@ -4780,7 +4785,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>109</v>
       </c>
@@ -4829,7 +4834,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>110</v>
       </c>
@@ -4876,7 +4881,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>111</v>
       </c>
@@ -4923,7 +4928,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>112</v>
       </c>
@@ -4970,7 +4975,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>182</v>
       </c>
@@ -5015,7 +5020,7 @@
       <c r="AH23" s="7"/>
       <c r="AI23" s="8"/>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>113</v>
       </c>
@@ -5062,7 +5067,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>114</v>
       </c>
@@ -5109,7 +5114,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>115</v>
       </c>
@@ -5158,7 +5163,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>116</v>
       </c>
@@ -5205,7 +5210,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>117</v>
       </c>
@@ -5252,7 +5257,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>118</v>
       </c>
@@ -5301,7 +5306,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>119</v>
       </c>
@@ -5348,7 +5353,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>120</v>
       </c>
@@ -5395,7 +5400,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>121</v>
       </c>
@@ -5442,7 +5447,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>72</v>
       </c>
@@ -5485,7 +5490,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>41</v>
       </c>
@@ -5524,7 +5529,7 @@
       <c r="AH34" s="10"/>
       <c r="AI34" s="11"/>
     </row>
-    <row r="35" spans="1:35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
@@ -5566,11 +5571,6 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5582,7 +5582,7 @@
       <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.1640625" bestFit="1" customWidth="1"/>
@@ -5610,7 +5610,7 @@
     <col min="29" max="29" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>468</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>487</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>471</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>472</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>482</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>477</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>476</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>480</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>469</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>470</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>489</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>518</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>519</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>520</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>521</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>523</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>522</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>506</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>507</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>508</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>509</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>510</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>511</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>494</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>496</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>498</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>500</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>501</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>502</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>125</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>154</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>122</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>123</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>124</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>151</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>152</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>153</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>126</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>127</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>128</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>155</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>156</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>157</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>555</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>557</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>558</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>561</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>562</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>563</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>129</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>158</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>53</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>313</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>569</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>572</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>576</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>578</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>584</v>
       </c>
@@ -7135,7 +7135,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>586</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>588</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>570</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>574</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>577</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>579</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>585</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>587</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>589</v>
       </c>
@@ -7344,11 +7344,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -7356,11 +7351,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
@@ -7375,7 +7370,7 @@
     <col min="15" max="15" width="75.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -7407,7 +7402,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -7430,7 +7425,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" customHeight="1">
+    <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>632</v>
       </c>
@@ -7451,7 +7446,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>272</v>
       </c>
@@ -7472,7 +7467,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16" customHeight="1">
+    <row r="5" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>284</v>
       </c>
@@ -7493,7 +7488,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16" customHeight="1">
+    <row r="6" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>285</v>
       </c>
@@ -7514,7 +7509,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>199</v>
       </c>
@@ -7537,7 +7532,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>209</v>
       </c>
@@ -7557,7 +7552,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>210</v>
       </c>
@@ -7577,7 +7572,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>211</v>
       </c>
@@ -7597,7 +7592,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>202</v>
       </c>
@@ -7617,7 +7612,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>212</v>
       </c>
@@ -7637,7 +7632,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>213</v>
       </c>
@@ -7657,7 +7652,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>214</v>
       </c>
@@ -7677,11 +7672,11 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="J15" s="40"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>280</v>
       </c>
@@ -7702,7 +7697,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>267</v>
       </c>
@@ -7723,7 +7718,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16" customHeight="1">
+    <row r="18" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>268</v>
       </c>
@@ -7744,7 +7739,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>222</v>
       </c>
@@ -7765,7 +7760,7 @@
       </c>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>223</v>
       </c>
@@ -7785,7 +7780,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>198</v>
       </c>
@@ -7805,7 +7800,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>200</v>
       </c>
@@ -7825,7 +7820,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>201</v>
       </c>
@@ -7845,7 +7840,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>203</v>
       </c>
@@ -7865,10 +7860,10 @@
         <v>267</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>264</v>
       </c>
@@ -7892,7 +7887,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>265</v>
       </c>
@@ -7916,7 +7911,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>266</v>
       </c>
@@ -7940,7 +7935,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>130</v>
       </c>
@@ -7961,7 +7956,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="28">
+    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>258</v>
       </c>
@@ -7985,7 +7980,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="42">
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="43" t="s">
         <v>292</v>
       </c>
@@ -8009,7 +8004,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="43" t="s">
         <v>293</v>
       </c>
@@ -8033,7 +8028,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>131</v>
       </c>
@@ -8054,7 +8049,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>132</v>
       </c>
@@ -8075,7 +8070,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>159</v>
       </c>
@@ -8096,7 +8091,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>160</v>
       </c>
@@ -8117,7 +8112,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>161</v>
       </c>
@@ -8138,7 +8133,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>259</v>
       </c>
@@ -8156,7 +8151,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -8177,7 +8172,7 @@
       </c>
       <c r="I39" s="23"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -8197,7 +8192,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -8217,7 +8212,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -8237,11 +8232,11 @@
         <v>286</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="H43"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>251</v>
       </c>
@@ -8264,7 +8259,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -8288,10 +8283,10 @@
       </c>
       <c r="J45" s="23"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:15" ht="28">
+    <row r="47" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>596</v>
       </c>
@@ -8313,7 +8308,7 @@
       </c>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" ht="28">
+    <row r="48" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>597</v>
       </c>
@@ -8335,7 +8330,7 @@
       </c>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>598</v>
       </c>
@@ -8357,7 +8352,7 @@
       </c>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="28">
+    <row r="50" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>599</v>
       </c>
@@ -8379,7 +8374,7 @@
       </c>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>600</v>
       </c>
@@ -8401,7 +8396,7 @@
       </c>
       <c r="O51" s="2"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>601</v>
       </c>
@@ -8423,7 +8418,7 @@
       </c>
       <c r="O52" s="2"/>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>602</v>
       </c>
@@ -8440,7 +8435,7 @@
       </c>
       <c r="O53" s="2"/>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>603</v>
       </c>
@@ -8457,7 +8452,7 @@
       </c>
       <c r="O54" s="2"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>133</v>
       </c>
@@ -8474,7 +8469,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>162</v>
       </c>
@@ -8491,7 +8486,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>134</v>
       </c>
@@ -8508,7 +8503,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>135</v>
       </c>
@@ -8525,7 +8520,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>136</v>
       </c>
@@ -8542,7 +8537,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>163</v>
       </c>
@@ -8560,7 +8555,7 @@
       </c>
       <c r="J60" s="23"/>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>164</v>
       </c>
@@ -8578,7 +8573,7 @@
       </c>
       <c r="J61" s="23"/>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>165</v>
       </c>
@@ -8596,12 +8591,12 @@
       </c>
       <c r="J62" s="23"/>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="C63" s="43"/>
       <c r="J63" s="23"/>
     </row>
-    <row r="64" spans="1:15" ht="28">
+    <row r="64" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>137</v>
       </c>
@@ -8627,7 +8622,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>138</v>
       </c>
@@ -8656,7 +8651,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>139</v>
       </c>
@@ -8685,7 +8680,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>140</v>
       </c>
@@ -8714,7 +8709,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="28">
+    <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>142</v>
       </c>
@@ -8740,7 +8735,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>143</v>
       </c>
@@ -8769,7 +8764,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>144</v>
       </c>
@@ -8798,7 +8793,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>145</v>
       </c>
@@ -8827,7 +8822,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="28">
+    <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>147</v>
       </c>
@@ -8853,7 +8848,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>148</v>
       </c>
@@ -8879,7 +8874,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>149</v>
       </c>
@@ -8905,7 +8900,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>150</v>
       </c>
@@ -8931,7 +8926,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="28">
+    <row r="76" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>166</v>
       </c>
@@ -8957,7 +8952,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>167</v>
       </c>
@@ -8986,7 +8981,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>168</v>
       </c>
@@ -9015,7 +9010,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>169</v>
       </c>
@@ -9044,7 +9039,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="28">
+    <row r="80" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>171</v>
       </c>
@@ -9070,7 +9065,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>172</v>
       </c>
@@ -9099,7 +9094,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>173</v>
       </c>
@@ -9128,7 +9123,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>174</v>
       </c>
@@ -9157,7 +9152,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="28">
+    <row r="84" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>176</v>
       </c>
@@ -9183,7 +9178,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>177</v>
       </c>
@@ -9209,7 +9204,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>178</v>
       </c>
@@ -9235,7 +9230,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>179</v>
       </c>
@@ -9261,11 +9256,11 @@
         <v>622</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B88" s="2"/>
       <c r="J88" s="2"/>
     </row>
-    <row r="89" spans="1:15" ht="56">
+    <row r="89" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>300</v>
       </c>
@@ -9291,7 +9286,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="42">
+    <row r="90" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>297</v>
       </c>
@@ -9320,7 +9315,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>298</v>
       </c>
@@ -9346,7 +9341,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>299</v>
       </c>
@@ -9372,7 +9367,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>302</v>
       </c>
@@ -9398,7 +9393,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>301</v>
       </c>
@@ -9424,7 +9419,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>170</v>
       </c>
@@ -9445,7 +9440,7 @@
       </c>
       <c r="J95" s="23"/>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>175</v>
       </c>
@@ -9466,7 +9461,7 @@
       </c>
       <c r="J96" s="23"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>141</v>
       </c>
@@ -9487,7 +9482,7 @@
       </c>
       <c r="J97" s="23"/>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>146</v>
       </c>
@@ -9508,11 +9503,11 @@
       </c>
       <c r="J98" s="23"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B99" s="2"/>
       <c r="J99" s="23"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>413</v>
       </c>
@@ -9535,7 +9530,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>414</v>
       </c>
@@ -9558,7 +9553,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>415</v>
       </c>
@@ -9581,7 +9576,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>410</v>
       </c>
@@ -9610,7 +9605,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>411</v>
       </c>
@@ -9639,7 +9634,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>412</v>
       </c>
@@ -9665,7 +9660,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>416</v>
       </c>
@@ -9688,7 +9683,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>417</v>
       </c>
@@ -9711,7 +9706,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>418</v>
       </c>
@@ -9734,7 +9729,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>419</v>
       </c>
@@ -9763,7 +9758,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>420</v>
       </c>
@@ -9792,7 +9787,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>421</v>
       </c>
@@ -9818,27 +9813,22 @@
         <v>618</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B112" s="2"/>
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="10:10">
+    <row r="113" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J113" s="49"/>
     </row>
-    <row r="114" spans="10:10">
+    <row r="114" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J114" s="49"/>
     </row>
-    <row r="115" spans="10:10">
+    <row r="115" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J115" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -9850,22 +9840,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>246</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/project/cascade-belarus.xlsx
+++ b/project/cascade-belarus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="14960" tabRatio="647" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="647" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Databook Sheet Names" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="634">
   <si>
     <t>Code Label</t>
   </si>
@@ -5578,8 +5578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5661,6 +5661,9 @@
       <c r="I2" t="s">
         <v>3</v>
       </c>
+      <c r="O2" s="2" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
@@ -6465,6 +6468,9 @@
       </c>
       <c r="K36" t="s">
         <v>154</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -7350,7 +7356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>

--- a/project/cascade-belarus.xlsx
+++ b/project/cascade-belarus.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sjarvis/git/tb-ucl/project/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-2900" yWindow="-18760" windowWidth="30100" windowHeight="18500" tabRatio="647" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="25040" windowHeight="14960" tabRatio="647" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Databook Sheet Names" sheetId="5" r:id="rId1"/>
@@ -19,20 +14,20 @@
     <sheet name="Parameters" sheetId="3" r:id="rId5"/>
     <sheet name="Notes" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001" calcMode="autoNoTable" iterate="1" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="635">
   <si>
     <t>Code Label</t>
   </si>
@@ -443,9 +438,6 @@
   </si>
   <si>
     <t>spx_prop</t>
-  </si>
-  <si>
-    <t>spddiag_rate</t>
   </si>
   <si>
     <t>spdyes_rate</t>
@@ -2156,6 +2148,12 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>WHO: Global and regional immunization profile 2016.   http://www.who.int/immunization/monitoring_surveillance/data/gs_gloprofile.pdf?ua=1</t>
   </si>
 </sst>
 </file>
@@ -2563,11 +2561,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="126">
+  <cellStyleXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2853,7 +2879,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="126">
+  <cellStyles count="154">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -2916,6 +2942,20 @@
     <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2978,6 +3018,20 @@
     <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -3327,13 +3381,13 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="15" t="s">
         <v>75</v>
       </c>
@@ -3341,88 +3395,93 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>467</v>
-      </c>
       <c r="B10" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>450</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3434,7 +3493,7 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.83203125" bestFit="1" customWidth="1"/>
@@ -3444,7 +3503,7 @@
     <col min="6" max="7" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3458,7 +3517,7 @@
         <v>74</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>55</v>
@@ -3467,7 +3526,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3475,10 +3534,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3486,76 +3545,76 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>183</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>184</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>190</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
         <v>185</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>191</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>186</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>187</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>193</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -3563,15 +3622,15 @@
         <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>70</v>
@@ -3580,12 +3639,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>33</v>
@@ -3594,51 +3653,51 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>108</v>
       </c>
@@ -3649,7 +3708,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>109</v>
       </c>
@@ -3660,7 +3719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -3671,7 +3730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -3682,7 +3741,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>112</v>
       </c>
@@ -3693,12 +3752,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>34</v>
@@ -3707,7 +3766,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>113</v>
       </c>
@@ -3718,7 +3777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>114</v>
       </c>
@@ -3729,7 +3788,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>115</v>
       </c>
@@ -3740,7 +3799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>116</v>
       </c>
@@ -3751,7 +3810,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>117</v>
       </c>
@@ -3762,7 +3821,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>118</v>
       </c>
@@ -3773,7 +3832,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>119</v>
       </c>
@@ -3784,7 +3843,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>120</v>
       </c>
@@ -3795,7 +3854,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>121</v>
       </c>
@@ -3806,7 +3865,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -3817,7 +3876,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -3831,7 +3890,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -3845,12 +3904,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
+        <v>246</v>
+      </c>
+      <c r="B35" t="s">
         <v>247</v>
-      </c>
-      <c r="B35" t="s">
-        <v>248</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>47</v>
@@ -3861,6 +3920,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3868,11 +3932,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AJ4" sqref="AJ4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="2" max="2" width="3.33203125" bestFit="1" customWidth="1"/>
@@ -3909,10 +3973,10 @@
     <col min="35" max="35" width="4.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -3921,31 +3985,31 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>71</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>104</v>
@@ -3975,7 +4039,7 @@
         <v>112</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X1" s="5" t="s">
         <v>113</v>
@@ -4014,13 +4078,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35">
       <c r="A2" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -4055,17 +4119,17 @@
       <c r="AH2" s="7"/>
       <c r="AI2" s="55"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -4100,7 +4164,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -4115,7 +4179,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="10"/>
@@ -4143,26 +4207,26 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35">
       <c r="A5" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
       <c r="F5" s="27" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="27" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
       <c r="K5" s="27"/>
       <c r="L5" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M5" s="26"/>
       <c r="N5" s="27"/>
@@ -4190,9 +4254,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35">
       <c r="A6" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
@@ -4200,16 +4264,16 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="10"/>
@@ -4237,23 +4301,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35">
       <c r="A7" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B7" s="31"/>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
       <c r="F7" s="32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
       <c r="K7" s="32" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L7" s="33"/>
       <c r="M7" s="31"/>
@@ -4282,9 +4346,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35">
       <c r="A8" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="27"/>
@@ -4294,12 +4358,12 @@
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J8" s="27"/>
       <c r="K8" s="27"/>
       <c r="L8" s="28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M8" s="26"/>
       <c r="N8" s="27"/>
@@ -4327,9 +4391,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35">
       <c r="A9" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
@@ -4340,11 +4404,11 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K9" s="10"/>
       <c r="L9" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="10"/>
@@ -4372,9 +4436,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35">
       <c r="A10" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="32"/>
@@ -4384,11 +4448,11 @@
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
       <c r="I10" s="32" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J10" s="32"/>
       <c r="K10" s="32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L10" s="33"/>
       <c r="M10" s="31"/>
@@ -4417,7 +4481,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35">
       <c r="A11" s="3" t="s">
         <v>71</v>
       </c>
@@ -4432,7 +4496,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="10"/>
@@ -4460,9 +4524,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35">
       <c r="A12" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="20"/>
@@ -4476,7 +4540,7 @@
       <c r="K12" s="20"/>
       <c r="L12" s="21"/>
       <c r="M12" s="19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
@@ -4488,7 +4552,7 @@
       <c r="U12" s="20"/>
       <c r="V12" s="22"/>
       <c r="W12" s="19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="X12" s="20"/>
       <c r="Y12" s="20"/>
@@ -4503,9 +4567,9 @@
       <c r="AH12" s="20"/>
       <c r="AI12" s="22"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35">
       <c r="A13" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
@@ -4520,17 +4584,17 @@
       <c r="L13" s="16"/>
       <c r="M13" s="6"/>
       <c r="N13" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="U13" s="7"/>
       <c r="V13" s="8"/>
@@ -4548,7 +4612,7 @@
       <c r="AH13" s="10"/>
       <c r="AI13" s="11"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35">
       <c r="A14" s="4" t="s">
         <v>104</v>
       </c>
@@ -4566,7 +4630,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
@@ -4586,16 +4650,16 @@
       <c r="AE14" s="10"/>
       <c r="AF14" s="11"/>
       <c r="AG14" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AH14" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AI14" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35">
       <c r="A15" s="4" t="s">
         <v>105</v>
       </c>
@@ -4614,7 +4678,7 @@
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
@@ -4633,16 +4697,16 @@
       <c r="AE15" s="10"/>
       <c r="AF15" s="11"/>
       <c r="AG15" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AH15" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AI15" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35">
       <c r="A16" s="4" t="s">
         <v>106</v>
       </c>
@@ -4660,12 +4724,12 @@
       <c r="M16" s="9"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
@@ -4682,16 +4746,16 @@
       <c r="AE16" s="10"/>
       <c r="AF16" s="11"/>
       <c r="AG16" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AH16" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AI16" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35">
       <c r="A17" s="4" t="s">
         <v>107</v>
       </c>
@@ -4712,7 +4776,7 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
@@ -4729,16 +4793,16 @@
       <c r="AE17" s="10"/>
       <c r="AF17" s="11"/>
       <c r="AG17" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AH17" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AI17" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35">
       <c r="A18" s="4" t="s">
         <v>108</v>
       </c>
@@ -4760,7 +4824,7 @@
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
@@ -4776,16 +4840,16 @@
       <c r="AE18" s="10"/>
       <c r="AF18" s="11"/>
       <c r="AG18" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AH18" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AI18" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35">
       <c r="A19" s="4" t="s">
         <v>109</v>
       </c>
@@ -4806,12 +4870,12 @@
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
       <c r="U19" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="V19" s="11"/>
       <c r="W19" s="9"/>
@@ -4825,16 +4889,16 @@
       <c r="AE19" s="10"/>
       <c r="AF19" s="11"/>
       <c r="AG19" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AH19" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AI19" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35">
       <c r="A20" s="4" t="s">
         <v>110</v>
       </c>
@@ -4858,7 +4922,7 @@
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V20" s="10"/>
       <c r="W20" s="9"/>
@@ -4872,16 +4936,16 @@
       <c r="AE20" s="10"/>
       <c r="AF20" s="11"/>
       <c r="AG20" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AH20" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AI20" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35">
       <c r="A21" s="4" t="s">
         <v>111</v>
       </c>
@@ -4906,7 +4970,7 @@
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="W21" s="9"/>
       <c r="X21" s="10"/>
@@ -4919,16 +4983,16 @@
       <c r="AE21" s="10"/>
       <c r="AF21" s="11"/>
       <c r="AG21" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AH21" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AI21" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35">
       <c r="A22" s="4" t="s">
         <v>112</v>
       </c>
@@ -4952,7 +5016,7 @@
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
       <c r="U22" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="V22" s="10"/>
       <c r="W22" s="12"/>
@@ -4966,18 +5030,18 @@
       <c r="AE22" s="13"/>
       <c r="AF22" s="14"/>
       <c r="AG22" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AH22" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AI22" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35">
       <c r="A23" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
@@ -5002,17 +5066,17 @@
       <c r="V23" s="8"/>
       <c r="W23" s="6"/>
       <c r="X23" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
       <c r="AD23" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AE23" s="7"/>
       <c r="AF23" s="8"/>
@@ -5020,7 +5084,7 @@
       <c r="AH23" s="7"/>
       <c r="AI23" s="8"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35">
       <c r="A24" s="5" t="s">
         <v>113</v>
       </c>
@@ -5048,7 +5112,7 @@
       <c r="W24" s="9"/>
       <c r="X24" s="10"/>
       <c r="Y24" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
@@ -5058,16 +5122,16 @@
       <c r="AE24" s="10"/>
       <c r="AF24" s="11"/>
       <c r="AG24" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AH24" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AI24" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35">
       <c r="A25" s="5" t="s">
         <v>114</v>
       </c>
@@ -5096,7 +5160,7 @@
       <c r="X25" s="10"/>
       <c r="Y25" s="10"/>
       <c r="Z25" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AA25" s="10"/>
       <c r="AB25" s="10"/>
@@ -5105,16 +5169,16 @@
       <c r="AE25" s="10"/>
       <c r="AF25" s="11"/>
       <c r="AG25" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AH25" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AI25" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35">
       <c r="A26" s="5" t="s">
         <v>115</v>
       </c>
@@ -5142,28 +5206,28 @@
       <c r="W26" s="9"/>
       <c r="X26" s="10"/>
       <c r="Y26" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Z26" s="10"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AC26" s="10"/>
       <c r="AD26" s="10"/>
       <c r="AE26" s="10"/>
       <c r="AF26" s="11"/>
       <c r="AG26" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AH26" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AI26" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35">
       <c r="A27" s="5" t="s">
         <v>116</v>
       </c>
@@ -5194,23 +5258,23 @@
       <c r="Z27" s="10"/>
       <c r="AA27" s="10"/>
       <c r="AB27" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AC27" s="10"/>
       <c r="AD27" s="10"/>
       <c r="AE27" s="10"/>
       <c r="AF27" s="11"/>
       <c r="AG27" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AH27" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AI27" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35">
       <c r="A28" s="5" t="s">
         <v>117</v>
       </c>
@@ -5242,22 +5306,22 @@
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
       <c r="AC28" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AD28" s="10"/>
       <c r="AE28" s="10"/>
       <c r="AF28" s="11"/>
       <c r="AG28" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AH28" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AI28" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35">
       <c r="A29" s="5" t="s">
         <v>118</v>
       </c>
@@ -5288,25 +5352,25 @@
       <c r="Z29" s="10"/>
       <c r="AA29" s="10"/>
       <c r="AB29" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AC29" s="10"/>
       <c r="AD29" s="10"/>
       <c r="AE29" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF29" s="11"/>
       <c r="AG29" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AH29" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AI29" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35">
       <c r="A30" s="5" t="s">
         <v>119</v>
       </c>
@@ -5340,20 +5404,20 @@
       <c r="AC30" s="10"/>
       <c r="AD30" s="10"/>
       <c r="AE30" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF30" s="10"/>
       <c r="AG30" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AH30" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AI30" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35">
       <c r="A31" s="5" t="s">
         <v>120</v>
       </c>
@@ -5388,19 +5452,19 @@
       <c r="AD31" s="10"/>
       <c r="AE31" s="10"/>
       <c r="AF31" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG31" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AH31" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AI31" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35">
       <c r="A32" s="5" t="s">
         <v>121</v>
       </c>
@@ -5434,20 +5498,20 @@
       <c r="AC32" s="13"/>
       <c r="AD32" s="13"/>
       <c r="AE32" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF32" s="14"/>
       <c r="AG32" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AH32" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AI32" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35">
       <c r="A33" s="4" t="s">
         <v>72</v>
       </c>
@@ -5462,7 +5526,7 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10"/>
@@ -5490,7 +5554,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35">
       <c r="A34" s="4" t="s">
         <v>41</v>
       </c>
@@ -5529,7 +5593,7 @@
       <c r="AH34" s="10"/>
       <c r="AI34" s="11"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35">
       <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
@@ -5571,6 +5635,11 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5579,10 +5648,10 @@
   <dimension ref="A1:O79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.1640625" bestFit="1" customWidth="1"/>
@@ -5610,7 +5679,7 @@
     <col min="29" max="29" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5639,18 +5708,18 @@
         <v>48</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -5661,19 +5730,16 @@
       <c r="I2" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B4" t="s">
         <v>487</v>
       </c>
-      <c r="B4" t="s">
-        <v>488</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D4" s="2">
         <v>10</v>
@@ -5685,237 +5751,237 @@
         <v>71</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D5" s="2">
         <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D6" s="2">
         <v>9</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D7" s="2">
         <v>7</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I7" t="s">
+        <v>470</v>
+      </c>
+      <c r="J7" t="s">
         <v>471</v>
       </c>
-      <c r="J7" t="s">
-        <v>472</v>
-      </c>
       <c r="O7" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>476</v>
+      </c>
+      <c r="B8" t="s">
         <v>477</v>
       </c>
-      <c r="B8" t="s">
-        <v>478</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D9" s="2">
         <v>6</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B10" t="s">
         <v>480</v>
       </c>
-      <c r="B10" t="s">
-        <v>481</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D10" s="2">
         <v>4</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D11" s="2">
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D12" s="2">
         <v>3</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I13" t="s">
+        <v>468</v>
+      </c>
+      <c r="J13" t="s">
         <v>469</v>
       </c>
-      <c r="J13" t="s">
-        <v>470</v>
-      </c>
       <c r="O13" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
+        <v>488</v>
+      </c>
+      <c r="B15" t="s">
         <v>489</v>
       </c>
-      <c r="B15" t="s">
-        <v>490</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D15" s="2">
         <v>22</v>
@@ -5927,18 +5993,18 @@
         <v>72</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B16" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D16" s="2">
         <v>9</v>
@@ -5950,18 +6016,18 @@
         <v>106</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D17" s="2">
         <v>10</v>
@@ -5973,18 +6039,18 @@
         <v>109</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D18" s="2">
         <v>11</v>
@@ -5996,18 +6062,18 @@
         <v>112</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B19" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D19" s="2">
         <v>19</v>
@@ -6019,18 +6085,18 @@
         <v>115</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B20" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D20" s="2">
         <v>20</v>
@@ -6042,18 +6108,18 @@
         <v>118</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B21" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D21" s="2">
         <v>21</v>
@@ -6065,18 +6131,18 @@
         <v>121</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B22" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D22" s="2">
         <v>6</v>
@@ -6088,21 +6154,21 @@
         <v>105</v>
       </c>
       <c r="J22" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B23" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D23" s="2">
         <v>7</v>
@@ -6114,21 +6180,21 @@
         <v>108</v>
       </c>
       <c r="J23" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B24" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D24" s="2">
         <v>8</v>
@@ -6140,21 +6206,21 @@
         <v>111</v>
       </c>
       <c r="J24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B25" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D25" s="2">
         <v>16</v>
@@ -6166,21 +6232,21 @@
         <v>114</v>
       </c>
       <c r="J25" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B26" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D26" s="2">
         <v>17</v>
@@ -6192,21 +6258,21 @@
         <v>117</v>
       </c>
       <c r="J26" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B27" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D27" s="2">
         <v>18</v>
@@ -6218,21 +6284,21 @@
         <v>120</v>
       </c>
       <c r="J27" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
+        <v>493</v>
+      </c>
+      <c r="B28" t="s">
         <v>494</v>
       </c>
-      <c r="B28" t="s">
-        <v>495</v>
-      </c>
       <c r="C28" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D28" s="2">
         <v>3</v>
@@ -6244,21 +6310,21 @@
         <v>104</v>
       </c>
       <c r="J28" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
+        <v>495</v>
+      </c>
+      <c r="B29" t="s">
         <v>496</v>
       </c>
-      <c r="B29" t="s">
-        <v>497</v>
-      </c>
       <c r="C29" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D29" s="2">
         <v>4</v>
@@ -6270,21 +6336,21 @@
         <v>107</v>
       </c>
       <c r="J29" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
+        <v>497</v>
+      </c>
+      <c r="B30" t="s">
         <v>498</v>
       </c>
-      <c r="B30" t="s">
-        <v>499</v>
-      </c>
       <c r="C30" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D30" s="2">
         <v>5</v>
@@ -6296,21 +6362,21 @@
         <v>110</v>
       </c>
       <c r="J30" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B31" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D31" s="2">
         <v>13</v>
@@ -6322,21 +6388,21 @@
         <v>113</v>
       </c>
       <c r="J31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B32" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D32" s="2">
         <v>14</v>
@@ -6348,21 +6414,21 @@
         <v>116</v>
       </c>
       <c r="J32" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B33" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D33" s="2">
         <v>15</v>
@@ -6374,111 +6440,108 @@
         <v>119</v>
       </c>
       <c r="J33" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D34" s="2">
         <v>2</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J34" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K34" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L34" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B35" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D35" s="2">
         <v>12</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J35" t="s">
+        <v>499</v>
+      </c>
+      <c r="K35" t="s">
         <v>500</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>501</v>
       </c>
-      <c r="L35" t="s">
-        <v>502</v>
-      </c>
       <c r="O35" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J36" t="s">
         <v>125</v>
       </c>
       <c r="K36" t="s">
-        <v>154</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>77</v>
@@ -6496,13 +6559,13 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K38" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L38" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M38" t="s">
         <v>49</v>
@@ -6511,15 +6574,15 @@
         <v>50</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>122</v>
       </c>
       <c r="B40" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" s="2">
         <v>-1</v>
@@ -6531,15 +6594,15 @@
         <v>105</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>123</v>
       </c>
       <c r="B41" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D41" s="2">
         <v>-1</v>
@@ -6551,15 +6614,15 @@
         <v>108</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>124</v>
       </c>
       <c r="B42" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D42" s="2">
         <v>-1</v>
@@ -6571,15 +6634,15 @@
         <v>111</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B43" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D43" s="2">
         <v>-1</v>
@@ -6591,15 +6654,15 @@
         <v>114</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B44" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D44" s="2">
         <v>-1</v>
@@ -6611,15 +6674,15 @@
         <v>117</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B45" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D45" s="2">
         <v>-1</v>
@@ -6631,15 +6694,15 @@
         <v>120</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>126</v>
       </c>
       <c r="B46" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D46" s="2">
         <v>-1</v>
@@ -6654,15 +6717,15 @@
         <v>122</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>127</v>
       </c>
       <c r="B47" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D47" s="2">
         <v>-1</v>
@@ -6677,15 +6740,15 @@
         <v>123</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>128</v>
       </c>
       <c r="B48" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D48" s="2">
         <v>-1</v>
@@ -6700,15 +6763,15 @@
         <v>124</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B49" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D49" s="2">
         <v>-1</v>
@@ -6720,18 +6783,18 @@
         <v>51</v>
       </c>
       <c r="I49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B50" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D50" s="2">
         <v>-1</v>
@@ -6743,19 +6806,19 @@
         <v>51</v>
       </c>
       <c r="I50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N50" s="15"/>
       <c r="O50" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B51" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D51" s="2">
         <v>-1</v>
@@ -6767,18 +6830,18 @@
         <v>51</v>
       </c>
       <c r="I51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D53" s="2">
         <v>-1</v>
@@ -6793,15 +6856,15 @@
         <v>49</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
+        <v>554</v>
+      </c>
+      <c r="B54" t="s">
         <v>555</v>
-      </c>
-      <c r="B54" t="s">
-        <v>556</v>
       </c>
       <c r="D54" s="2">
         <v>-1</v>
@@ -6813,18 +6876,18 @@
         <v>51</v>
       </c>
       <c r="I54" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B55" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D55" s="2">
         <v>-1</v>
@@ -6836,18 +6899,18 @@
         <v>51</v>
       </c>
       <c r="I55" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B56" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D56" s="2">
         <v>-1</v>
@@ -6859,18 +6922,18 @@
         <v>51</v>
       </c>
       <c r="I56" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B57" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D57" s="2">
         <v>-1</v>
@@ -6882,18 +6945,18 @@
         <v>51</v>
       </c>
       <c r="I57" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B58" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D58" s="2">
         <v>-1</v>
@@ -6905,18 +6968,18 @@
         <v>51</v>
       </c>
       <c r="I58" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B59" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D59" s="2">
         <v>-1</v>
@@ -6928,18 +6991,18 @@
         <v>51</v>
       </c>
       <c r="I59" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" t="s">
         <v>129</v>
       </c>
       <c r="B60" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D60" s="2">
         <v>-1</v>
@@ -6954,15 +7017,15 @@
         <v>125</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B61" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D61" s="2">
         <v>-1</v>
@@ -6974,18 +7037,18 @@
         <v>51</v>
       </c>
       <c r="I61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" t="s">
         <v>53</v>
       </c>
       <c r="B62" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D62" s="2">
         <v>-1</v>
@@ -7000,15 +7063,15 @@
         <v>50</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B64" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D64" s="2">
         <v>-1</v>
@@ -7017,15 +7080,15 @@
         <v>41</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B66" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D66" s="2">
         <v>-1</v>
@@ -7037,18 +7100,18 @@
         <v>49</v>
       </c>
       <c r="I66" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" t="s">
+        <v>571</v>
+      </c>
+      <c r="B67" t="s">
         <v>572</v>
-      </c>
-      <c r="B67" t="s">
-        <v>573</v>
       </c>
       <c r="D67" s="2">
         <v>-1</v>
@@ -7057,21 +7120,21 @@
         <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I67" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B68" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D68" s="2">
         <v>-1</v>
@@ -7080,21 +7143,21 @@
         <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I68" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B69" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D69" s="2">
         <v>-1</v>
@@ -7103,21 +7166,21 @@
         <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I69" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B70" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D70" s="2">
         <v>-1</v>
@@ -7126,21 +7189,21 @@
         <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I70" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B71" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D71" s="2">
         <v>-1</v>
@@ -7149,21 +7212,21 @@
         <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I71" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B72" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D72" s="2">
         <v>-1</v>
@@ -7172,21 +7235,21 @@
         <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I72" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" t="s">
+        <v>569</v>
+      </c>
+      <c r="B73" t="s">
         <v>570</v>
-      </c>
-      <c r="B73" t="s">
-        <v>571</v>
       </c>
       <c r="D73" s="2">
         <v>-1</v>
@@ -7195,21 +7258,21 @@
         <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I73" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" t="s">
+        <v>573</v>
+      </c>
+      <c r="B74" t="s">
         <v>574</v>
-      </c>
-      <c r="B74" t="s">
-        <v>575</v>
       </c>
       <c r="D74" s="2">
         <v>-1</v>
@@ -7218,21 +7281,21 @@
         <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I74" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B75" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D75" s="2">
         <v>-1</v>
@@ -7241,21 +7304,21 @@
         <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I75" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B76" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D76" s="2">
         <v>-1</v>
@@ -7264,21 +7327,21 @@
         <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I76" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B77" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D77" s="2">
         <v>-1</v>
@@ -7287,21 +7350,21 @@
         <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I77" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B78" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D78" s="2">
         <v>-1</v>
@@ -7310,21 +7373,21 @@
         <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I78" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B79" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D79" s="2">
         <v>-1</v>
@@ -7333,17 +7396,22 @@
         <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I79" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7351,11 +7419,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
@@ -7370,7 +7438,7 @@
     <col min="15" max="15" width="75.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -7390,861 +7458,867 @@
         <v>59</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>103</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="2">
+        <v>0.88</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F2" s="2">
         <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="J2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16" customHeight="1">
       <c r="A3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F3" s="2">
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F4" s="2">
         <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J4" s="40" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16" customHeight="1">
       <c r="A5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F5" s="2">
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16" customHeight="1">
       <c r="A6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F6" s="2">
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J6" s="40" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F7" s="2">
         <v>-1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H7" s="23" t="s">
+        <v>631</v>
+      </c>
+      <c r="I7" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="I7" s="23" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F8" s="2">
         <v>-1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F9" s="2">
         <v>-1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F10" s="2">
         <v>-1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F11" s="2">
         <v>-1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F12" s="2">
         <v>-1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F13" s="2">
         <v>-1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F14" s="2">
         <v>-1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="B15" s="2"/>
       <c r="J15" s="40"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D16" s="2">
         <v>0.2</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J16" s="39" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D17" s="2">
         <v>0.09</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J17" s="42" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16" customHeight="1">
       <c r="A18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D18" s="2">
         <v>0.115</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J18" s="39" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F19" s="2">
         <v>-1</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F20" s="2">
         <v>-1</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F21" s="2">
         <v>-1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F22" s="2">
         <v>-1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F23" s="2">
         <v>-1</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F24" s="2">
         <v>-1</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D26" s="2">
         <v>0.5</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F26" s="2">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D27" s="2">
         <v>0.5</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F27" s="2">
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J27" s="40" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D28" s="2">
         <v>4</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F28" s="2">
         <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J28" s="41" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>130</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F29" s="2">
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="28">
       <c r="A30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D30" s="2">
         <v>0.22</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F30" s="2">
         <v>5</v>
       </c>
       <c r="I30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J30" s="36" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="42">
       <c r="A31" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B31" s="44"/>
       <c r="C31" s="43" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F31" s="44">
         <v>6</v>
       </c>
       <c r="I31" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J31" s="45" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B32" s="44"/>
       <c r="C32" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F32" s="44">
         <v>7</v>
       </c>
       <c r="I32" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>131</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F33" s="2">
         <v>-1</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H33" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I33" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>132</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F34" s="2">
         <v>-1</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H34" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I34" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F35" s="2">
         <v>-1</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H35" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I35" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F36" s="2">
         <v>-1</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H36" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I36" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F37" s="2">
         <v>-1</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H37" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I37" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F38" s="2">
         <v>-1</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H38" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F39" s="2">
         <v>-1</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I39" s="23"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F40" s="2">
         <v>-1</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>66</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F41" s="2">
         <v>-1</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H41" s="23" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>67</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F42" s="2">
         <v>-1</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H42" s="23" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="B43" s="2"/>
       <c r="H43"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
+        <v>250</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C44" t="s">
         <v>251</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C44" t="s">
-        <v>252</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>77</v>
@@ -8253,13 +8327,13 @@
         <v>2</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I44" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -8276,154 +8350,154 @@
         <v>3</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I45" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J45" s="23"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15">
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="28">
       <c r="A47" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C47" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D47" s="35">
         <v>0.96099999999999997</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F47" s="2">
         <v>1</v>
       </c>
       <c r="H47"/>
       <c r="J47" s="53" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="28">
       <c r="A48" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C48" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D48" s="35">
         <v>3.5295E-2</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F48" s="2">
         <v>2</v>
       </c>
       <c r="H48"/>
       <c r="J48" s="53" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C49" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D49" s="35">
         <v>3.705E-3</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F49" s="2">
         <v>3</v>
       </c>
       <c r="H49"/>
       <c r="J49" s="37" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="28">
       <c r="A50" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C50" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D50" s="35">
         <v>0.96099999999999997</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F50" s="2">
         <v>4</v>
       </c>
       <c r="H50"/>
       <c r="J50" s="36" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C51" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D51" s="35">
         <v>3.5295E-2</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F51" s="2">
         <v>5</v>
       </c>
       <c r="H51"/>
       <c r="J51" s="36" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O51" s="2"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C52" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D52" s="35">
         <v>3.705E-3</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F52" s="2">
         <v>6</v>
       </c>
       <c r="H52"/>
       <c r="J52" s="36" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O52" s="2"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C53" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D53"/>
       <c r="E53" s="52"/>
@@ -8431,16 +8505,16 @@
         <v>-1</v>
       </c>
       <c r="H53" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O53" s="2"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C54" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D54"/>
       <c r="E54" s="52"/>
@@ -8448,160 +8522,160 @@
         <v>-1</v>
       </c>
       <c r="H54" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O54" s="2"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
         <v>133</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C55" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F55" s="2">
         <v>-1</v>
       </c>
       <c r="H55" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C56" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F56" s="2">
         <v>-1</v>
       </c>
       <c r="H56" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
         <v>134</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C57" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F57" s="2">
         <v>-1</v>
       </c>
       <c r="H57" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
         <v>135</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C58" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F58" s="2">
         <v>-1</v>
       </c>
       <c r="H58" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" t="s">
         <v>136</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C59" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F59" s="2">
         <v>-1</v>
       </c>
       <c r="H59" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F60" s="2">
         <v>-1</v>
       </c>
       <c r="H60" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J60" s="23"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15">
       <c r="A61" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F61" s="2">
         <v>-1</v>
       </c>
       <c r="H61" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="J61" s="23"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15">
       <c r="A62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C62" s="43" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F62" s="2">
         <v>-1</v>
       </c>
       <c r="H62" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J62" s="23"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15">
       <c r="B63" s="2"/>
       <c r="C63" s="43"/>
       <c r="J63" s="23"/>
     </row>
-    <row r="64" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="28">
       <c r="A64" t="s">
-        <v>137</v>
+        <v>633</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C64" t="s">
         <v>78</v>
@@ -8610,24 +8684,24 @@
         <v>0.59</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F64" s="2">
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J64" s="53" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C65" t="s">
         <v>79</v>
@@ -8636,27 +8710,27 @@
         <v>0.59</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F65" s="2">
         <v>2</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I65" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C66" t="s">
         <v>80</v>
@@ -8665,27 +8739,27 @@
         <v>0.05</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F66" s="2">
         <v>3</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I66" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J66" s="35" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C67" t="s">
         <v>81</v>
@@ -8694,27 +8768,27 @@
         <v>0.83</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F67" s="2">
         <v>4</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I67" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J67" s="35" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="28">
       <c r="A68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C68" t="s">
         <v>82</v>
@@ -8723,24 +8797,24 @@
         <v>0.59</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F68" s="2">
         <v>5</v>
       </c>
       <c r="I68" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J68" s="53" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C69" t="s">
         <v>83</v>
@@ -8749,27 +8823,27 @@
         <v>0.37</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F69" s="2">
         <v>6</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I69" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J69" s="35" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C70" t="s">
         <v>84</v>
@@ -8778,27 +8852,27 @@
         <v>0.24</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F70" s="2">
         <v>7</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I70" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J70" s="35" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C71" t="s">
         <v>85</v>
@@ -8807,27 +8881,27 @@
         <v>0.52</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F71" s="2">
         <v>8</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I71" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J71" s="35" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="28">
       <c r="A72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C72" t="s">
         <v>86</v>
@@ -8836,24 +8910,24 @@
         <v>0.59</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F72" s="35">
         <v>9</v>
       </c>
       <c r="I72" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J72" s="53" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C73" t="s">
         <v>87</v>
@@ -8862,24 +8936,24 @@
         <v>0.37</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F73" s="2">
         <v>10</v>
       </c>
       <c r="I73" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C74" t="s">
         <v>88</v>
@@ -8888,24 +8962,24 @@
         <v>0.44</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F74" s="35">
         <v>11</v>
       </c>
       <c r="I74" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J74" s="35" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C75" t="s">
         <v>89</v>
@@ -8914,24 +8988,24 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F75" s="2">
         <v>12</v>
       </c>
       <c r="I75" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J75" s="35" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="28">
       <c r="A76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C76" s="43" t="s">
         <v>90</v>
@@ -8940,24 +9014,24 @@
         <v>0.59</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F76" s="35">
         <v>13</v>
       </c>
       <c r="I76" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J76" s="53" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C77" s="43" t="s">
         <v>91</v>
@@ -8966,27 +9040,27 @@
         <v>0.59</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F77" s="2">
         <v>14</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I77" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C78" s="43" t="s">
         <v>92</v>
@@ -8995,27 +9069,27 @@
         <v>0.05</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F78" s="35">
         <v>15</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I78" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J78" s="35" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C79" s="43" t="s">
         <v>93</v>
@@ -9024,27 +9098,27 @@
         <v>0.83</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F79" s="2">
         <v>16</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I79" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J79" s="35" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="28">
       <c r="A80" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C80" s="43" t="s">
         <v>94</v>
@@ -9053,24 +9127,24 @@
         <v>0.59</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F80" s="35">
         <v>17</v>
       </c>
       <c r="I80" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J80" s="53" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C81" s="43" t="s">
         <v>95</v>
@@ -9079,27 +9153,27 @@
         <v>0.37</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F81" s="2">
         <v>18</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I81" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J81" s="35" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C82" s="43" t="s">
         <v>96</v>
@@ -9108,27 +9182,27 @@
         <v>0.24</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F82" s="35">
         <v>19</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I82" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J82" s="35" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C83" s="43" t="s">
         <v>97</v>
@@ -9137,27 +9211,27 @@
         <v>0.52</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F83" s="2">
         <v>20</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I83" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J83" s="35" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="28">
       <c r="A84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C84" s="43" t="s">
         <v>98</v>
@@ -9166,24 +9240,24 @@
         <v>0.59</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F84" s="35">
         <v>21</v>
       </c>
       <c r="I84" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J84" s="53" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C85" s="43" t="s">
         <v>99</v>
@@ -9192,24 +9266,24 @@
         <v>0.37</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F85" s="2">
         <v>22</v>
       </c>
       <c r="I85" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C86" s="43" t="s">
         <v>100</v>
@@ -9218,24 +9292,24 @@
         <v>0.44</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F86" s="35">
         <v>23</v>
       </c>
       <c r="I86" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J86" s="35" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C87" s="43" t="s">
         <v>101</v>
@@ -9244,591 +9318,597 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F87" s="2">
         <v>24</v>
       </c>
       <c r="I87" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J87" s="35" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="B88" s="2"/>
       <c r="J88" s="2"/>
     </row>
-    <row r="89" spans="1:15" ht="45" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="56">
       <c r="A89" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C89" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D89" s="2">
         <v>0.2</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F89" s="2">
         <v>1</v>
       </c>
       <c r="I89" t="s">
+        <v>295</v>
+      </c>
+      <c r="J89" s="46" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="42">
+      <c r="A90" t="s">
         <v>296</v>
       </c>
-      <c r="J89" s="46" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="45" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>297</v>
-      </c>
       <c r="B90" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C90" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D90" s="2">
         <v>0.15</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F90" s="2">
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J90" s="46" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O90" s="45" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C91" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D91" s="2">
         <v>0.15</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F91" s="37">
         <v>3</v>
       </c>
       <c r="I91" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J91" s="47" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C92" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D92" s="2">
         <v>0.2</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F92" s="2">
         <v>4</v>
       </c>
       <c r="I92" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J92" s="45" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C93" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D93" s="2">
         <v>0.15</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F93" s="2">
         <v>5</v>
       </c>
       <c r="I93" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J93" s="45" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C94" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D94" s="2">
         <v>0.15</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F94" s="2">
         <v>6</v>
       </c>
       <c r="I94" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J94" s="48" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C95" s="43" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F95" s="2">
         <v>7</v>
       </c>
       <c r="I95" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J95" s="23"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15">
       <c r="A96" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C96" s="43" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F96" s="2">
         <v>8</v>
       </c>
       <c r="I96" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J96" s="23"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C97" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F97" s="2">
         <v>9</v>
       </c>
       <c r="I97" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J97" s="23"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C98" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F98" s="2">
         <v>10</v>
       </c>
       <c r="I98" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J98" s="23"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10">
       <c r="B99" s="2"/>
       <c r="J99" s="23"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C100" s="43" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D100" s="2">
         <v>0.7</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F100" s="2">
         <v>1</v>
       </c>
       <c r="J100" s="38" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C101" s="43" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D101" s="2">
         <v>0.7</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F101" s="2">
         <v>2</v>
       </c>
       <c r="J101" s="38" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C102" s="43" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D102" s="2">
         <v>0.7</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F102" s="2">
         <v>3</v>
       </c>
       <c r="J102" s="38" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C103" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D103" s="2">
         <v>0.03</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F103" s="2">
         <v>4</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I103" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J103" s="35" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C104" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D104" s="2">
         <v>0.17</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F104" s="35">
         <v>5</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I104" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J104" s="35" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C105" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D105" s="2">
         <v>0.27</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F105" s="2">
         <v>6</v>
       </c>
       <c r="I105" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J105" s="35" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C106" s="43" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D106" s="2">
         <v>0.2</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F106" s="2">
         <v>7</v>
       </c>
       <c r="J106" s="38" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C107" s="43" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D107" s="2">
         <v>0.2</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F107" s="2">
         <v>8</v>
       </c>
       <c r="J107" s="38" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C108" s="43" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D108" s="2">
         <v>0.2</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F108" s="2">
         <v>9</v>
       </c>
       <c r="J108" s="38" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C109" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D109" s="2">
         <v>0.03</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F109" s="2">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I109" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J109" s="35" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C110" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D110" s="2">
         <v>0.17</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F110" s="35">
         <v>11</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I110" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J110" s="35" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C111" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D111" s="2">
         <v>0.27</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F111" s="2">
         <v>12</v>
       </c>
       <c r="I111" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J111" s="35" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="B112" s="2"/>
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="10:10">
       <c r="J113" s="49"/>
     </row>
-    <row r="114" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="10:10">
       <c r="J114" s="49"/>
     </row>
-    <row r="115" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="10:10">
       <c r="J115" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9840,17 +9920,22 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/project/cascade-belarus.xlsx
+++ b/project/cascade-belarus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="25040" windowHeight="14960" tabRatio="647" activeTab="4"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="25040" windowHeight="14960" tabRatio="647" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Databook Sheet Names" sheetId="5" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Parameters" sheetId="3" r:id="rId5"/>
     <sheet name="Notes" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" calcMode="autoNoTable" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="635">
   <si>
     <t>Code Label</t>
   </si>
@@ -5647,8 +5647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="C30" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5730,6 +5730,9 @@
       <c r="I2" t="s">
         <v>3</v>
       </c>
+      <c r="O2" s="2" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
@@ -6535,6 +6538,9 @@
       <c r="K36" t="s">
         <v>153</v>
       </c>
+      <c r="O36" s="2" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" t="s">
@@ -6572,9 +6578,6 @@
       </c>
       <c r="N38" t="s">
         <v>50</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -7419,7 +7422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -9902,7 +9905,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/project/cascade-belarus.xlsx
+++ b/project/cascade-belarus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="25040" windowHeight="14960" tabRatio="647" activeTab="3"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="25040" windowHeight="14960" tabRatio="647" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Databook Sheet Names" sheetId="5" r:id="rId1"/>
@@ -5647,7 +5647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C30" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
@@ -7422,8 +7422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106:D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -9595,7 +9595,7 @@
         <v>436</v>
       </c>
       <c r="D100" s="2">
-        <v>0.7</v>
+        <v>0.12</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>448</v>
@@ -9618,7 +9618,7 @@
         <v>437</v>
       </c>
       <c r="D101" s="2">
-        <v>0.7</v>
+        <v>0.12</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>448</v>
@@ -9641,7 +9641,7 @@
         <v>438</v>
       </c>
       <c r="D102" s="2">
-        <v>0.7</v>
+        <v>0.12</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>448</v>
@@ -9747,7 +9747,7 @@
       <c r="C106" s="43" t="s">
         <v>445</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106" s="54">
         <v>0.2</v>
       </c>
       <c r="E106" s="2" t="s">
@@ -9770,7 +9770,7 @@
       <c r="C107" s="43" t="s">
         <v>446</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="54">
         <v>0.2</v>
       </c>
       <c r="E107" s="2" t="s">
@@ -9793,7 +9793,7 @@
       <c r="C108" s="43" t="s">
         <v>447</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108" s="54">
         <v>0.2</v>
       </c>
       <c r="E108" s="2" t="s">
